--- a/MyProject2/Content/Excels/Socios.xlsx
+++ b/MyProject2/Content/Excels/Socios.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23713"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44845782-672A-4D52-A2D5-346B65CD1C20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF564D2D-1F63-4807-89FB-8CD8A09079AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registro de usuarios" sheetId="1" r:id="rId1"/>
+    <sheet name="Registro de empresas" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
@@ -26,14 +27,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Nomre y apellidos</t>
   </si>
   <si>
-    <t>Username</t>
-  </si>
-  <si>
     <t>Empresa</t>
   </si>
   <si>
@@ -46,16 +44,55 @@
     <t>PW Generado</t>
   </si>
   <si>
-    <t>Alfonso Gutierres Palomares</t>
-  </si>
-  <si>
-    <t>Alfonsi</t>
+    <t>Goberto Calleja Calleja</t>
   </si>
   <si>
     <t>Secpho</t>
   </si>
   <si>
-    <t>alfonsi@gmail.com</t>
+    <t>user1@gmail.com</t>
+  </si>
+  <si>
+    <t>user1</t>
+  </si>
+  <si>
+    <t>Victor Gonzales</t>
+  </si>
+  <si>
+    <t>VicG@gmail.com</t>
+  </si>
+  <si>
+    <t>Daniel Carvajal</t>
+  </si>
+  <si>
+    <t>Inventado</t>
+  </si>
+  <si>
+    <t>danic@gmail.com</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>Tipo De Entidad</t>
+  </si>
+  <si>
+    <t>Actividad</t>
+  </si>
+  <si>
+    <t>Dirección</t>
+  </si>
+  <si>
+    <t>Contacto</t>
+  </si>
+  <si>
+    <t>Logo Url</t>
   </si>
 </sst>
 </file>
@@ -433,22 +470,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="3" max="4" width="20.28515625" customWidth="1"/>
     <col min="5" max="5" width="20.42578125" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -464,28 +501,97 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>12345</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{C2F86D22-9865-448C-9AA4-CDC742F80EAF}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{C2F86D22-9865-448C-9AA4-CDC742F80EAF}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{8CBFEC48-6B8B-4800-A873-F9E52DC933FF}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{357FAB8B-B79A-4589-8ED4-3EB9E5D199AB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACD1D1C-4031-4818-B1E7-AE253C20CE05}">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="A1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/MyProject2/Content/Excels/Socios.xlsx
+++ b/MyProject2/Content/Excels/Socios.xlsx
@@ -1,33 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF564D2D-1F63-4807-89FB-8CD8A09079AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan\Desktop\Secpholand\MyProject2\Content\Excels\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A927CC-13A9-4FAC-9A9B-CAEA82C9D031}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registro de usuarios" sheetId="1" r:id="rId1"/>
     <sheet name="Registro de empresas" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191028"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Nomre y apellidos</t>
   </si>
@@ -93,13 +87,25 @@
   </si>
   <si>
     <t>Logo Url</t>
+  </si>
+  <si>
+    <t>Creada?</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Cargo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,7 +180,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -470,13 +476,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
@@ -485,67 +491,70 @@
     <col min="6" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>12345</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{C2F86D22-9865-448C-9AA4-CDC742F80EAF}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{8CBFEC48-6B8B-4800-A873-F9E52DC933FF}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{357FAB8B-B79A-4589-8ED4-3EB9E5D199AB}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{C2F86D22-9865-448C-9AA4-CDC742F80EAF}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{8CBFEC48-6B8B-4800-A873-F9E52DC933FF}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{357FAB8B-B79A-4589-8ED4-3EB9E5D199AB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -553,19 +562,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACD1D1C-4031-4818-B1E7-AE253C20CE05}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="A1:H1"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -589,6 +599,35 @@
       </c>
       <c r="H1" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/MyProject2/Content/Excels/Socios.xlsx
+++ b/MyProject2/Content/Excels/Socios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan\Desktop\Secpholand\MyProject2\Content\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A927CC-13A9-4FAC-9A9B-CAEA82C9D031}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B24DF9D-05E0-4314-AE58-767A78D00946}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registro de usuarios" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
   <si>
     <t>Nomre y apellidos</t>
   </si>
@@ -47,9 +47,6 @@
     <t>user1@gmail.com</t>
   </si>
   <si>
-    <t>user1</t>
-  </si>
-  <si>
     <t>Victor Gonzales</t>
   </si>
   <si>
@@ -71,9 +68,6 @@
     <t>Descripción</t>
   </si>
   <si>
-    <t>Url</t>
-  </si>
-  <si>
     <t>Tipo De Entidad</t>
   </si>
   <si>
@@ -89,16 +83,100 @@
     <t>Logo Url</t>
   </si>
   <si>
-    <t>Creada?</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>Cargo</t>
+  </si>
+  <si>
+    <t>Centro de I+D+i</t>
+  </si>
+  <si>
+    <t>Grupo de Investigación de Universidad</t>
+  </si>
+  <si>
+    <t>Desarrollo de software</t>
+  </si>
+  <si>
+    <t>Fabricante de componentes</t>
+  </si>
+  <si>
+    <t>Fabricante de módulos</t>
+  </si>
+  <si>
+    <t>Fabricante de sistemas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingeniería </t>
+  </si>
+  <si>
+    <t>Distribución de productos</t>
+  </si>
+  <si>
+    <t>Consultoría de I+D+i</t>
+  </si>
+  <si>
+    <t>startup</t>
+  </si>
+  <si>
+    <t>Aceleradora</t>
+  </si>
+  <si>
+    <t>Incubadora</t>
+  </si>
+  <si>
+    <t>Venture capital</t>
+  </si>
+  <si>
+    <t>Business Angel</t>
+  </si>
+  <si>
+    <t>Corporate</t>
+  </si>
+  <si>
+    <t>Empresa industrial usuaria de tecnología</t>
+  </si>
+  <si>
+    <t>Hospital o centro sanitario</t>
+  </si>
+  <si>
+    <t>Medio de comunicación</t>
+  </si>
+  <si>
+    <t>Empresa de servicios</t>
+  </si>
+  <si>
+    <t>Administración pública</t>
+  </si>
+  <si>
+    <t>Tipos de empresas</t>
+  </si>
+  <si>
+    <t>valor</t>
+  </si>
+  <si>
+    <t>Url web</t>
+  </si>
+  <si>
+    <t>Creada? (no rellenar)</t>
+  </si>
+  <si>
+    <t>sdaf</t>
+  </si>
+  <si>
+    <t>asdf</t>
+  </si>
+  <si>
+    <t>sdf</t>
+  </si>
+  <si>
+    <t>dsf</t>
+  </si>
+  <si>
+    <t>sadf</t>
+  </si>
+  <si>
+    <t>adsf</t>
+  </si>
+  <si>
+    <t>dsaf</t>
   </si>
 </sst>
 </file>
@@ -478,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -522,32 +600,38 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2">
-        <v>12345</v>
+        <v>49</v>
+      </c>
+      <c r="F2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -562,72 +646,273 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACD1D1C-4031-4818-B1E7-AE253C20CE05}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="2" max="2" width="41.28515625" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="36.42578125" customWidth="1"/>
+    <col min="6" max="6" width="51" customWidth="1"/>
+    <col min="7" max="7" width="39.42578125" customWidth="1"/>
+    <col min="8" max="8" width="32" customWidth="1"/>
     <col min="9" max="9" width="26.42578125" customWidth="1"/>
+    <col min="13" max="13" width="43.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
       <c r="D2">
         <v>1</v>
       </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>48</v>
+      </c>
       <c r="I2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
       <c r="D3">
         <v>2</v>
       </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>45</v>
+      </c>
       <c r="I3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="M3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D5">
         <v>6</v>
+      </c>
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M11" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M14" t="s">
+        <v>33</v>
+      </c>
+      <c r="N14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M15" t="s">
+        <v>34</v>
+      </c>
+      <c r="N15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M16" t="s">
+        <v>35</v>
+      </c>
+      <c r="N16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M17" t="s">
+        <v>36</v>
+      </c>
+      <c r="N17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M18" t="s">
+        <v>37</v>
+      </c>
+      <c r="N18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M19" t="s">
+        <v>38</v>
+      </c>
+      <c r="N19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M20" t="s">
+        <v>39</v>
+      </c>
+      <c r="N20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M21" t="s">
+        <v>40</v>
+      </c>
+      <c r="N21">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/MyProject2/Content/Excels/Socios.xlsx
+++ b/MyProject2/Content/Excels/Socios.xlsx
@@ -1,31 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23716"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan\Desktop\Secpholand\MyProject2\Content\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B24DF9D-05E0-4314-AE58-767A78D00946}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{33E68AEC-8FFA-4AF0-AC94-7457FECFBF68}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registro de usuarios" sheetId="1" r:id="rId1"/>
     <sheet name="Registro de empresas" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
   <si>
     <t>Nomre y apellidos</t>
   </si>
   <si>
+    <t>Cargo</t>
+  </si>
+  <si>
     <t>Empresa</t>
   </si>
   <si>
@@ -41,21 +55,33 @@
     <t>Goberto Calleja Calleja</t>
   </si>
   <si>
+    <t>CEO</t>
+  </si>
+  <si>
     <t>Secpho</t>
   </si>
   <si>
     <t>user1@gmail.com</t>
   </si>
   <si>
+    <t>user1</t>
+  </si>
+  <si>
     <t>Victor Gonzales</t>
   </si>
   <si>
+    <t>Administrador</t>
+  </si>
+  <si>
     <t>VicG@gmail.com</t>
   </si>
   <si>
     <t>Daniel Carvajal</t>
   </si>
   <si>
+    <t>Programador</t>
+  </si>
+  <si>
     <t>Inventado</t>
   </si>
   <si>
@@ -68,6 +94,9 @@
     <t>Descripción</t>
   </si>
   <si>
+    <t>Url web</t>
+  </si>
+  <si>
     <t>Tipo De Entidad</t>
   </si>
   <si>
@@ -83,15 +112,36 @@
     <t>Logo Url</t>
   </si>
   <si>
-    <t>Cargo</t>
+    <t>Creada? (no rellenar)</t>
+  </si>
+  <si>
+    <t>Tipos de empresas</t>
+  </si>
+  <si>
+    <t>valor</t>
+  </si>
+  <si>
+    <t>sdaf</t>
+  </si>
+  <si>
+    <t>asdf</t>
+  </si>
+  <si>
+    <t>dsf</t>
+  </si>
+  <si>
+    <t>sadf</t>
+  </si>
+  <si>
+    <t>Grupo de Investigación de Universidad</t>
+  </si>
+  <si>
+    <t>sdf</t>
   </si>
   <si>
     <t>Centro de I+D+i</t>
   </si>
   <si>
-    <t>Grupo de Investigación de Universidad</t>
-  </si>
-  <si>
     <t>Desarrollo de software</t>
   </si>
   <si>
@@ -144,46 +194,13 @@
   </si>
   <si>
     <t>Administración pública</t>
-  </si>
-  <si>
-    <t>Tipos de empresas</t>
-  </si>
-  <si>
-    <t>valor</t>
-  </si>
-  <si>
-    <t>Url web</t>
-  </si>
-  <si>
-    <t>Creada? (no rellenar)</t>
-  </si>
-  <si>
-    <t>sdaf</t>
-  </si>
-  <si>
-    <t>asdf</t>
-  </si>
-  <si>
-    <t>sdf</t>
-  </si>
-  <si>
-    <t>dsf</t>
-  </si>
-  <si>
-    <t>sadf</t>
-  </si>
-  <si>
-    <t>adsf</t>
-  </si>
-  <si>
-    <t>dsaf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,7 +275,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -556,11 +573,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
@@ -569,69 +586,72 @@
     <col min="6" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -648,11 +668,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACD1D1C-4031-4818-B1E7-AE253C20CE05}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="2" width="41.28515625" customWidth="1"/>
@@ -666,250 +686,250 @@
     <col min="13" max="13" width="43.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="C2" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="I2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="C3" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="M3" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="N3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="D4">
         <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="M4" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="N4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="D5">
         <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="M5" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="N5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="I6" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="M6" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="N6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="M7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="N7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="M8" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="N8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="M9" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="N9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="M10" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="N10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="M11" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="N11">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="M12" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="N12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="M13" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="N13">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="M14" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="N14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="M15" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="N15">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="M16" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="N16">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="13:14">
       <c r="M17" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N17">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="13:14">
       <c r="M18" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="N18">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="13:14">
       <c r="M19" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="N19">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="13:14">
       <c r="M20" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="N20">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="13:14">
       <c r="M21" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="N21">
         <v>19</v>

--- a/MyProject2/Content/Excels/Socios.xlsx
+++ b/MyProject2/Content/Excels/Socios.xlsx
@@ -1,38 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23716"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <workbookPr/>
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan\Desktop\Secpholand\MyProject2\Content\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33E68AEC-8FFA-4AF0-AC94-7457FECFBF68}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
   </bookViews>
   <sheets>
     <sheet name="Registro de usuarios" sheetId="1" r:id="rId1"/>
     <sheet name="Registro de empresas" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191028" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
   <si>
     <t>Nomre y apellidos</t>
   </si>
@@ -194,12 +182,24 @@
   </si>
   <si>
     <t>Administración pública</t>
+  </si>
+  <si>
+    <t>VictorGonzales</t>
+  </si>
+  <si>
+    <t>k;5[ThTkM]Z=</t>
+  </si>
+  <si>
+    <t>DanielCarvajal</t>
+  </si>
+  <si>
+    <t>i_&gt;Vbxzz_QdG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -250,25 +250,22 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -291,7 +288,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -303,7 +300,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -320,9 +317,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -350,31 +347,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -402,23 +382,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -570,18 +533,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14062" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="4" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
     <col min="5" max="5" width="20.42578125" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" customWidth="1"/>
   </cols>
@@ -639,6 +603,12 @@
       <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="E3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
@@ -653,26 +623,32 @@
       <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{C2F86D22-9865-448C-9AA4-CDC742F80EAF}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{8CBFEC48-6B8B-4800-A873-F9E52DC933FF}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{357FAB8B-B79A-4589-8ED4-3EB9E5D199AB}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACD1D1C-4031-4818-B1E7-AE253C20CE05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14062" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="2" width="41.28515625" customWidth="1"/>
@@ -895,7 +871,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="13:14">
+    <row r="17" spans="1:14">
       <c r="M17" t="s">
         <v>49</v>
       </c>
@@ -903,7 +879,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="13:14">
+    <row r="18" spans="1:14">
       <c r="M18" t="s">
         <v>50</v>
       </c>
@@ -911,7 +887,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="13:14">
+    <row r="19" spans="1:14">
       <c r="M19" t="s">
         <v>51</v>
       </c>
@@ -919,7 +895,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="13:14">
+    <row r="20" spans="1:14">
       <c r="M20" t="s">
         <v>52</v>
       </c>
@@ -927,7 +903,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="13:14">
+    <row r="21" spans="1:14">
       <c r="M21" t="s">
         <v>53</v>
       </c>

--- a/MyProject2/Content/Excels/Socios.xlsx
+++ b/MyProject2/Content/Excels/Socios.xlsx
@@ -1,26 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23716"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan\Desktop\Secpholand\MyProject2\Content\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2289CE18-BF93-49BE-9EB5-CA0E81D60C04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registro de usuarios" sheetId="1" r:id="rId1"/>
     <sheet name="Registro de empresas" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028" concurrentCalc="0"/>
+  <calcPr calcId="191028" calcCompleted="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
   <si>
     <t>Nomre y apellidos</t>
   </si>
@@ -64,6 +76,12 @@
     <t>VicG@gmail.com</t>
   </si>
   <si>
+    <t>VictorGonzales</t>
+  </si>
+  <si>
+    <t>k;5[ThTkM]Z=</t>
+  </si>
+  <si>
     <t>Daniel Carvajal</t>
   </si>
   <si>
@@ -76,6 +94,12 @@
     <t>danic@gmail.com</t>
   </si>
   <si>
+    <t>DanielCarvajal</t>
+  </si>
+  <si>
+    <t>i_&gt;Vbxzz_QdG</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -100,7 +124,7 @@
     <t>Logo Url</t>
   </si>
   <si>
-    <t>Creada? (no rellenar)</t>
+    <t>No modificar? (desmarcar para cambiar)</t>
   </si>
   <si>
     <t>Tipos de empresas</t>
@@ -109,22 +133,40 @@
     <t>valor</t>
   </si>
   <si>
-    <t>sdaf</t>
-  </si>
-  <si>
-    <t>asdf</t>
-  </si>
-  <si>
-    <t>dsf</t>
-  </si>
-  <si>
-    <t>sadf</t>
+    <t>creada en local</t>
+  </si>
+  <si>
+    <t>www.google.es</t>
+  </si>
+  <si>
+    <t>Prueba</t>
+  </si>
+  <si>
+    <t>AV. Martinéz Nº18</t>
+  </si>
+  <si>
+    <t>inventado@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.andalucialab.org/wp-content/uploads/2020/02/INSERTAR_LOGO2-768x576.jpg</t>
   </si>
   <si>
     <t>Grupo de Investigación de Universidad</t>
   </si>
   <si>
-    <t>sdf</t>
+    <t>Fantasma</t>
+  </si>
+  <si>
+    <t>No existe en BBDD</t>
+  </si>
+  <si>
+    <t>Bajo el puente Chorreón 4</t>
+  </si>
+  <si>
+    <t>chancleta@gmail.com</t>
+  </si>
+  <si>
+    <t>https://images-platform.99static.com/EGp-dYkafgmlRVundPa5cpxW0PA=/500x500/top/smart/99designs-contests-attachments/57/57785/attachment_57785485</t>
   </si>
   <si>
     <t>Centro de I+D+i</t>
@@ -182,24 +224,12 @@
   </si>
   <si>
     <t>Administración pública</t>
-  </si>
-  <si>
-    <t>VictorGonzales</t>
-  </si>
-  <si>
-    <t>k;5[ThTkM]Z=</t>
-  </si>
-  <si>
-    <t>DanielCarvajal</t>
-  </si>
-  <si>
-    <t>i_&gt;Vbxzz_QdG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -254,18 +284,21 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Hyperlink" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -533,19 +566,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14062" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="3" max="4" width="20.28515625" customWidth="1"/>
     <col min="5" max="5" width="20.42578125" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" customWidth="1"/>
   </cols>
@@ -604,51 +636,51 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14062" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="2" width="41.28515625" customWidth="1"/>
@@ -657,135 +689,129 @@
     <col min="5" max="5" width="36.42578125" customWidth="1"/>
     <col min="6" max="6" width="51" customWidth="1"/>
     <col min="7" max="7" width="39.42578125" customWidth="1"/>
-    <col min="8" max="8" width="32" customWidth="1"/>
-    <col min="9" max="9" width="26.42578125" customWidth="1"/>
+    <col min="8" max="8" width="37.7109375" customWidth="1"/>
+    <col min="9" max="9" width="37.42578125" customWidth="1"/>
     <col min="13" max="13" width="43.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="C2" t="s">
-        <v>29</v>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" t="s">
-        <v>32</v>
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="M2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="C3" t="s">
-        <v>30</v>
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" t="s">
-        <v>31</v>
+        <v>42</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="M3" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="I4" t="s">
-        <v>30</v>
-      </c>
       <c r="M4" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="N4">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="D5">
-        <v>6</v>
-      </c>
-      <c r="I5" t="s">
-        <v>32</v>
-      </c>
       <c r="M5" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="N5">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="I6" t="s">
-        <v>32</v>
-      </c>
       <c r="M6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="N6">
         <v>4</v>
@@ -793,7 +819,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="M7" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N7">
         <v>5</v>
@@ -801,7 +827,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="M8" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N8">
         <v>6</v>
@@ -809,7 +835,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="M9" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="N9">
         <v>7</v>
@@ -817,7 +843,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="M10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="N10">
         <v>8</v>
@@ -825,7 +851,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="M11" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="N11">
         <v>9</v>
@@ -833,7 +859,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="M12" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="N12">
         <v>10</v>
@@ -841,7 +867,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="M13" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="N13">
         <v>11</v>
@@ -849,7 +875,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="M14" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="N14">
         <v>12</v>
@@ -857,7 +883,7 @@
     </row>
     <row r="15" spans="1:14">
       <c r="M15" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="N15">
         <v>13</v>
@@ -865,53 +891,61 @@
     </row>
     <row r="16" spans="1:14">
       <c r="M16" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="N16">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="13:14">
       <c r="M17" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="N17">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="13:14">
       <c r="M18" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N18">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="13:14">
       <c r="M19" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="N19">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="13:14">
       <c r="M20" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="N20">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="13:14">
       <c r="M21" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="N21">
         <v>19</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{FD123357-4548-4D6F-8479-41BAF1EC70F9}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{061AF137-C017-4AB6-8401-2FB37C6FB7BD}"/>
+    <hyperlink ref="H2" r:id="rId3" xr:uid="{DA7E5FED-1B55-44A9-BAA9-3D0E8C37BA8A}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{743D369F-332A-4E8A-9870-1D6144F96E35}"/>
+    <hyperlink ref="G3" r:id="rId5" xr:uid="{05C99068-DEE0-400F-9892-82BE64C02AF3}"/>
+    <hyperlink ref="H3" r:id="rId6" xr:uid="{F14F2088-2CFF-482A-A3F5-D08313E70843}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/MyProject2/Content/Excels/Socios.xlsx
+++ b/MyProject2/Content/Excels/Socios.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan\Desktop\Secpholand\MyProject2\Content\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2289CE18-BF93-49BE-9EB5-CA0E81D60C04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4404BFB3-C76C-4FF8-B272-78D6273BD89D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registro de usuarios" sheetId="1" r:id="rId1"/>
     <sheet name="Registro de empresas" sheetId="2" r:id="rId2"/>
+    <sheet name="Lista desplegables" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028" calcCompleted="0" concurrentCalc="0"/>
   <extLst>
@@ -127,46 +128,46 @@
     <t>No modificar? (desmarcar para cambiar)</t>
   </si>
   <si>
+    <t>creada en local</t>
+  </si>
+  <si>
+    <t>www.google.es</t>
+  </si>
+  <si>
+    <t>Prueba</t>
+  </si>
+  <si>
+    <t>AV. Martinéz Nº18</t>
+  </si>
+  <si>
+    <t>inventado@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.andalucialab.org/wp-content/uploads/2020/02/INSERTAR_LOGO2-768x576.jpg</t>
+  </si>
+  <si>
+    <t>Fantasma</t>
+  </si>
+  <si>
+    <t>No existe en BBDD</t>
+  </si>
+  <si>
+    <t>Bajo el puente Chorreón 4</t>
+  </si>
+  <si>
+    <t>chancleta@gmail.com</t>
+  </si>
+  <si>
+    <t>https://images-platform.99static.com/EGp-dYkafgmlRVundPa5cpxW0PA=/500x500/top/smart/99designs-contests-attachments/57/57785/attachment_57785485</t>
+  </si>
+  <si>
     <t>Tipos de empresas</t>
   </si>
   <si>
     <t>valor</t>
   </si>
   <si>
-    <t>creada en local</t>
-  </si>
-  <si>
-    <t>www.google.es</t>
-  </si>
-  <si>
-    <t>Prueba</t>
-  </si>
-  <si>
-    <t>AV. Martinéz Nº18</t>
-  </si>
-  <si>
-    <t>inventado@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.andalucialab.org/wp-content/uploads/2020/02/INSERTAR_LOGO2-768x576.jpg</t>
-  </si>
-  <si>
     <t>Grupo de Investigación de Universidad</t>
-  </si>
-  <si>
-    <t>Fantasma</t>
-  </si>
-  <si>
-    <t>No existe en BBDD</t>
-  </si>
-  <si>
-    <t>Bajo el puente Chorreón 4</t>
-  </si>
-  <si>
-    <t>chancleta@gmail.com</t>
-  </si>
-  <si>
-    <t>https://images-platform.99static.com/EGp-dYkafgmlRVundPa5cpxW0PA=/500x500/top/smart/99designs-contests-attachments/57/57785/attachment_57785485</t>
   </si>
   <si>
     <t>Centro de I+D+i</t>
@@ -674,10 +675,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -694,7 +695,7 @@
     <col min="13" max="13" width="43.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -722,54 +723,42 @@
       <c r="I1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2">
         <v>9</v>
       </c>
       <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="B3" t="s">
         <v>38</v>
       </c>
-      <c r="M2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>9</v>
@@ -778,163 +767,13 @@
         <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="M4" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="M5" t="s">
-        <v>47</v>
-      </c>
-      <c r="N5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="M6" t="s">
-        <v>48</v>
-      </c>
-      <c r="N6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="M7" t="s">
-        <v>49</v>
-      </c>
-      <c r="N7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="M8" t="s">
-        <v>50</v>
-      </c>
-      <c r="N8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="M9" t="s">
-        <v>51</v>
-      </c>
-      <c r="N9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="M10" t="s">
-        <v>52</v>
-      </c>
-      <c r="N10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="M11" t="s">
-        <v>53</v>
-      </c>
-      <c r="N11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="M12" t="s">
-        <v>54</v>
-      </c>
-      <c r="N12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="M13" t="s">
-        <v>55</v>
-      </c>
-      <c r="N13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="M14" t="s">
-        <v>56</v>
-      </c>
-      <c r="N14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="M15" t="s">
-        <v>57</v>
-      </c>
-      <c r="N15">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="M16" t="s">
-        <v>58</v>
-      </c>
-      <c r="N16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="13:14">
-      <c r="M17" t="s">
-        <v>59</v>
-      </c>
-      <c r="N17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="13:14">
-      <c r="M18" t="s">
-        <v>60</v>
-      </c>
-      <c r="N18">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="13:14">
-      <c r="M19" t="s">
-        <v>61</v>
-      </c>
-      <c r="N19">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="13:14">
-      <c r="M20" t="s">
-        <v>62</v>
-      </c>
-      <c r="N20">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="13:14">
-      <c r="M21" t="s">
-        <v>63</v>
-      </c>
-      <c r="N21">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -947,5 +786,203 @@
     <hyperlink ref="H3" r:id="rId6" xr:uid="{F14F2088-2CFF-482A-A3F5-D08313E70843}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Entrada inválida" error="Seleccione un valor de la lista" promptTitle="Tipo de empresa" prompt="Seleccione un tipo de empresa" xr:uid="{6641CC2D-120E-4DAF-A947-2EE2CB102D58}">
+          <x14:formula1>
+            <xm:f>'Lista desplegables'!$B$2:$B$21</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FEAA92-2554-4FDA-8B4F-9784BD0832E9}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="32.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/MyProject2/Content/Excels/Socios.xlsx
+++ b/MyProject2/Content/Excels/Socios.xlsx
@@ -1,39 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23716"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan\Desktop\Secpholand\MyProject2\Content\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4404BFB3-C76C-4FF8-B272-78D6273BD89D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
   </bookViews>
   <sheets>
     <sheet name="Registro de usuarios" sheetId="1" r:id="rId1"/>
     <sheet name="Registro de empresas" sheetId="2" r:id="rId2"/>
     <sheet name="Lista desplegables" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191028" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
   <si>
     <t>Nomre y apellidos</t>
   </si>
@@ -225,12 +213,15 @@
   </si>
   <si>
     <t>Administración pública</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -285,21 +276,18 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -567,18 +555,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14062" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="4" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
     <col min="5" max="5" width="20.42578125" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" customWidth="1"/>
   </cols>
@@ -665,23 +654,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14062" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="2" width="41.28515625" customWidth="1"/>
@@ -749,6 +738,9 @@
       <c r="H2" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="I2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
@@ -775,25 +767,28 @@
       <c r="H3" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="I3" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{FD123357-4548-4D6F-8479-41BAF1EC70F9}"/>
-    <hyperlink ref="G2" r:id="rId2" xr:uid="{061AF137-C017-4AB6-8401-2FB37C6FB7BD}"/>
-    <hyperlink ref="H2" r:id="rId3" xr:uid="{DA7E5FED-1B55-44A9-BAA9-3D0E8C37BA8A}"/>
-    <hyperlink ref="C3" r:id="rId4" xr:uid="{743D369F-332A-4E8A-9870-1D6144F96E35}"/>
-    <hyperlink ref="G3" r:id="rId5" xr:uid="{05C99068-DEE0-400F-9892-82BE64C02AF3}"/>
-    <hyperlink ref="H3" r:id="rId6" xr:uid="{F14F2088-2CFF-482A-A3F5-D08313E70843}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="G2" r:id="rId2"/>
+    <hyperlink ref="H2" r:id="rId3"/>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId5"/>
+    <hyperlink ref="H3" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Entrada inválida" error="Seleccione un valor de la lista" promptTitle="Tipo de empresa" prompt="Seleccione un tipo de empresa" xr:uid="{6641CC2D-120E-4DAF-A947-2EE2CB102D58}">
-          <x14:formula1>
+      <x14:dataValidations count="1">
+        <x14:dataValidation allowBlank="1" error="Seleccione un valor de la lista" errorTitle="Entrada inválida" prompt="Seleccione un tipo de empresa" promptTitle="Tipo de empresa" showErrorMessage="1" showInputMessage="1" type="list">
+          <x14:formula1 xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
             <xm:f>'Lista desplegables'!$B$2:$B$21</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D1048576</xm:sqref>
+          <xm:sqref xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">D2:D1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -802,7 +797,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FEAA92-2554-4FDA-8B4F-9784BD0832E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/MyProject2/Content/Excels/Socios.xlsx
+++ b/MyProject2/Content/Excels/Socios.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23716"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan\Desktop\Secpholand\MyProject2\Content\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4896E026-56D5-47A5-97D4-36089E4BB2ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registro de usuarios" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="60">
   <si>
     <t>Nomre y apellidos</t>
   </si>
@@ -53,9 +54,6 @@
     <t>user1@gmail.com</t>
   </si>
   <si>
-    <t>user1</t>
-  </si>
-  <si>
     <t>Victor Gonzales</t>
   </si>
   <si>
@@ -65,12 +63,6 @@
     <t>VicG@gmail.com</t>
   </si>
   <si>
-    <t>VictorGonzales</t>
-  </si>
-  <si>
-    <t>k;5[ThTkM]Z=</t>
-  </si>
-  <si>
     <t>Daniel Carvajal</t>
   </si>
   <si>
@@ -81,12 +73,6 @@
   </si>
   <si>
     <t>danic@gmail.com</t>
-  </si>
-  <si>
-    <t>DanielCarvajal</t>
-  </si>
-  <si>
-    <t>i_&gt;Vbxzz_QdG</t>
   </si>
   <si>
     <t>Name</t>
@@ -221,8 +207,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,18 +262,21 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Hyperlink" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -555,24 +544,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14062" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="3" max="4" width="20.28515625" customWidth="1"/>
     <col min="5" max="5" width="20.42578125" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -592,7 +580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -605,72 +593,54 @@
       <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="F2">
-        <v>12345</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="D4" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14062" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="2" width="41.28515625" customWidth="1"/>
@@ -684,111 +654,111 @@
     <col min="13" max="13" width="43.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="D2">
         <v>9</v>
       </c>
       <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
         <v>33</v>
       </c>
-      <c r="F2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D3">
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="G2" r:id="rId2"/>
-    <hyperlink ref="H2" r:id="rId3"/>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId5"/>
-    <hyperlink ref="H3" r:id="rId6"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="H2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="G3" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="H3" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations count="1">
-        <x14:dataValidation allowBlank="1" error="Seleccione un valor de la lista" errorTitle="Entrada inválida" prompt="Seleccione un tipo de empresa" promptTitle="Tipo de empresa" showErrorMessage="1" showInputMessage="1" type="list">
-          <x14:formula1 xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Entrada inválida" error="Seleccione un valor de la lista" promptTitle="Tipo de empresa" prompt="Seleccione un tipo de empresa" xr:uid="{00000000-0002-0000-0100-000000000000}">
+          <x14:formula1>
             <xm:f>'Lista desplegables'!$B$2:$B$21</xm:f>
           </x14:formula1>
-          <xm:sqref xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">D2:D1048576</xm:sqref>
+          <xm:sqref>D2:D1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -797,181 +767,181 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B11">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B15">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B17">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B18">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B19">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B20">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B21">
         <v>19</v>

--- a/MyProject2/Content/Excels/Socios.xlsx
+++ b/MyProject2/Content/Excels/Socios.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23808"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan\Desktop\Secpholand\MyProject2\Content\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4896E026-56D5-47A5-97D4-36089E4BB2ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
   </bookViews>
   <sheets>
     <sheet name="Registro de usuarios" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
   <si>
     <t>Nomre y apellidos</t>
   </si>
@@ -42,6 +41,9 @@
     <t>PW Generado</t>
   </si>
   <si>
+    <t>Email enviado</t>
+  </si>
+  <si>
     <t>Goberto Calleja Calleja</t>
   </si>
   <si>
@@ -51,7 +53,10 @@
     <t>Secpho</t>
   </si>
   <si>
-    <t>user1@gmail.com</t>
+    <t>danitecno99@yopmail.com</t>
+  </si>
+  <si>
+    <t>user1</t>
   </si>
   <si>
     <t>Victor Gonzales</t>
@@ -60,7 +65,16 @@
     <t>Administrador</t>
   </si>
   <si>
-    <t>VicG@gmail.com</t>
+    <t>Inventado</t>
+  </si>
+  <si>
+    <t>xhaned_d318x@hexud.com</t>
+  </si>
+  <si>
+    <t>victorgonzales</t>
+  </si>
+  <si>
+    <t>mDNL1:O:f5Lu</t>
   </si>
   <si>
     <t>Daniel Carvajal</t>
@@ -69,10 +83,16 @@
     <t>Programador</t>
   </si>
   <si>
-    <t>Inventado</t>
-  </si>
-  <si>
-    <t>danic@gmail.com</t>
+    <t>Luna</t>
+  </si>
+  <si>
+    <t>danitecno86@gmail.com</t>
+  </si>
+  <si>
+    <t>danielcarvajal</t>
+  </si>
+  <si>
+    <t>h=MflH=bN&gt;r\</t>
   </si>
   <si>
     <t>Name</t>
@@ -102,30 +122,12 @@
     <t>No modificar? (desmarcar para cambiar)</t>
   </si>
   <si>
-    <t>creada en local</t>
+    <t>Ese toro enamorado de la luna</t>
   </si>
   <si>
     <t>www.google.es</t>
   </si>
   <si>
-    <t>Prueba</t>
-  </si>
-  <si>
-    <t>AV. Martinéz Nº18</t>
-  </si>
-  <si>
-    <t>inventado@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.andalucialab.org/wp-content/uploads/2020/02/INSERTAR_LOGO2-768x576.jpg</t>
-  </si>
-  <si>
-    <t>Fantasma</t>
-  </si>
-  <si>
-    <t>No existe en BBDD</t>
-  </si>
-  <si>
     <t>Bajo el puente Chorreón 4</t>
   </si>
   <si>
@@ -133,6 +135,24 @@
   </si>
   <si>
     <t>https://images-platform.99static.com/EGp-dYkafgmlRVundPa5cpxW0PA=/500x500/top/smart/99designs-contests-attachments/57/57785/attachment_57785485</t>
+  </si>
+  <si>
+    <t>Carrefour</t>
+  </si>
+  <si>
+    <t>3x2 los jueves</t>
+  </si>
+  <si>
+    <t>Almacén</t>
+  </si>
+  <si>
+    <t>Rio Abajo 6</t>
+  </si>
+  <si>
+    <t>carrefour@gmail.com</t>
+  </si>
+  <si>
+    <t>https://1000marcas.net/wp-content/uploads/2020/11/Carrefour-Logo-500x283.png</t>
   </si>
   <si>
     <t>Tipos de empresas</t>
@@ -207,8 +227,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,21 +282,18 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -544,23 +561,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.14062" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="4" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
     <col min="5" max="5" width="20.42578125" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -579,68 +598,98 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>12345</v>
+      </c>
+      <c r="G2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.14062" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="2" width="41.28515625" customWidth="1"/>
@@ -654,44 +703,44 @@
     <col min="13" max="13" width="43.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D2">
         <v>9</v>
@@ -700,65 +749,59 @@
         <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="G2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="H2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="C3" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="G3" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="H3" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="G2" r:id="rId2"/>
+    <hyperlink ref="H2" r:id="rId3"/>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId5"/>
+    <hyperlink ref="H3" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Entrada inválida" error="Seleccione un valor de la lista" promptTitle="Tipo de empresa" prompt="Seleccione un tipo de empresa" xr:uid="{00000000-0002-0000-0100-000000000000}">
-          <x14:formula1>
+      <x14:dataValidations count="1">
+        <x14:dataValidation allowBlank="1" error="Seleccione un valor de la lista" errorTitle="Entrada inválida" prompt="Seleccione un tipo de empresa" promptTitle="Tipo de empresa" showErrorMessage="1" showInputMessage="1" type="list">
+          <x14:formula1 xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
             <xm:f>'Lista desplegables'!$B$2:$B$21</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D1048576</xm:sqref>
+          <xm:sqref xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">D2:D1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -767,181 +810,181 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D1048576"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B11">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B13">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B15">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B16">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B17">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B18">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B19">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B20">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B21">
         <v>19</v>

--- a/MyProject2/Content/Excels/Socios.xlsx
+++ b/MyProject2/Content/Excels/Socios.xlsx
@@ -1,27 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23808"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23822"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan\Desktop\Secpholand\MyProject2\Content\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan\Desktop\WindowsNoEditor\Secpholand_0.6.14_\MyProject2\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDC12CE8-5007-4197-8D73-2558433FD9F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
+    <workbookView xWindow="-29490" yWindow="3255" windowWidth="28800" windowHeight="15435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registro de usuarios" sheetId="1" r:id="rId1"/>
     <sheet name="Registro de empresas" sheetId="2" r:id="rId2"/>
-    <sheet name="Lista desplegables" sheetId="3" r:id="rId3"/>
+    <sheet name="Listas y leyendas" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028" concurrentCalc="0"/>
+  <calcPr calcId="191028" calcCompleted="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="119">
   <si>
     <t>Nomre y apellidos</t>
   </si>
@@ -35,15 +47,24 @@
     <t>Mail</t>
   </si>
   <si>
+    <t>Perfil</t>
+  </si>
+  <si>
+    <t>Tecs</t>
+  </si>
+  <si>
+    <t>Sects</t>
+  </si>
+  <si>
+    <t>Ambitos</t>
+  </si>
+  <si>
     <t>Username Generado</t>
   </si>
   <si>
     <t>PW Generado</t>
   </si>
   <si>
-    <t>Email enviado</t>
-  </si>
-  <si>
     <t>Goberto Calleja Calleja</t>
   </si>
   <si>
@@ -56,7 +77,10 @@
     <t>danitecno99@yopmail.com</t>
   </si>
   <si>
-    <t>user1</t>
+    <t>1+2+3</t>
+  </si>
+  <si>
+    <t>2+3</t>
   </si>
   <si>
     <t>Victor Gonzales</t>
@@ -71,10 +95,7 @@
     <t>xhaned_d318x@hexud.com</t>
   </si>
   <si>
-    <t>victorgonzales</t>
-  </si>
-  <si>
-    <t>mDNL1:O:f5Lu</t>
+    <t>0+2+6</t>
   </si>
   <si>
     <t>Daniel Carvajal</t>
@@ -89,10 +110,7 @@
     <t>danitecno86@gmail.com</t>
   </si>
   <si>
-    <t>danielcarvajal</t>
-  </si>
-  <si>
-    <t>h=MflH=bN&gt;r\</t>
+    <t>3+5</t>
   </si>
   <si>
     <t>Name</t>
@@ -161,54 +179,207 @@
     <t>valor</t>
   </si>
   <si>
+    <t>Tipos de Perfil</t>
+  </si>
+  <si>
+    <t>Tecnologías</t>
+  </si>
+  <si>
+    <t>Sectores</t>
+  </si>
+  <si>
     <t>Grupo de Investigación de Universidad</t>
   </si>
   <si>
+    <t>Scientific investigation</t>
+  </si>
+  <si>
+    <t>Sensors and scanning and imaging systems</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>Industria 4.0</t>
+  </si>
+  <si>
     <t>Centro de I+D+i</t>
   </si>
   <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>Laser systems</t>
+  </si>
+  <si>
+    <t>Agri-food</t>
+  </si>
+  <si>
+    <t>Salud y bienestar</t>
+  </si>
+  <si>
     <t>Desarrollo de software</t>
   </si>
   <si>
+    <t>Commercial</t>
+  </si>
+  <si>
+    <t>Communication systems, networks and data transmission</t>
+  </si>
+  <si>
+    <t>Cosmetics and aesthetics</t>
+  </si>
+  <si>
+    <t>Ciudades inteligentes</t>
+  </si>
+  <si>
     <t>Fabricante de componentes</t>
   </si>
   <si>
+    <t>Marketing and Communication</t>
+  </si>
+  <si>
+    <t>Artificial intelligence</t>
+  </si>
+  <si>
+    <t>Chemical industry</t>
+  </si>
+  <si>
+    <t>Seguridad alimentaria</t>
+  </si>
+  <si>
     <t>Fabricante de módulos</t>
   </si>
   <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Advanced materials</t>
+  </si>
+  <si>
+    <t>Pharmacist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agricultura, bosques y océanos </t>
+  </si>
+  <si>
     <t>Fabricante de sistemas</t>
   </si>
   <si>
+    <t>Startup</t>
+  </si>
+  <si>
+    <t>quantum technologies</t>
+  </si>
+  <si>
+    <t>Automotive</t>
+  </si>
+  <si>
+    <t>Movilidad inteligente y sostenible</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ingeniería </t>
   </si>
   <si>
+    <t>Administrative management</t>
+  </si>
+  <si>
+    <t>3d print</t>
+  </si>
+  <si>
+    <t>Railway</t>
+  </si>
+  <si>
+    <t>Energía segura, limpia y eficiente</t>
+  </si>
+  <si>
     <t>Distribución de productos</t>
   </si>
   <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Biotechnology</t>
+  </si>
+  <si>
+    <t>Aerospace</t>
+  </si>
+  <si>
+    <t>Acción climática y medio ambiente</t>
+  </si>
+  <si>
     <t>Consultoría de I+D+i</t>
   </si>
   <si>
+    <t>Nanotechnology</t>
+  </si>
+  <si>
+    <t>Industrial manufacturing</t>
+  </si>
+  <si>
+    <t>Comunicaciones seguras, defensa y seguridad</t>
+  </si>
+  <si>
     <t>startup</t>
   </si>
   <si>
+    <t>Blockchain</t>
+  </si>
+  <si>
+    <t>Environment and energy</t>
+  </si>
+  <si>
     <t>Aceleradora</t>
   </si>
   <si>
+    <t>Robotics and drones</t>
+  </si>
+  <si>
+    <t>Telecommunications and cybersecurity</t>
+  </si>
+  <si>
     <t>Incubadora</t>
   </si>
   <si>
+    <t>Videogame and software development</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
     <t>Venture capital</t>
   </si>
   <si>
+    <t>Photovoltaic Power Systems</t>
+  </si>
+  <si>
+    <t>Raw Materials</t>
+  </si>
+  <si>
     <t>Business Angel</t>
   </si>
   <si>
+    <t>Advanced lighting</t>
+  </si>
+  <si>
+    <t>Building</t>
+  </si>
+  <si>
     <t>Corporate</t>
   </si>
   <si>
+    <t>Screens, displays and image reproduction</t>
+  </si>
+  <si>
+    <t>Other sectors</t>
+  </si>
+  <si>
     <t>Empresa industrial usuaria de tecnología</t>
   </si>
   <si>
+    <t>Electronic systems</t>
+  </si>
+  <si>
     <t>Hospital o centro sanitario</t>
   </si>
   <si>
@@ -219,16 +390,13 @@
   </si>
   <si>
     <t>Administración pública</t>
-  </si>
-  <si>
-    <t>X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,8 +420,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,8 +474,37 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF305496"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF548235"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC65911"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -275,19 +512,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Hyperlink" xfId="1"/>
+    <cellStyle name="Salida" xfId="2" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -295,8 +570,251 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BF399AE-12AB-4FE7-B934-DA1F50A1EE81}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{56351748-3DE4-4017-8F4F-05209C9073C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12611100" y="0"/>
+          <a:ext cx="3181350" cy="3228975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBF7E67A-7AED-4BDD-B06B-359900C40F53}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2BF399AE-12AB-4FE7-B934-DA1F50A1EE81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16325850" y="0"/>
+          <a:ext cx="3819525" cy="2076450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{552F94A7-0DCB-40EA-9074-2CE4162E7328}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{CBF7E67A-7AED-4BDD-B06B-359900C40F53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7734300" y="0"/>
+          <a:ext cx="4362450" cy="3429000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D33C1669-1968-4C61-9E61-D4F1BE62A9A3}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{552F94A7-0DCB-40EA-9074-2CE4162E7328}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4391025" y="0"/>
+          <a:ext cx="2828925" cy="1914525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11768D78-2DD4-46BF-8F62-1C0D59ABFB4C}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D33C1669-1968-4C61-9E61-D4F1BE62A9A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3324225" cy="4314825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -561,135 +1079,170 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14062" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="20.28515625" customWidth="1"/>
     <col min="4" max="4" width="26.140625" customWidth="1"/>
     <col min="5" max="5" width="20.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="9" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2">
-        <v>12345</v>
-      </c>
-      <c r="G2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>19</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="14.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>66</v>
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="12">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2FA78B4C-C81F-4F10-8722-E2C4410D47DB}">
+          <x14:formula1>
+            <xm:f>'Listas y leyendas'!$F$2:$F$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EDBA41E3-2CEF-4D89-9B00-E735CD64189E}">
+          <x14:formula1>
+            <xm:f>'Listas y leyendas'!$O$2:$O$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>H2:H1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14062" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="2" width="41.28515625" customWidth="1"/>
@@ -705,103 +1258,103 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D2">
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D3">
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="G2" r:id="rId2"/>
-    <hyperlink ref="H2" r:id="rId3"/>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId5"/>
-    <hyperlink ref="H3" r:id="rId6"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="H2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="G3" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="H3" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations count="1">
-        <x14:dataValidation allowBlank="1" error="Seleccione un valor de la lista" errorTitle="Entrada inválida" prompt="Seleccione un tipo de empresa" promptTitle="Tipo de empresa" showErrorMessage="1" showInputMessage="1" type="list">
-          <x14:formula1 xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-            <xm:f>'Lista desplegables'!$B$2:$B$21</xm:f>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Entrada inválida" error="Seleccione un valor de la lista" promptTitle="Tipo de empresa" prompt="Seleccione un tipo de empresa" xr:uid="{00000000-0002-0000-0100-000000000000}">
+          <x14:formula1>
+            <xm:f>'Listas y leyendas'!$B$2:$B$21</xm:f>
           </x14:formula1>
-          <xm:sqref xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">D2:D1048576</xm:sqref>
+          <xm:sqref>D2:D1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -810,187 +1363,630 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.140625" customWidth="1"/>
+    <col min="1" max="1" width="39.5703125" customWidth="1"/>
+    <col min="5" max="5" width="30.85546875" customWidth="1"/>
+    <col min="8" max="8" width="55.42578125" customWidth="1"/>
+    <col min="11" max="11" width="38.140625" customWidth="1"/>
+    <col min="14" max="14" width="45.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="1" spans="1:15" ht="15.75">
+      <c r="A1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B2">
+      <c r="B1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="5"/>
+      <c r="K1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15.75">
+      <c r="A2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15.75">
+      <c r="A3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15.75">
+      <c r="A4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="3">
+        <v>2</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" s="3">
+        <v>2</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15.75">
+      <c r="A5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="3">
+        <v>3</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" s="3">
+        <v>3</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" s="3">
+        <v>3</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75">
+      <c r="A6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="3">
+        <v>4</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" s="3">
+        <v>4</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" s="3">
+        <v>4</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O6" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15.75">
+      <c r="A7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="3">
+        <v>5</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" s="3">
+        <v>5</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L7" s="3">
+        <v>5</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="O7" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.75">
+      <c r="A8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="3">
+        <v>6</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8" s="3">
+        <v>6</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L8" s="3">
+        <v>6</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="O8" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.75">
+      <c r="A9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="3">
+        <v>7</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" s="3">
+        <v>7</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L9" s="3">
+        <v>7</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O9" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15.75">
+      <c r="A10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I10" s="3">
+        <v>8</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L10" s="3">
+        <v>8</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="O10" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15.75">
+      <c r="A11" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I11" s="3">
+        <v>9</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="L11" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.75">
+      <c r="A12" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I12" s="3">
+        <v>10</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L12" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15.75">
+      <c r="A13" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I13" s="3">
+        <v>11</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L13" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15.75">
+      <c r="A14" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I14" s="3">
+        <v>12</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="L14" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15.75">
+      <c r="A15" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I15" s="3">
+        <v>13</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L15" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.75">
+      <c r="A16" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I16" s="3">
+        <v>14</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="L16" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.75">
+      <c r="A17" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I17" s="3">
+        <v>15</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.75">
+      <c r="A18" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.75">
+      <c r="A19" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="1:12" ht="15.75">
+      <c r="A20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.75">
+      <c r="A21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" s="3">
         <v>19</v>
       </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/MyProject2/Content/Excels/Socios.xlsx
+++ b/MyProject2/Content/Excels/Socios.xlsx
@@ -1,39 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23906"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan\Desktop\Secpholand_Win64_0.6.18_EXPERIMENTAL\MyProject2\Content\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F2CB56B-70F2-4EF4-963D-B25E7460865B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4965" yWindow="3750" windowWidth="28800" windowHeight="15435" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4965" yWindow="3750" windowWidth="28800" windowHeight="15435"/>
   </bookViews>
   <sheets>
     <sheet name="Registro de usuarios" sheetId="1" r:id="rId1"/>
     <sheet name="Registro de empresas" sheetId="2" r:id="rId2"/>
     <sheet name="Listas y leyendas" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191028" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="461">
   <si>
     <t>Nomre y apellidos</t>
   </si>
@@ -1003,7 +991,7 @@
   </si>
   <si>
     <r>
-      <t>ALTER TECHNOLOGY</t>
+      <t xml:space="preserve">ALTER TECHNOLOGY</t>
     </r>
     <r>
       <rPr>
@@ -1012,7 +1000,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t> provide a single point of contact for all high reliability electronic component requirements, covering testing, engineering, procurement, storage, quality control, certification and consultancy. They bring services both for new-build equipment and also for managing component obsolescence issues in operational equipment. They have also extended their component capability into specialized equipment testing and EMC certification. The company in many markets including, but not limited to, Aerospace, Security, Transport, Emergency Services, Health &amp; Safety and Automotive.</t>
+      <t xml:space="preserve"> provide a single point of contact for all high reliability electronic component requirements, covering testing, engineering, procurement, storage, quality control, certification and consultancy. They bring services both for new-build equipment and also for managing component obsolescence issues in operational equipment. They have also extended their component capability into specialized equipment testing and EMC certification. The company in many markets including, but not limited to, Aerospace, Security, Transport, Emergency Services, Health &amp; Safety and Automotive.</t>
     </r>
   </si>
   <si>
@@ -1067,7 +1055,7 @@
   </si>
   <si>
     <r>
-      <t>AOTECH</t>
+      <t xml:space="preserve">AOTECH</t>
     </r>
     <r>
       <rPr>
@@ -1076,7 +1064,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>is a spin-off company from the University of the Basque Country whose mission is to apply customized photonic solutions to all kind of industrial processes. Currently, the two main areas of activity are aeronautics and food industry. In aeronautics, they are developing a system to monitor structural health monitoring of blades in turbines and compressors. Whereas in their second area, food industry, they are going to apply NIR spectroscopy sensors to different processes. AOTECH plans to expand this activities to other sectors such as energy, automotive, metallurgy chemistry or environment.</t>
+      <t xml:space="preserve">is a spin-off company from the University of the Basque Country whose mission is to apply customized photonic solutions to all kind of industrial processes. Currently, the two main areas of activity are aeronautics and food industry. In aeronautics, they are developing a system to monitor structural health monitoring of blades in turbines and compressors. Whereas in their second area, food industry, they are going to apply NIR spectroscopy sensors to different processes. AOTECH plans to expand this activities to other sectors such as energy, automotive, metallurgy chemistry or environment.</t>
     </r>
   </si>
   <si>
@@ -1090,7 +1078,7 @@
   </si>
   <si>
     <r>
-      <t>Aragon Photonics Labs.</t>
+      <t xml:space="preserve">Aragon Photonics Labs.</t>
     </r>
     <r>
       <rPr>
@@ -1099,7 +1087,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>is a manufacturer of advanced optical test &amp; measurement instrumentation and fiber optic distributed sensing equipment based on proprietary patents. With more than 10 years experience and operating in more than 20 countries, Aragon Photonics provides test &amp; measurement products to photonic R&amp;D centers, optical telecom component manufacturers and telecom operators (optical spectrum analysis, passive component characterization, polarization analysis and phase measurement) and distributed acoustic sensing turnkey solutions for transport, energy and security infrastructures.</t>
+      <t xml:space="preserve">is a manufacturer of advanced optical test &amp; measurement instrumentation and fiber optic distributed sensing equipment based on proprietary patents. With more than 10 years experience and operating in more than 20 countries, Aragon Photonics provides test &amp; measurement products to photonic R&amp;D centers, optical telecom component manufacturers and telecom operators (optical spectrum analysis, passive component characterization, polarization analysis and phase measurement) and distributed acoustic sensing turnkey solutions for transport, energy and security infrastructures.</t>
     </r>
   </si>
   <si>
@@ -1199,7 +1187,7 @@
   </si>
   <si>
     <r>
-      <t>ICFO</t>
+      <t xml:space="preserve">ICFO</t>
     </r>
     <r>
       <rPr>
@@ -1208,7 +1196,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>is a research centre devoted to the science and technologies of light with fundamental and applied research programs that address standing issues such as health, renewable energies, information technologies, security and industrial processes, among others.  The centre hosts 400 professionals including researchers and PhD students, and collaborates with a wide range of companies around the world.  In particular, ICFO’s Corporate Liaison Program includes more than 25 national and international industries and corporations. Likewise, the institute actively promotes the creation of spin-off companies by ICFO researchers.</t>
+      <t xml:space="preserve">is a research centre devoted to the science and technologies of light with fundamental and applied research programs that address standing issues such as health, renewable energies, information technologies, security and industrial processes, among others.  The centre hosts 400 professionals including researchers and PhD students, and collaborates with a wide range of companies around the world.  In particular, ICFO’s Corporate Liaison Program includes more than 25 national and international industries and corporations. Likewise, the institute actively promotes the creation of spin-off companies by ICFO researchers.</t>
     </r>
   </si>
   <si>
@@ -1279,7 +1267,7 @@
   </si>
   <si>
     <r>
-      <t>Tekniker</t>
+      <t xml:space="preserve">Tekniker</t>
     </r>
     <r>
       <rPr>
@@ -1288,7 +1276,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>is an independent research organization, whose main working focus is to improve manufacturing technologies, that includes all the situations that characterises a product life cycle, from conception and design, until the end of working life. Automotive parts, machine tools, mechanical capital goods, aerospace, chemical and petroleum products and industrial and consumer electronics are the most relevant sectors served by Tekniker.Tekniker likes to define itself as a Mechatronics, Manufacturing Technologies and Microtechnologies centre. It mainly specialises in: designing consumer and industrial products, solving problems relating to friction, wear and lubrication, incorporating information technologies and communications in the plant, high precision, miniaturisation and micro/nanotechnologies.</t>
+      <t xml:space="preserve">is an independent research organization, whose main working focus is to improve manufacturing technologies, that includes all the situations that characterises a product life cycle, from conception and design, until the end of working life. Automotive parts, machine tools, mechanical capital goods, aerospace, chemical and petroleum products and industrial and consumer electronics are the most relevant sectors served by Tekniker.Tekniker likes to define itself as a Mechatronics, Manufacturing Technologies and Microtechnologies centre. It mainly specialises in: designing consumer and industrial products, solving problems relating to friction, wear and lubrication, incorporating information technologies and communications in the plant, high precision, miniaturisation and micro/nanotechnologies.</t>
     </r>
   </si>
   <si>
@@ -1518,12 +1506,15 @@
   </si>
   <si>
     <t>Administración pública</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="14">
     <font>
       <sz val="11"/>
@@ -1719,43 +1710,43 @@
   </cellStyleXfs>
   <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" applyFill="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" applyFill="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="2" applyFill="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyFill="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFill="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFill="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFill="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFill="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFill="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFill="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFill="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFill="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFill="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFill="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1765,7 +1756,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFill="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1791,22 +1782,19 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1"/>
+    <cellStyle name="Salida" xfId="2" builtinId="21"/>
     <cellStyle name="Bueno" xfId="3" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8"/>
-    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Incorrecto" xfId="6" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Salida" xfId="2" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2074,14 +2062,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14062" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
@@ -2518,7 +2506,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="75">
+    <row r="17" spans="1:10" ht="75">
       <c r="A17" s="13" t="s">
         <v>69</v>
       </c>
@@ -2544,7 +2532,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="45">
+    <row r="18" spans="1:10" ht="45">
       <c r="A18" s="13" t="s">
         <v>72</v>
       </c>
@@ -2570,7 +2558,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="60">
+    <row r="19" spans="1:10" ht="60">
       <c r="A19" s="13" t="s">
         <v>75</v>
       </c>
@@ -2596,7 +2584,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="45">
+    <row r="20" spans="1:10" ht="45">
       <c r="A20" s="13" t="s">
         <v>78</v>
       </c>
@@ -2622,7 +2610,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="30">
+    <row r="21" spans="1:10" ht="30">
       <c r="A21" s="13" t="s">
         <v>81</v>
       </c>
@@ -2648,7 +2636,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="30">
+    <row r="22" spans="1:10" ht="30">
       <c r="A22" s="13" t="s">
         <v>84</v>
       </c>
@@ -2674,7 +2662,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:10">
       <c r="A23" s="13" t="s">
         <v>87</v>
       </c>
@@ -2700,7 +2688,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="30">
+    <row r="24" spans="1:10" ht="30">
       <c r="A24" s="13" t="s">
         <v>90</v>
       </c>
@@ -2726,7 +2714,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="45">
+    <row r="25" spans="1:10" ht="45">
       <c r="A25" s="13" t="s">
         <v>93</v>
       </c>
@@ -2752,7 +2740,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="30">
+    <row r="26" spans="1:10" ht="30">
       <c r="A26" s="13" t="s">
         <v>97</v>
       </c>
@@ -2778,7 +2766,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="30">
+    <row r="27" spans="1:10" ht="30">
       <c r="A27" s="13" t="s">
         <v>100</v>
       </c>
@@ -2804,7 +2792,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="30">
+    <row r="28" spans="1:10" ht="30">
       <c r="A28" s="13" t="s">
         <v>103</v>
       </c>
@@ -2830,7 +2818,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="30">
+    <row r="29" spans="1:10" ht="30">
       <c r="A29" s="13" t="s">
         <v>106</v>
       </c>
@@ -2856,7 +2844,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="30">
+    <row r="30" spans="1:10" ht="30">
       <c r="A30" s="13" t="s">
         <v>109</v>
       </c>
@@ -2882,7 +2870,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:10">
       <c r="A31" s="13" t="s">
         <v>112</v>
       </c>
@@ -2908,7 +2896,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="45">
+    <row r="32" spans="1:10" ht="45">
       <c r="A32" s="13" t="s">
         <v>115</v>
       </c>
@@ -2934,7 +2922,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="45">
+    <row r="33" spans="1:10" ht="45">
       <c r="A33" s="13" t="s">
         <v>119</v>
       </c>
@@ -2960,7 +2948,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="30">
+    <row r="34" spans="1:10" ht="30">
       <c r="A34" s="13" t="s">
         <v>122</v>
       </c>
@@ -2986,7 +2974,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="30">
+    <row r="35" spans="1:10" ht="30">
       <c r="A35" s="13" t="s">
         <v>129</v>
       </c>
@@ -3012,7 +3000,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="30">
+    <row r="36" spans="1:10" ht="30">
       <c r="A36" s="13" t="s">
         <v>132</v>
       </c>
@@ -3038,7 +3026,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="30">
+    <row r="37" spans="1:10" ht="30">
       <c r="A37" s="13" t="s">
         <v>135</v>
       </c>
@@ -3064,7 +3052,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="30">
+    <row r="38" spans="1:10" ht="30">
       <c r="A38" s="13" t="s">
         <v>138</v>
       </c>
@@ -3090,7 +3078,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="30">
+    <row r="39" spans="1:10" ht="30">
       <c r="A39" s="13" t="s">
         <v>142</v>
       </c>
@@ -3116,7 +3104,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:10">
       <c r="A40" s="13" t="s">
         <v>145</v>
       </c>
@@ -3142,7 +3130,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:10">
       <c r="A41" s="13" t="s">
         <v>148</v>
       </c>
@@ -3168,7 +3156,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="30">
+    <row r="42" spans="1:10" ht="30">
       <c r="A42" s="13" t="s">
         <v>151</v>
       </c>
@@ -3194,7 +3182,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="30">
+    <row r="43" spans="1:10" ht="30">
       <c r="A43" s="13" t="s">
         <v>154</v>
       </c>
@@ -3220,7 +3208,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:10">
       <c r="A44" s="13" t="s">
         <v>157</v>
       </c>
@@ -3246,7 +3234,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:10">
       <c r="A45" s="13" t="s">
         <v>164</v>
       </c>
@@ -3272,7 +3260,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="30">
+    <row r="46" spans="1:10" ht="30">
       <c r="A46" s="13" t="s">
         <v>167</v>
       </c>
@@ -3298,7 +3286,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="30">
+    <row r="47" spans="1:10" ht="30">
       <c r="A47" s="13" t="s">
         <v>169</v>
       </c>
@@ -3324,7 +3312,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="30">
+    <row r="48" spans="1:10" ht="30">
       <c r="A48" s="13" t="s">
         <v>175</v>
       </c>
@@ -3350,7 +3338,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:10">
       <c r="A49" s="13" t="s">
         <v>178</v>
       </c>
@@ -3376,7 +3364,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="60">
+    <row r="50" spans="1:10" ht="60">
       <c r="A50" s="13" t="s">
         <v>185</v>
       </c>
@@ -3402,7 +3390,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="60">
+    <row r="51" spans="1:10" ht="60">
       <c r="A51" s="13" t="s">
         <v>189</v>
       </c>
@@ -3428,7 +3416,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="60">
+    <row r="52" spans="1:10" ht="60">
       <c r="A52" s="13" t="s">
         <v>196</v>
       </c>
@@ -3454,7 +3442,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="105">
+    <row r="53" spans="1:10" ht="105">
       <c r="A53" s="13" t="s">
         <v>199</v>
       </c>
@@ -3480,7 +3468,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="30">
+    <row r="54" spans="1:10" ht="30">
       <c r="A54" s="13" t="s">
         <v>206</v>
       </c>
@@ -3506,7 +3494,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="30">
+    <row r="55" spans="1:10" ht="30">
       <c r="A55" s="13" t="s">
         <v>213</v>
       </c>
@@ -3532,7 +3520,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="26.25">
+    <row r="56" spans="1:10" ht="26.25">
       <c r="A56" s="13" t="s">
         <v>216</v>
       </c>
@@ -3558,7 +3546,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="30">
+    <row r="57" spans="1:10" ht="30">
       <c r="A57" s="13" t="s">
         <v>218</v>
       </c>
@@ -3584,7 +3572,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:10">
       <c r="A58" s="13" t="s">
         <v>223</v>
       </c>
@@ -3610,7 +3598,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="30">
+    <row r="59" spans="1:10" ht="30">
       <c r="A59" s="13" t="s">
         <v>226</v>
       </c>
@@ -3636,7 +3624,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:10">
       <c r="A60" s="13" t="s">
         <v>229</v>
       </c>
@@ -3662,7 +3650,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:10">
       <c r="A61" s="13" t="s">
         <v>232</v>
       </c>
@@ -3688,7 +3676,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="60">
+    <row r="62" spans="1:10" ht="60">
       <c r="A62" s="13" t="s">
         <v>239</v>
       </c>
@@ -3714,7 +3702,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="45">
+    <row r="63" spans="1:10" ht="45">
       <c r="A63" s="13" t="s">
         <v>245</v>
       </c>
@@ -3740,7 +3728,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:10">
       <c r="A64" s="13" t="s">
         <v>248</v>
       </c>
@@ -3766,7 +3754,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:10">
       <c r="A65" s="13" t="s">
         <v>250</v>
       </c>
@@ -3792,7 +3780,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="45">
+    <row r="66" spans="1:10" ht="45">
       <c r="A66" s="13" t="s">
         <v>253</v>
       </c>
@@ -3818,7 +3806,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="30">
+    <row r="67" spans="1:10" ht="30">
       <c r="A67" s="13" t="s">
         <v>256</v>
       </c>
@@ -3844,7 +3832,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="30">
+    <row r="68" spans="1:10" ht="30">
       <c r="A68" s="13" t="s">
         <v>262</v>
       </c>
@@ -3870,7 +3858,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="30">
+    <row r="69" spans="1:10" ht="30">
       <c r="A69" s="13" t="s">
         <v>268</v>
       </c>
@@ -3896,7 +3884,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:10">
       <c r="A70" s="13" t="s">
         <v>271</v>
       </c>
@@ -3922,7 +3910,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="45">
+    <row r="71" spans="1:10" ht="45">
       <c r="A71" s="13" t="s">
         <v>274</v>
       </c>
@@ -3952,18 +3940,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
-          <x14:formula1>
+      <x14:dataValidations count="2">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+          <x14:formula1 xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
             <xm:f>'Listas y leyendas'!$F$2:$F$9</xm:f>
           </x14:formula1>
-          <xm:sqref>E72:E1048576 C2:C71</xm:sqref>
+          <xm:sqref xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">E72:E1048576 C2:C71</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
-          <x14:formula1>
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+          <x14:formula1 xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
             <xm:f>'Listas y leyendas'!$O$2:$O$10</xm:f>
           </x14:formula1>
-          <xm:sqref>H72:H1048576</xm:sqref>
+          <xm:sqref xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">H72:H1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3972,14 +3960,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="I2" sqref="I2:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14062" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="2" max="2" width="76.5703125" customWidth="1"/>
@@ -4047,6 +4035,9 @@
       <c r="H2" t="s">
         <v>291</v>
       </c>
+      <c r="I2" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="195">
       <c r="A3" t="s">
@@ -4073,6 +4064,9 @@
       <c r="H3" t="s">
         <v>295</v>
       </c>
+      <c r="I3" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="180">
       <c r="A4" t="s">
@@ -4099,6 +4093,9 @@
       <c r="H4" t="s">
         <v>299</v>
       </c>
+      <c r="I4" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="270">
       <c r="A5" t="s">
@@ -4125,6 +4122,9 @@
       <c r="H5" t="s">
         <v>303</v>
       </c>
+      <c r="I5" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="165">
       <c r="A6" t="s">
@@ -4151,6 +4151,9 @@
       <c r="H6" t="s">
         <v>307</v>
       </c>
+      <c r="I6" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="120">
       <c r="A7" t="s">
@@ -4177,6 +4180,9 @@
       <c r="H7" t="s">
         <v>311</v>
       </c>
+      <c r="I7" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="51.75">
       <c r="A8" t="s">
@@ -4203,6 +4209,9 @@
       <c r="H8" t="s">
         <v>315</v>
       </c>
+      <c r="I8" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="102.75">
       <c r="A9" t="s">
@@ -4229,6 +4238,9 @@
       <c r="H9" t="s">
         <v>319</v>
       </c>
+      <c r="I9" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="315">
       <c r="A10" t="s">
@@ -4255,6 +4267,9 @@
       <c r="H10" t="s">
         <v>323</v>
       </c>
+      <c r="I10" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="405">
       <c r="A11" t="s">
@@ -4281,6 +4296,9 @@
       <c r="H11" t="s">
         <v>327</v>
       </c>
+      <c r="I11" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="90">
       <c r="A12" t="s">
@@ -4307,6 +4325,9 @@
       <c r="H12" t="s">
         <v>331</v>
       </c>
+      <c r="I12" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="102.75">
       <c r="A13" t="s">
@@ -4333,6 +4354,9 @@
       <c r="H13" t="s">
         <v>335</v>
       </c>
+      <c r="I13" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="345">
       <c r="A14" t="s">
@@ -4359,6 +4383,9 @@
       <c r="H14" t="s">
         <v>339</v>
       </c>
+      <c r="I14" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="150">
       <c r="A15" t="s">
@@ -4385,6 +4412,9 @@
       <c r="H15" t="s">
         <v>343</v>
       </c>
+      <c r="I15" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="77.25">
       <c r="A16" t="s">
@@ -4411,8 +4441,11 @@
       <c r="H16" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="75">
+      <c r="I16" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="75">
       <c r="A17" t="s">
         <v>191</v>
       </c>
@@ -4437,8 +4470,11 @@
       <c r="H17" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="375">
+      <c r="I17" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="375">
       <c r="A18" t="s">
         <v>201</v>
       </c>
@@ -4463,8 +4499,11 @@
       <c r="H18" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="102.75">
+      <c r="I18" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="102.75">
       <c r="A19" t="s">
         <v>208</v>
       </c>
@@ -4489,8 +4528,11 @@
       <c r="H19" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="51" customHeight="1">
+      <c r="I19" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="51" customHeight="1">
       <c r="A20" t="s">
         <v>220</v>
       </c>
@@ -4515,8 +4557,11 @@
       <c r="H20" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="115.5">
+      <c r="I20" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="115.5">
       <c r="A21" t="s">
         <v>234</v>
       </c>
@@ -4541,8 +4586,11 @@
       <c r="H21" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="102.75">
+      <c r="I21" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="102.75">
       <c r="A22" t="s">
         <v>241</v>
       </c>
@@ -4567,8 +4615,11 @@
       <c r="H22" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="115.5">
+      <c r="I22" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="115.5">
       <c r="A23" t="s">
         <v>257</v>
       </c>
@@ -4593,8 +4644,11 @@
       <c r="H23" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="64.5">
+      <c r="I23" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="64.5">
       <c r="A24" t="s">
         <v>269</v>
       </c>
@@ -4619,8 +4673,11 @@
       <c r="H24" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="38.25">
+      <c r="I24" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="38.25">
       <c r="A25" t="s">
         <v>272</v>
       </c>
@@ -4645,8 +4702,11 @@
       <c r="H25" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="128.25">
+      <c r="I25" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="128.25">
       <c r="A26" t="s">
         <v>276</v>
       </c>
@@ -4671,38 +4731,41 @@
       <c r="H26" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="B27" s="20"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:9">
       <c r="B28" s="21"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:9">
       <c r="B29" s="21"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:9">
       <c r="B30" s="20"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:9">
       <c r="B31" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
-          <x14:formula1>
+      <x14:dataValidations count="2">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+          <x14:formula1 xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
             <xm:f>'Listas y leyendas'!$F$2:$F$9</xm:f>
           </x14:formula1>
-          <xm:sqref>A2</xm:sqref>
+          <xm:sqref xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">A2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Entrada inválida" error="Seleccione un valor de la lista" promptTitle="Tipo de empresa" prompt="Seleccione un tipo de empresa" xr:uid="{00000000-0002-0000-0100-000001000000}">
-          <x14:formula1>
+        <x14:dataValidation allowBlank="1" error="Seleccione un valor de la lista" errorTitle="Entrada inválida" prompt="Seleccione un tipo de empresa" promptTitle="Tipo de empresa" showErrorMessage="1" showInputMessage="1" type="list">
+          <x14:formula1 xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
             <xm:f>'Listas y leyendas'!$B$2:$B$21</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D1048576</xm:sqref>
+          <xm:sqref xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">D2:D1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4711,14 +4774,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14062" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="39.5703125" customWidth="1"/>
     <col min="5" max="5" width="30.85546875" customWidth="1"/>
@@ -5239,7 +5302,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75">
+    <row r="17" spans="1:15" ht="15.75">
       <c r="A17" s="2" t="s">
         <v>454</v>
       </c>
@@ -5261,7 +5324,7 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" ht="15.75">
+    <row r="18" spans="1:15" ht="15.75">
       <c r="A18" s="2" t="s">
         <v>456</v>
       </c>
@@ -5279,7 +5342,7 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" ht="15.75">
+    <row r="19" spans="1:15" ht="15.75">
       <c r="A19" s="2" t="s">
         <v>457</v>
       </c>
@@ -5297,7 +5360,7 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" ht="15.75">
+    <row r="20" spans="1:15" ht="15.75">
       <c r="A20" s="2" t="s">
         <v>458</v>
       </c>
@@ -5315,7 +5378,7 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" ht="15.75">
+    <row r="21" spans="1:15" ht="15.75">
       <c r="A21" s="2" t="s">
         <v>459</v>
       </c>

--- a/MyProject2/Content/Excels/Socios.xlsx
+++ b/MyProject2/Content/Excels/Socios.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="587">
   <si>
     <t>Nomre y apellidos</t>
   </si>
@@ -65,6 +65,9 @@
     <t>susana@io.cfmac.csic.es</t>
   </si>
   <si>
+    <t>0+</t>
+  </si>
+  <si>
     <t>0+7+14</t>
   </si>
   <si>
@@ -218,673 +221,673 @@
     <t>sarroniz@grupoalava.com</t>
   </si>
   <si>
+    <t>Basilio Mena</t>
+  </si>
+  <si>
+    <t>Comercial</t>
+  </si>
+  <si>
+    <t>bmena@grupoalava.com</t>
+  </si>
+  <si>
+    <t>Yago Sánchez</t>
+  </si>
+  <si>
+    <t>Corporate Director, Strategic Alliances &amp; Business Intelligence</t>
+  </si>
+  <si>
+    <t>ysanchez@grupoalava.com</t>
+  </si>
+  <si>
+    <t>Juan Antonio Gil Sanza</t>
+  </si>
+  <si>
+    <t>Corporate key Account Manager Automotive</t>
+  </si>
+  <si>
+    <t>jagil@grupoalava.com</t>
+  </si>
+  <si>
+    <t>Sergio García</t>
+  </si>
+  <si>
+    <t>Desarrollo del negocio - Sistemas Embarcables</t>
+  </si>
+  <si>
+    <t>sgfernandez@grupoalava.com</t>
+  </si>
+  <si>
+    <t>Cristina González Rodríguez</t>
+  </si>
+  <si>
+    <t>Directora de Área Imagen, Fotónica y Nanotecnología</t>
+  </si>
+  <si>
+    <t>cgonzalez@grupoalava.com</t>
+  </si>
+  <si>
+    <t>Tatiana Ledesma Blanco</t>
+  </si>
+  <si>
+    <t>Directora de Marketing</t>
+  </si>
+  <si>
+    <t>tledesma@grupoalava.com</t>
+  </si>
+  <si>
+    <t>Héctor Cordal</t>
+  </si>
+  <si>
+    <t>Product Manager - Vision</t>
+  </si>
+  <si>
+    <t>hcordal@grupoalava.com</t>
+  </si>
+  <si>
+    <t>Antonio Castelo</t>
+  </si>
+  <si>
+    <t>Sales Engineer</t>
+  </si>
+  <si>
+    <t>acastelo@grupoalava.com</t>
+  </si>
+  <si>
+    <t>Jose Maria Almazan</t>
+  </si>
+  <si>
+    <t>Vice President</t>
+  </si>
+  <si>
+    <t>jmalmazan@grupoalava.com</t>
+  </si>
+  <si>
+    <t>Ana Belén Martínez</t>
+  </si>
+  <si>
+    <t>Communications &amp; Outreach Manager</t>
+  </si>
+  <si>
+    <t>Alba Synchrotron</t>
+  </si>
+  <si>
+    <t>amartinez@cells.es</t>
+  </si>
+  <si>
+    <t>Alejandro Sánchez</t>
+  </si>
+  <si>
+    <t>Director de la Oficina Industrial</t>
+  </si>
+  <si>
+    <t>asanchez@cells.es</t>
+  </si>
+  <si>
+    <t>Núria Valls</t>
+  </si>
+  <si>
+    <t>Industrial liaison scientist</t>
+  </si>
+  <si>
+    <t>nvalls@cells.es</t>
+  </si>
+  <si>
+    <t>Marta Ávila</t>
+  </si>
+  <si>
+    <t>Industrial Office Scientist</t>
+  </si>
+  <si>
+    <t>mavila@cells.es</t>
+  </si>
+  <si>
+    <t>Jimena Garcia Romeu</t>
+  </si>
+  <si>
+    <t>Alcyon photonics</t>
+  </si>
+  <si>
+    <t>jimena.garciaromeu@alcyonphotonics.com</t>
+  </si>
+  <si>
+    <t>Antonio Dias</t>
+  </si>
+  <si>
+    <t>Alcyon Photonics</t>
+  </si>
+  <si>
+    <t>antonio.dias@alcyonphotonics.com</t>
+  </si>
+  <si>
+    <t>Aitor Villafranca</t>
+  </si>
+  <si>
+    <t>Founder</t>
+  </si>
+  <si>
+    <t>a.villafranca@csic.es</t>
+  </si>
+  <si>
+    <t>Miguel  Silva-Constenla</t>
+  </si>
+  <si>
+    <t>CEO &amp; Co-Founder</t>
+  </si>
+  <si>
+    <t>AllRead Machine Learning Technologies</t>
+  </si>
+  <si>
+    <t>miguel@allread.ai</t>
+  </si>
+  <si>
+    <t>Adriaan  Landman</t>
+  </si>
+  <si>
+    <t>COO &amp; Co-Founder</t>
+  </si>
+  <si>
+    <t>adriaan@allread.ai</t>
+  </si>
+  <si>
+    <t>Demetrio López</t>
+  </si>
+  <si>
+    <t>Director de Innovación</t>
+  </si>
+  <si>
+    <t>Alter Technology</t>
+  </si>
+  <si>
+    <t>demetrio.lopez@altertechnology.com</t>
+  </si>
+  <si>
+    <t>0+1+2+4+5+12+13+14+15</t>
+  </si>
+  <si>
+    <t>10+7+8+6+5+9</t>
+  </si>
+  <si>
+    <t>0+1+4+5+6+8</t>
+  </si>
+  <si>
+    <t>Marcia Arizaga</t>
+  </si>
+  <si>
+    <t>Departamento de Comunicación</t>
+  </si>
+  <si>
+    <t>marcia.arizaga@altertechnology.com</t>
+  </si>
+  <si>
+    <t>Jose Ramon Vigil</t>
+  </si>
+  <si>
+    <t>Alteria Automation</t>
+  </si>
+  <si>
+    <t>jvigil@alteriaautomation.com</t>
+  </si>
+  <si>
+    <t>Mario Alfonso</t>
+  </si>
+  <si>
+    <t>Founder &amp; Partner</t>
+  </si>
+  <si>
+    <t>malfonso@alteriaautomation.com</t>
+  </si>
+  <si>
+    <t>Bartolomé Morales Vázquez</t>
+  </si>
+  <si>
+    <t>Outside Sales Manager</t>
+  </si>
+  <si>
+    <t>AMS Technologies</t>
+  </si>
+  <si>
+    <t>bmoralesvazquez@amstechnologies.com</t>
+  </si>
+  <si>
+    <t>Sara Calomarde</t>
+  </si>
+  <si>
+    <t>Regional Sales Director Spain</t>
+  </si>
+  <si>
+    <t>scalomarde@amstechnologies.com</t>
+  </si>
+  <si>
+    <t>Iker García Esteban-Barcina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aotech </t>
+  </si>
+  <si>
+    <t>igarcia@aotech.es</t>
+  </si>
+  <si>
+    <t>Vanesa Garcia</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>administracion@aotech.es</t>
+  </si>
+  <si>
+    <t>Asier Villafranca</t>
+  </si>
+  <si>
+    <t>Aragon Photonics</t>
+  </si>
+  <si>
+    <t>a.villafranca@aragonphotonics.com</t>
+  </si>
+  <si>
+    <t>Ricardo Arias</t>
+  </si>
+  <si>
+    <t>Head of Sales</t>
+  </si>
+  <si>
+    <t>r.arias@aragonphotonics.com</t>
+  </si>
+  <si>
+    <t>Antonio Sanchez</t>
+  </si>
+  <si>
+    <t>Fundador y CEO</t>
+  </si>
+  <si>
+    <t>AsorCAD Engineering</t>
+  </si>
+  <si>
+    <t>asanchez@asorcad.es</t>
+  </si>
+  <si>
+    <t>0+1+4+6+7+10</t>
+  </si>
+  <si>
+    <t>0+1+5+6+8+9+13</t>
+  </si>
+  <si>
+    <t>0+1+5+6</t>
+  </si>
+  <si>
+    <t>Josep Maria Sanchez</t>
+  </si>
+  <si>
+    <t>Director Técnico</t>
+  </si>
+  <si>
+    <t>jmsanchez@asorcad.es</t>
+  </si>
+  <si>
+    <t>Rosa Alonso</t>
+  </si>
+  <si>
+    <t>dircom@asorcad.es</t>
+  </si>
+  <si>
+    <t>Elena Martinez</t>
+  </si>
+  <si>
+    <t>ATRIA Innovation</t>
+  </si>
+  <si>
+    <t>elena.martinez@atriainnovation.com</t>
+  </si>
+  <si>
+    <t>0+1+3+4+10+15</t>
+  </si>
+  <si>
+    <t>0+1+5+8</t>
+  </si>
+  <si>
+    <t>0+1+5+6+7</t>
+  </si>
+  <si>
+    <t>Rosa Castillón</t>
+  </si>
+  <si>
+    <t>Project Manager Industry 4.0</t>
+  </si>
+  <si>
+    <t>rosa.castillon@atriainnovation.com</t>
+  </si>
+  <si>
+    <t>Jaume Castellà</t>
+  </si>
+  <si>
+    <t>Managing Director</t>
+  </si>
+  <si>
+    <t>CD6 - UPC</t>
+  </si>
+  <si>
+    <t>jaume.castella@upc.edu</t>
+  </si>
+  <si>
+    <t>0+1+2+3+4+7+8+12+13+14</t>
+  </si>
+  <si>
+    <t>0+1+2+8</t>
+  </si>
+  <si>
+    <t>0+1+3</t>
+  </si>
+  <si>
+    <t>Miguel Ares Rodríguez</t>
+  </si>
+  <si>
+    <t>Principal Researcher in Optical Engineering</t>
+  </si>
+  <si>
+    <t>CD6-UPC</t>
+  </si>
+  <si>
+    <t>miguel.ares@upc.edu</t>
+  </si>
+  <si>
+    <t>Mikel Bengoa</t>
+  </si>
+  <si>
+    <t>Team Leader High Power Laser Source Sales Europe</t>
+  </si>
+  <si>
+    <t>Coherent</t>
+  </si>
+  <si>
+    <t>Mikel.Bengoa@coherent.com</t>
+  </si>
+  <si>
+    <t>0+1+4+6+7+8</t>
+  </si>
+  <si>
+    <t>0+1+2+4+5+6+7+8+12</t>
+  </si>
+  <si>
+    <t>0+1+3+5+6</t>
+  </si>
+  <si>
+    <t>Sandra Mosquera Vazquez</t>
+  </si>
+  <si>
+    <t>Area Sales Manager Scientific Spain/Portugal</t>
+  </si>
+  <si>
+    <t>sandra.mosquera@coherent.com</t>
+  </si>
+  <si>
+    <t>Eva Fité</t>
+  </si>
+  <si>
+    <t>Business Development Manager - Materials Processing &amp; Capital Equipment</t>
+  </si>
+  <si>
+    <t>Eurecat</t>
+  </si>
+  <si>
+    <t>eva.fite@eurecat.org</t>
+  </si>
+  <si>
+    <t>0+1+4+10+11</t>
+  </si>
+  <si>
+    <t>5+6+8+12</t>
+  </si>
+  <si>
+    <t>0+6</t>
+  </si>
+  <si>
+    <t>David Castrillo Sanz</t>
+  </si>
+  <si>
+    <t>Area Manager Spain-Portugal</t>
+  </si>
+  <si>
+    <t>Hamamatsu Photonics</t>
+  </si>
+  <si>
+    <t>dcastrillo@hamamatsu.es</t>
+  </si>
+  <si>
+    <t>0+1+2+3+4+5+7+8+10+12+13+14+15</t>
+  </si>
+  <si>
+    <t>0+1+2+3+4+5+6+7+8+9+10+11+12</t>
+  </si>
+  <si>
+    <t>0+1+2+3+4+5+6+7+8</t>
+  </si>
+  <si>
+    <t>Victor Bernardo</t>
+  </si>
+  <si>
+    <t>Key Account Manager</t>
+  </si>
+  <si>
+    <t>vbernardo@hamamatsu.es</t>
+  </si>
+  <si>
+    <t>Jordi Sobrino Gil</t>
+  </si>
+  <si>
+    <t>jsobrino@hamamatsu.es</t>
+  </si>
+  <si>
+    <t>Sergi Ferrando</t>
+  </si>
+  <si>
+    <t>KTT Business Developer</t>
+  </si>
+  <si>
+    <t>ICFO</t>
+  </si>
+  <si>
+    <t>sergi.ferrando@icfo.es</t>
+  </si>
+  <si>
+    <t>0+1+2+3+4+5+7+8+12+13+14</t>
+  </si>
+  <si>
+    <t>Silvia Carrasco</t>
+  </si>
+  <si>
+    <t>KTT Director</t>
+  </si>
+  <si>
+    <t>silvia.carrasco@icfo.es</t>
+  </si>
+  <si>
+    <t>Martina Giovannella</t>
+  </si>
+  <si>
+    <t>KTT</t>
+  </si>
+  <si>
+    <t>martina.giovannella@icfo.eu</t>
+  </si>
+  <si>
+    <t>Alfredo Ongaro</t>
+  </si>
+  <si>
+    <t>attendant</t>
+  </si>
+  <si>
+    <t>alfredo.ongaro@icfo.eu</t>
+  </si>
+  <si>
+    <t>Ramon Sans Ravellat</t>
+  </si>
+  <si>
+    <t>Director I+D</t>
+  </si>
+  <si>
+    <t>Jeanologia Laser</t>
+  </si>
+  <si>
+    <t>rsans@jeanologia.com</t>
+  </si>
+  <si>
+    <t>1+13</t>
+  </si>
+  <si>
+    <t>1+2+8</t>
+  </si>
+  <si>
+    <t>0+3+7</t>
+  </si>
+  <si>
+    <t>Oscar Ciordia</t>
+  </si>
+  <si>
+    <t>Manager Marketing &amp; Business Development</t>
+  </si>
+  <si>
+    <t>KDPOF</t>
+  </si>
+  <si>
+    <t>o.ciordia@kdpof.com</t>
+  </si>
+  <si>
+    <t>5+8+10+13</t>
+  </si>
+  <si>
+    <t>2+5+8</t>
+  </si>
+  <si>
+    <t>Fernando Barbero Díaz</t>
+  </si>
+  <si>
+    <t>Adjunto de Dirección Técnica I+D</t>
+  </si>
+  <si>
+    <t>fernando.barbero@kdpof.com</t>
+  </si>
+  <si>
+    <t>Ruben Pérez</t>
+  </si>
+  <si>
+    <t>rubenpda@kdpof.com</t>
+  </si>
+  <si>
+    <t>Cesar Esteban</t>
+  </si>
+  <si>
+    <t>FAE</t>
+  </si>
+  <si>
+    <t>cesar.esteban@kdpof.com</t>
+  </si>
+  <si>
+    <t>Joaquín Cantos</t>
+  </si>
+  <si>
+    <t>Ingeniero de Diseño de hardware</t>
+  </si>
+  <si>
+    <t>joaquin.cantos@kdpof.com</t>
+  </si>
+  <si>
+    <t>Ramon Villanova</t>
+  </si>
+  <si>
+    <t>Photonlines</t>
+  </si>
+  <si>
+    <t>ra-villanova@photonlines.com</t>
+  </si>
+  <si>
+    <t>0+1+2+10</t>
+  </si>
+  <si>
+    <t>0+1+2+3+4+5+6+8+9+11+13</t>
+  </si>
+  <si>
+    <t>0+2+3+4+6+7</t>
+  </si>
+  <si>
+    <t>Youcef Lebour</t>
+  </si>
+  <si>
+    <t>R&amp;D Project Leader</t>
+  </si>
+  <si>
+    <t>Procarelight</t>
+  </si>
+  <si>
+    <t>youcef.lebour@procarelight.com</t>
+  </si>
+  <si>
+    <t>0+5+6+8</t>
+  </si>
+  <si>
+    <t>0+3+5</t>
+  </si>
+  <si>
+    <t>Jose Mª Silvestre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procarelight </t>
+  </si>
+  <si>
+    <t>jose.m.silvestre@procarelight.com</t>
+  </si>
+  <si>
+    <t>Ricardo Rodriguez Rodriguez</t>
+  </si>
+  <si>
+    <t>Suigéneris</t>
+  </si>
+  <si>
+    <t>ricardo@isuigeneris.es</t>
+  </si>
+  <si>
+    <t>David Gómez Plaza</t>
+  </si>
+  <si>
+    <t>Director Laser for Manufacturing Lab</t>
+  </si>
+  <si>
+    <t>Tekniker</t>
+  </si>
+  <si>
+    <t>david.gomez@tekniker.es</t>
+  </si>
+  <si>
+    <t>0+5+6+7+8</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Url web</t>
+  </si>
+  <si>
+    <t>Tipo De Entidad</t>
+  </si>
+  <si>
+    <t>Actividad</t>
+  </si>
+  <si>
+    <t>Dirección</t>
+  </si>
+  <si>
+    <t>Contacto</t>
+  </si>
+  <si>
+    <t>Logo Url</t>
+  </si>
+  <si>
+    <t>No modificar? (desmarcar para cambiar)</t>
+  </si>
+  <si>
     <t>.</t>
-  </si>
-  <si>
-    <t>Basilio Mena</t>
-  </si>
-  <si>
-    <t>Comercial</t>
-  </si>
-  <si>
-    <t>bmena@grupoalava.com</t>
-  </si>
-  <si>
-    <t>Yago Sánchez</t>
-  </si>
-  <si>
-    <t>Corporate Director, Strategic Alliances &amp; Business Intelligence</t>
-  </si>
-  <si>
-    <t>ysanchez@grupoalava.com</t>
-  </si>
-  <si>
-    <t>Juan Antonio Gil Sanza</t>
-  </si>
-  <si>
-    <t>Corporate key Account Manager Automotive</t>
-  </si>
-  <si>
-    <t>jagil@grupoalava.com</t>
-  </si>
-  <si>
-    <t>Sergio García</t>
-  </si>
-  <si>
-    <t>Desarrollo del negocio - Sistemas Embarcables</t>
-  </si>
-  <si>
-    <t>sgfernandez@grupoalava.com</t>
-  </si>
-  <si>
-    <t>Cristina González Rodríguez</t>
-  </si>
-  <si>
-    <t>Directora de Área Imagen, Fotónica y Nanotecnología</t>
-  </si>
-  <si>
-    <t>cgonzalez@grupoalava.com</t>
-  </si>
-  <si>
-    <t>Tatiana Ledesma Blanco</t>
-  </si>
-  <si>
-    <t>Directora de Marketing</t>
-  </si>
-  <si>
-    <t>tledesma@grupoalava.com</t>
-  </si>
-  <si>
-    <t>Héctor Cordal</t>
-  </si>
-  <si>
-    <t>Product Manager - Vision</t>
-  </si>
-  <si>
-    <t>hcordal@grupoalava.com</t>
-  </si>
-  <si>
-    <t>Antonio Castelo</t>
-  </si>
-  <si>
-    <t>Sales Engineer</t>
-  </si>
-  <si>
-    <t>acastelo@grupoalava.com</t>
-  </si>
-  <si>
-    <t>Jose Maria Almazan</t>
-  </si>
-  <si>
-    <t>Vice President</t>
-  </si>
-  <si>
-    <t>jmalmazan@grupoalava.com</t>
-  </si>
-  <si>
-    <t>Ana Belén Martínez</t>
-  </si>
-  <si>
-    <t>Communications &amp; Outreach Manager</t>
-  </si>
-  <si>
-    <t>Alba Synchrotron</t>
-  </si>
-  <si>
-    <t>amartinez@cells.es</t>
-  </si>
-  <si>
-    <t>Alejandro Sánchez</t>
-  </si>
-  <si>
-    <t>Director de la Oficina Industrial</t>
-  </si>
-  <si>
-    <t>asanchez@cells.es</t>
-  </si>
-  <si>
-    <t>Núria Valls</t>
-  </si>
-  <si>
-    <t>Industrial liaison scientist</t>
-  </si>
-  <si>
-    <t>nvalls@cells.es</t>
-  </si>
-  <si>
-    <t>Marta Ávila</t>
-  </si>
-  <si>
-    <t>Industrial Office Scientist</t>
-  </si>
-  <si>
-    <t>mavila@cells.es</t>
-  </si>
-  <si>
-    <t>Jimena Garcia Romeu</t>
-  </si>
-  <si>
-    <t>Alcyon photonics</t>
-  </si>
-  <si>
-    <t>jimena.garciaromeu@alcyonphotonics.com</t>
-  </si>
-  <si>
-    <t>Antonio Dias</t>
-  </si>
-  <si>
-    <t>Alcyon Photonics</t>
-  </si>
-  <si>
-    <t>antonio.dias@alcyonphotonics.com</t>
-  </si>
-  <si>
-    <t>Aitor Villafranca</t>
-  </si>
-  <si>
-    <t>Founder</t>
-  </si>
-  <si>
-    <t>a.villafranca@csic.es</t>
-  </si>
-  <si>
-    <t>Miguel  Silva-Constenla</t>
-  </si>
-  <si>
-    <t>CEO &amp; Co-Founder</t>
-  </si>
-  <si>
-    <t>AllRead Machine Learning Technologies</t>
-  </si>
-  <si>
-    <t>miguel@allread.ai</t>
-  </si>
-  <si>
-    <t>Adriaan  Landman</t>
-  </si>
-  <si>
-    <t>COO &amp; Co-Founder</t>
-  </si>
-  <si>
-    <t>adriaan@allread.ai</t>
-  </si>
-  <si>
-    <t>Demetrio López</t>
-  </si>
-  <si>
-    <t>Director de Innovación</t>
-  </si>
-  <si>
-    <t>Alter Technology</t>
-  </si>
-  <si>
-    <t>demetrio.lopez@altertechnology.com</t>
-  </si>
-  <si>
-    <t>0+1+2+4+5+12+13+14+15</t>
-  </si>
-  <si>
-    <t>10+7+8+6+5+9</t>
-  </si>
-  <si>
-    <t>0+1+4+5+6+8</t>
-  </si>
-  <si>
-    <t>Marcia Arizaga</t>
-  </si>
-  <si>
-    <t>Departamento de Comunicación</t>
-  </si>
-  <si>
-    <t>marcia.arizaga@altertechnology.com</t>
-  </si>
-  <si>
-    <t>Jose Ramon Vigil</t>
-  </si>
-  <si>
-    <t>Alteria Automation</t>
-  </si>
-  <si>
-    <t>jvigil@alteriaautomation.com</t>
-  </si>
-  <si>
-    <t>Mario Alfonso</t>
-  </si>
-  <si>
-    <t>Founder &amp; Partner</t>
-  </si>
-  <si>
-    <t>malfonso@alteriaautomation.com</t>
-  </si>
-  <si>
-    <t>Bartolomé Morales Vázquez</t>
-  </si>
-  <si>
-    <t>Outside Sales Manager</t>
-  </si>
-  <si>
-    <t>AMS Technologies</t>
-  </si>
-  <si>
-    <t>bmoralesvazquez@amstechnologies.com</t>
-  </si>
-  <si>
-    <t>Sara Calomarde</t>
-  </si>
-  <si>
-    <t>Regional Sales Director Spain</t>
-  </si>
-  <si>
-    <t>scalomarde@amstechnologies.com</t>
-  </si>
-  <si>
-    <t>Iker García Esteban-Barcina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aotech </t>
-  </si>
-  <si>
-    <t>igarcia@aotech.es</t>
-  </si>
-  <si>
-    <t>Vanesa Garcia</t>
-  </si>
-  <si>
-    <t>Marketing</t>
-  </si>
-  <si>
-    <t>administracion@aotech.es</t>
-  </si>
-  <si>
-    <t>Asier Villafranca</t>
-  </si>
-  <si>
-    <t>Aragon Photonics</t>
-  </si>
-  <si>
-    <t>a.villafranca@aragonphotonics.com</t>
-  </si>
-  <si>
-    <t>Ricardo Arias</t>
-  </si>
-  <si>
-    <t>Head of Sales</t>
-  </si>
-  <si>
-    <t>r.arias@aragonphotonics.com</t>
-  </si>
-  <si>
-    <t>Antonio Sanchez</t>
-  </si>
-  <si>
-    <t>Fundador y CEO</t>
-  </si>
-  <si>
-    <t>AsorCAD Engineering</t>
-  </si>
-  <si>
-    <t>asanchez@asorcad.es</t>
-  </si>
-  <si>
-    <t>0+1+4+6+7+10</t>
-  </si>
-  <si>
-    <t>0+1+5+6+8+9+13</t>
-  </si>
-  <si>
-    <t>0+1+5+6</t>
-  </si>
-  <si>
-    <t>Josep Maria Sanchez</t>
-  </si>
-  <si>
-    <t>Director Técnico</t>
-  </si>
-  <si>
-    <t>jmsanchez@asorcad.es</t>
-  </si>
-  <si>
-    <t>Rosa Alonso</t>
-  </si>
-  <si>
-    <t>dircom@asorcad.es</t>
-  </si>
-  <si>
-    <t>Elena Martinez</t>
-  </si>
-  <si>
-    <t>ATRIA Innovation</t>
-  </si>
-  <si>
-    <t>elena.martinez@atriainnovation.com</t>
-  </si>
-  <si>
-    <t>0+1+3+4+10+15</t>
-  </si>
-  <si>
-    <t>0+1+5+8</t>
-  </si>
-  <si>
-    <t>0+1+5+6+7</t>
-  </si>
-  <si>
-    <t>Rosa Castillón</t>
-  </si>
-  <si>
-    <t>Project Manager Industry 4.0</t>
-  </si>
-  <si>
-    <t>rosa.castillon@atriainnovation.com</t>
-  </si>
-  <si>
-    <t>Jaume Castellà</t>
-  </si>
-  <si>
-    <t>Managing Director</t>
-  </si>
-  <si>
-    <t>CD6 - UPC</t>
-  </si>
-  <si>
-    <t>jaume.castella@upc.edu</t>
-  </si>
-  <si>
-    <t>0+1+2+3+4+7+8+12+13+14</t>
-  </si>
-  <si>
-    <t>0+1+2+8</t>
-  </si>
-  <si>
-    <t>0+1+3</t>
-  </si>
-  <si>
-    <t>Miguel Ares Rodríguez</t>
-  </si>
-  <si>
-    <t>Principal Researcher in Optical Engineering</t>
-  </si>
-  <si>
-    <t>CD6-UPC</t>
-  </si>
-  <si>
-    <t>miguel.ares@upc.edu</t>
-  </si>
-  <si>
-    <t>Mikel Bengoa</t>
-  </si>
-  <si>
-    <t>Team Leader High Power Laser Source Sales Europe</t>
-  </si>
-  <si>
-    <t>Coherent</t>
-  </si>
-  <si>
-    <t>Mikel.Bengoa@coherent.com</t>
-  </si>
-  <si>
-    <t>0+1+4+6+7+8</t>
-  </si>
-  <si>
-    <t>0+1+2+4+5+6+7+8+12</t>
-  </si>
-  <si>
-    <t>0+1+3+5+6</t>
-  </si>
-  <si>
-    <t>Sandra Mosquera Vazquez</t>
-  </si>
-  <si>
-    <t>Area Sales Manager Scientific Spain/Portugal</t>
-  </si>
-  <si>
-    <t>sandra.mosquera@coherent.com</t>
-  </si>
-  <si>
-    <t>Eva Fité</t>
-  </si>
-  <si>
-    <t>Business Development Manager - Materials Processing &amp; Capital Equipment</t>
-  </si>
-  <si>
-    <t>Eurecat</t>
-  </si>
-  <si>
-    <t>eva.fite@eurecat.org</t>
-  </si>
-  <si>
-    <t>0+1+4+10+11</t>
-  </si>
-  <si>
-    <t>5+6+8+12</t>
-  </si>
-  <si>
-    <t>0+6</t>
-  </si>
-  <si>
-    <t>David Castrillo Sanz</t>
-  </si>
-  <si>
-    <t>Area Manager Spain-Portugal</t>
-  </si>
-  <si>
-    <t>Hamamatsu Photonics</t>
-  </si>
-  <si>
-    <t>dcastrillo@hamamatsu.es</t>
-  </si>
-  <si>
-    <t>0+1+2+3+4+5+7+8+10+12+13+14+15</t>
-  </si>
-  <si>
-    <t>0+1+2+3+4+5+6+7+8+9+10+11+12</t>
-  </si>
-  <si>
-    <t>0+1+2+3+4+5+6+7+8</t>
-  </si>
-  <si>
-    <t>Victor Bernardo</t>
-  </si>
-  <si>
-    <t>Key Account Manager</t>
-  </si>
-  <si>
-    <t>vbernardo@hamamatsu.es</t>
-  </si>
-  <si>
-    <t>Jordi Sobrino Gil</t>
-  </si>
-  <si>
-    <t>jsobrino@hamamatsu.es</t>
-  </si>
-  <si>
-    <t>Sergi Ferrando</t>
-  </si>
-  <si>
-    <t>KTT Business Developer</t>
-  </si>
-  <si>
-    <t>ICFO</t>
-  </si>
-  <si>
-    <t>sergi.ferrando@icfo.es</t>
-  </si>
-  <si>
-    <t>0+1+2+3+4+5+7+8+12+13+14</t>
-  </si>
-  <si>
-    <t>Silvia Carrasco</t>
-  </si>
-  <si>
-    <t>KTT Director</t>
-  </si>
-  <si>
-    <t>silvia.carrasco@icfo.es</t>
-  </si>
-  <si>
-    <t>Martina Giovannella</t>
-  </si>
-  <si>
-    <t>KTT</t>
-  </si>
-  <si>
-    <t>martina.giovannella@icfo.eu</t>
-  </si>
-  <si>
-    <t>Alfredo Ongaro</t>
-  </si>
-  <si>
-    <t>attendant</t>
-  </si>
-  <si>
-    <t>alfredo.ongaro@icfo.eu</t>
-  </si>
-  <si>
-    <t>Ramon Sans Ravellat</t>
-  </si>
-  <si>
-    <t>Director I+D</t>
-  </si>
-  <si>
-    <t>Jeanologia Laser</t>
-  </si>
-  <si>
-    <t>rsans@jeanologia.com</t>
-  </si>
-  <si>
-    <t>1+13</t>
-  </si>
-  <si>
-    <t>1+2+8</t>
-  </si>
-  <si>
-    <t>0+3+7</t>
-  </si>
-  <si>
-    <t>Oscar Ciordia</t>
-  </si>
-  <si>
-    <t>Manager Marketing &amp; Business Development</t>
-  </si>
-  <si>
-    <t>KDPOF</t>
-  </si>
-  <si>
-    <t>o.ciordia@kdpof.com</t>
-  </si>
-  <si>
-    <t>5+8+10+13</t>
-  </si>
-  <si>
-    <t>2+5+8</t>
-  </si>
-  <si>
-    <t>Fernando Barbero Díaz</t>
-  </si>
-  <si>
-    <t>Adjunto de Dirección Técnica I+D</t>
-  </si>
-  <si>
-    <t>fernando.barbero@kdpof.com</t>
-  </si>
-  <si>
-    <t>Ruben Pérez</t>
-  </si>
-  <si>
-    <t>rubenpda@kdpof.com</t>
-  </si>
-  <si>
-    <t>Cesar Esteban</t>
-  </si>
-  <si>
-    <t>FAE</t>
-  </si>
-  <si>
-    <t>cesar.esteban@kdpof.com</t>
-  </si>
-  <si>
-    <t>Joaquín Cantos</t>
-  </si>
-  <si>
-    <t>Ingeniero de Diseño de hardware</t>
-  </si>
-  <si>
-    <t>joaquin.cantos@kdpof.com</t>
-  </si>
-  <si>
-    <t>Ramon Villanova</t>
-  </si>
-  <si>
-    <t>Photonlines</t>
-  </si>
-  <si>
-    <t>ra-villanova@photonlines.com</t>
-  </si>
-  <si>
-    <t>0+1+2+10</t>
-  </si>
-  <si>
-    <t>0+1+2+3+4+5+6+8+9+11+13</t>
-  </si>
-  <si>
-    <t>0+2+3+4+6+7</t>
-  </si>
-  <si>
-    <t>Youcef Lebour</t>
-  </si>
-  <si>
-    <t>R&amp;D Project Leader</t>
-  </si>
-  <si>
-    <t>Procarelight</t>
-  </si>
-  <si>
-    <t>youcef.lebour@procarelight.com</t>
-  </si>
-  <si>
-    <t>0+5+6+8</t>
-  </si>
-  <si>
-    <t>0+3+5</t>
-  </si>
-  <si>
-    <t>Jose Mª Silvestre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Procarelight </t>
-  </si>
-  <si>
-    <t>jose.m.silvestre@procarelight.com</t>
-  </si>
-  <si>
-    <t>Ricardo Rodriguez Rodriguez</t>
-  </si>
-  <si>
-    <t>Suigéneris</t>
-  </si>
-  <si>
-    <t>ricardo@isuigeneris.es</t>
-  </si>
-  <si>
-    <t>David Gómez Plaza</t>
-  </si>
-  <si>
-    <t>Director Laser for Manufacturing Lab</t>
-  </si>
-  <si>
-    <t>Tekniker</t>
-  </si>
-  <si>
-    <t>david.gomez@tekniker.es</t>
-  </si>
-  <si>
-    <t>0+5+6+7+8</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Descripción</t>
-  </si>
-  <si>
-    <t>Url web</t>
-  </si>
-  <si>
-    <t>Tipo De Entidad</t>
-  </si>
-  <si>
-    <t>Actividad</t>
-  </si>
-  <si>
-    <t>Dirección</t>
-  </si>
-  <si>
-    <t>Contacto</t>
-  </si>
-  <si>
-    <t>Logo Url</t>
-  </si>
-  <si>
-    <t>No modificar? (desmarcar para cambiar)</t>
   </si>
   <si>
     <t>http://www.2eyesvision.com/</t>
@@ -1508,7 +1511,382 @@
     <t>Administración pública</t>
   </si>
   <si>
-    <t>X</t>
+    <t>susanamarcosmarcos</t>
+  </si>
+  <si>
+    <t>ZcEqj?`uS_Cm</t>
+  </si>
+  <si>
+    <t>cándidoguerrero</t>
+  </si>
+  <si>
+    <t>UjRnH:?N&gt;nSI</t>
+  </si>
+  <si>
+    <t>enriquegambra</t>
+  </si>
+  <si>
+    <t>RVwa?uZQhH2o</t>
+  </si>
+  <si>
+    <t>Álvarosánchez-lozano</t>
+  </si>
+  <si>
+    <t>57BUOoD0=M93</t>
+  </si>
+  <si>
+    <t>carlosdorronsoro</t>
+  </si>
+  <si>
+    <t>]8Hv=TR]ZA\S</t>
+  </si>
+  <si>
+    <t>patriciablanco</t>
+  </si>
+  <si>
+    <t>1t:`fkSB`c^X</t>
+  </si>
+  <si>
+    <t>ambroisevandewynckèle</t>
+  </si>
+  <si>
+    <t>vMzLVY0hdOQ`</t>
+  </si>
+  <si>
+    <t>pabloromero</t>
+  </si>
+  <si>
+    <t>iNwZ4`Zn6Kfj</t>
+  </si>
+  <si>
+    <t>félixaresblanco</t>
+  </si>
+  <si>
+    <t>WVm&lt;EDhlFhKI</t>
+  </si>
+  <si>
+    <t>daviddiegovallejo</t>
+  </si>
+  <si>
+    <t>R[bDDlVL^uTl</t>
+  </si>
+  <si>
+    <t>ricardodíazpujol</t>
+  </si>
+  <si>
+    <t>W&gt;eG1mAe_bK:</t>
+  </si>
+  <si>
+    <t>edgarllopgozalbo</t>
+  </si>
+  <si>
+    <t>ftj^CA=[8?=w</t>
+  </si>
+  <si>
+    <t>eliseovillanueva</t>
+  </si>
+  <si>
+    <t>m55CNaveKDld</t>
+  </si>
+  <si>
+    <t>sergioarroniz</t>
+  </si>
+  <si>
+    <t>aGl5TkE4cCUE</t>
+  </si>
+  <si>
+    <t>basiliomena</t>
+  </si>
+  <si>
+    <t>\OB&gt;o[woNBnb</t>
+  </si>
+  <si>
+    <t>yagosánchez</t>
+  </si>
+  <si>
+    <t>FulPII`3oI1I</t>
+  </si>
+  <si>
+    <t>juanantoniogilsanza</t>
+  </si>
+  <si>
+    <t>59_dM&gt;tnIm=N</t>
+  </si>
+  <si>
+    <t>sergiogarcía</t>
+  </si>
+  <si>
+    <t>;c^_w9EQK]mc</t>
+  </si>
+  <si>
+    <t>cristinagonzálezrodríguez</t>
+  </si>
+  <si>
+    <t>&lt;:mk]vxanDPc</t>
+  </si>
+  <si>
+    <t>tatianaledesmablanco</t>
+  </si>
+  <si>
+    <t>5ITz\3`aenY&lt;</t>
+  </si>
+  <si>
+    <t>héctorcordal</t>
+  </si>
+  <si>
+    <t>gelVsz:Hu7n_</t>
+  </si>
+  <si>
+    <t>antoniocastelo</t>
+  </si>
+  <si>
+    <t>Esyy;SUX3u&lt;J</t>
+  </si>
+  <si>
+    <t>josemariaalmazan</t>
+  </si>
+  <si>
+    <t>k^3j;gO\yrg4</t>
+  </si>
+  <si>
+    <t>anabelénmartínez</t>
+  </si>
+  <si>
+    <t>K4RfWq9^2?0B</t>
+  </si>
+  <si>
+    <t>alejandrosánchez</t>
+  </si>
+  <si>
+    <t>sM^&gt;iUEC:;ey</t>
+  </si>
+  <si>
+    <t>núriavalls</t>
+  </si>
+  <si>
+    <t>]46&gt;ImGfK7i4</t>
+  </si>
+  <si>
+    <t>martaÁvila</t>
+  </si>
+  <si>
+    <t>_&lt;2j\X;vbKRj</t>
+  </si>
+  <si>
+    <t>jimenagarciaromeu</t>
+  </si>
+  <si>
+    <t>:BWm]O4V3T3t</t>
+  </si>
+  <si>
+    <t>antoniodias</t>
+  </si>
+  <si>
+    <t>BKfA[;HXFVim</t>
+  </si>
+  <si>
+    <t>aitorvillafranca</t>
+  </si>
+  <si>
+    <t>V&lt;7BeB[fntsv</t>
+  </si>
+  <si>
+    <t>miguelsilva-constenla</t>
+  </si>
+  <si>
+    <t>b0E=mc@Nkdyn</t>
+  </si>
+  <si>
+    <t>adriaanlandman</t>
+  </si>
+  <si>
+    <t>7b8iN]]SapzZ</t>
+  </si>
+  <si>
+    <t>demetriolópez</t>
+  </si>
+  <si>
+    <t>vIawqa2PN]Ek</t>
+  </si>
+  <si>
+    <t>marciaarizaga</t>
+  </si>
+  <si>
+    <t>DViGep7l1^FL</t>
+  </si>
+  <si>
+    <t>joseramonvigil</t>
+  </si>
+  <si>
+    <t>SIPjzi2XmEuH</t>
+  </si>
+  <si>
+    <t>marioalfonso</t>
+  </si>
+  <si>
+    <t>VMrXm4G]5]Ko</t>
+  </si>
+  <si>
+    <t>bartolomémoralesvázquez</t>
+  </si>
+  <si>
+    <t>E6ouI]Xm]L?@</t>
+  </si>
+  <si>
+    <t>saracalomarde</t>
+  </si>
+  <si>
+    <t>hfK6Xqi?sEaf</t>
+  </si>
+  <si>
+    <t>ikergarcíaesteban-barcina</t>
+  </si>
+  <si>
+    <t>&gt;2=Aj025aMwz</t>
+  </si>
+  <si>
+    <t>vanesagarcia</t>
+  </si>
+  <si>
+    <t>aai;mW0I?64S</t>
+  </si>
+  <si>
+    <t>asiervillafranca</t>
+  </si>
+  <si>
+    <t>7eHBcG&lt;vtSeC</t>
+  </si>
+  <si>
+    <t>ricardoarias</t>
+  </si>
+  <si>
+    <t>RCMtO9EHSN[I</t>
+  </si>
+  <si>
+    <t>antoniosanchez</t>
+  </si>
+  <si>
+    <t>IXK=nho3lZtF</t>
+  </si>
+  <si>
+    <t>josepmariasanchez</t>
+  </si>
+  <si>
+    <t>Pl`y[7W26Z2s</t>
+  </si>
+  <si>
+    <t>rosaalonso</t>
+  </si>
+  <si>
+    <t>uK@RUvc7NL&lt;l</t>
+  </si>
+  <si>
+    <t>elenamartinez</t>
+  </si>
+  <si>
+    <t>?3dm24EPrYTP</t>
+  </si>
+  <si>
+    <t>rosacastillón</t>
+  </si>
+  <si>
+    <t>djQdtXWZCPH:</t>
+  </si>
+  <si>
+    <t>jaumecastellà</t>
+  </si>
+  <si>
+    <t>XwNtsxhj7rIZ</t>
+  </si>
+  <si>
+    <t>miguelaresrodríguez</t>
+  </si>
+  <si>
+    <t>Uu]916cgR[wt</t>
+  </si>
+  <si>
+    <t>mikelbengoa</t>
+  </si>
+  <si>
+    <t>9MO4zc1We`Pu</t>
+  </si>
+  <si>
+    <t>sandramosqueravazquez</t>
+  </si>
+  <si>
+    <t>66qtRnNtd:_&lt;</t>
+  </si>
+  <si>
+    <t>evafité</t>
+  </si>
+  <si>
+    <t>rHc7[BQ^OegD</t>
+  </si>
+  <si>
+    <t>davidcastrillosanz</t>
+  </si>
+  <si>
+    <t>PCVs:jhJ&gt;fm&gt;</t>
+  </si>
+  <si>
+    <t>victorbernardo</t>
+  </si>
+  <si>
+    <t>UfJ=oX:Rik9E</t>
+  </si>
+  <si>
+    <t>jordisobrinogil</t>
+  </si>
+  <si>
+    <t>YiCxIy57Wc5u</t>
+  </si>
+  <si>
+    <t>sergiferrando</t>
+  </si>
+  <si>
+    <t>2^ryvumwE&gt;j_</t>
+  </si>
+  <si>
+    <t>silviacarrasco</t>
+  </si>
+  <si>
+    <t>`jnP8UG;OHgU</t>
+  </si>
+  <si>
+    <t>martinagiovannella</t>
+  </si>
+  <si>
+    <t>eoI1yArZ8ncJ</t>
+  </si>
+  <si>
+    <t>alfredoongaro</t>
+  </si>
+  <si>
+    <t>cc@t?:l1Ws9Q</t>
+  </si>
+  <si>
+    <t>ramonsansravellat</t>
+  </si>
+  <si>
+    <t>O4n6pdyz[]iJ</t>
+  </si>
+  <si>
+    <t>oscarciordia</t>
+  </si>
+  <si>
+    <t>6QksljWyauyq</t>
+  </si>
+  <si>
+    <t>fernandobarberodíaz</t>
+  </si>
+  <si>
+    <t>xFy@cl\QRRZZ</t>
+  </si>
+  <si>
+    <t>rubenpérez</t>
+  </si>
+  <si>
+    <t>G67P577C_\m]</t>
   </si>
 </sst>
 </file>
@@ -2066,7 +2444,7 @@
   <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14062" defaultRowHeight="15"/>
@@ -2129,355 +2507,433 @@
       <c r="D2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="11">
-        <v>0</v>
+      <c r="E2" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="F2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>14</v>
-      </c>
-      <c r="G2" s="11">
-        <v>0</v>
       </c>
       <c r="H2" s="11">
         <v>1</v>
       </c>
+      <c r="I2" t="s">
+        <v>461</v>
+      </c>
+      <c r="J2" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="11">
         <v>6</v>
       </c>
       <c r="F3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" s="11">
-        <v>0</v>
       </c>
       <c r="H3" s="11">
         <v>1</v>
       </c>
+      <c r="I3" t="s">
+        <v>463</v>
+      </c>
+      <c r="J3" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="30">
       <c r="A4" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="11">
         <v>1</v>
       </c>
       <c r="F4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>14</v>
-      </c>
-      <c r="G4" s="11">
-        <v>0</v>
       </c>
       <c r="H4" s="11">
         <v>1</v>
       </c>
+      <c r="I4" t="s">
+        <v>465</v>
+      </c>
+      <c r="J4" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="45">
       <c r="A5" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" s="11">
         <v>2</v>
       </c>
       <c r="F5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>14</v>
-      </c>
-      <c r="G5" s="11">
-        <v>0</v>
       </c>
       <c r="H5" s="11">
         <v>1</v>
       </c>
+      <c r="I5" t="s">
+        <v>467</v>
+      </c>
+      <c r="J5" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="30">
       <c r="A6" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="11">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="F6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>14</v>
-      </c>
-      <c r="G6" s="11">
-        <v>0</v>
       </c>
       <c r="H6" s="11">
         <v>1</v>
       </c>
+      <c r="I6" t="s">
+        <v>469</v>
+      </c>
+      <c r="J6" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="45">
       <c r="A7" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" s="11">
         <v>3</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="I7" t="s">
+        <v>471</v>
+      </c>
+      <c r="J7" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="45">
       <c r="A8" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E8" s="11">
         <v>7</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="I8" t="s">
+        <v>473</v>
+      </c>
+      <c r="J8" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30">
       <c r="A9" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="11">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="I9" t="s">
+        <v>475</v>
+      </c>
+      <c r="J9" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10" s="11">
         <v>1</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="I10" t="s">
+        <v>477</v>
+      </c>
+      <c r="J10" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E11" s="11">
         <v>1</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="I11" t="s">
+        <v>479</v>
+      </c>
+      <c r="J11" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E12" s="11">
         <v>7</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="I12" t="s">
+        <v>481</v>
+      </c>
+      <c r="J12" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E13" s="11">
         <v>1</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="I13" t="s">
+        <v>483</v>
+      </c>
+      <c r="J13" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="60">
       <c r="A14" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="11">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="I14" t="s">
+        <v>485</v>
+      </c>
+      <c r="J14" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="90">
       <c r="A15" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E15" s="11">
         <v>1</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>65</v>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" t="s">
+        <v>487</v>
+      </c>
+      <c r="J15" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2488,7 +2944,7 @@
         <v>67</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>68</v>
@@ -2496,14 +2952,14 @@
       <c r="E16" s="11">
         <v>2</v>
       </c>
-      <c r="F16" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>65</v>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" t="s">
+        <v>489</v>
+      </c>
+      <c r="J16" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="75">
@@ -2514,7 +2970,7 @@
         <v>70</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>71</v>
@@ -2522,14 +2978,14 @@
       <c r="E17" s="11">
         <v>7</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>65</v>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" t="s">
+        <v>491</v>
+      </c>
+      <c r="J17" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="45">
@@ -2540,7 +2996,7 @@
         <v>73</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>74</v>
@@ -2548,14 +3004,14 @@
       <c r="E18" s="11">
         <v>1</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>65</v>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" t="s">
+        <v>493</v>
+      </c>
+      <c r="J18" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="60">
@@ -2566,7 +3022,7 @@
         <v>76</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>77</v>
@@ -2574,14 +3030,14 @@
       <c r="E19" s="11">
         <v>2</v>
       </c>
-      <c r="F19" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>65</v>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" t="s">
+        <v>495</v>
+      </c>
+      <c r="J19" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="45">
@@ -2592,7 +3048,7 @@
         <v>79</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>80</v>
@@ -2600,14 +3056,14 @@
       <c r="E20" s="11">
         <v>1</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>65</v>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" t="s">
+        <v>497</v>
+      </c>
+      <c r="J20" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="30">
@@ -2618,7 +3074,7 @@
         <v>82</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>83</v>
@@ -2626,14 +3082,14 @@
       <c r="E21" s="11">
         <v>3</v>
       </c>
-      <c r="F21" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>65</v>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" t="s">
+        <v>499</v>
+      </c>
+      <c r="J21" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="30">
@@ -2644,7 +3100,7 @@
         <v>85</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>86</v>
@@ -2652,14 +3108,14 @@
       <c r="E22" s="11">
         <v>1</v>
       </c>
-      <c r="F22" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>65</v>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" t="s">
+        <v>501</v>
+      </c>
+      <c r="J22" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2670,7 +3126,7 @@
         <v>88</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>89</v>
@@ -2678,14 +3134,14 @@
       <c r="E23" s="11">
         <v>2</v>
       </c>
-      <c r="F23" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>65</v>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" t="s">
+        <v>503</v>
+      </c>
+      <c r="J23" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="30">
@@ -2696,7 +3152,7 @@
         <v>91</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>92</v>
@@ -2704,14 +3160,14 @@
       <c r="E24" s="11">
         <v>7</v>
       </c>
-      <c r="F24" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>65</v>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" t="s">
+        <v>505</v>
+      </c>
+      <c r="J24" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="45">
@@ -2730,14 +3186,14 @@
       <c r="E25" s="11">
         <v>3</v>
       </c>
-      <c r="F25" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>65</v>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" t="s">
+        <v>507</v>
+      </c>
+      <c r="J25" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="30">
@@ -2756,14 +3212,14 @@
       <c r="E26" s="11">
         <v>7</v>
       </c>
-      <c r="F26" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>65</v>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" t="s">
+        <v>509</v>
+      </c>
+      <c r="J26" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="30">
@@ -2779,17 +3235,17 @@
       <c r="D27" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="E27" s="11">
-        <v>0</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>65</v>
+      <c r="E27" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" t="s">
+        <v>511</v>
+      </c>
+      <c r="J27" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="30">
@@ -2805,17 +3261,17 @@
       <c r="D28" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="E28" s="11">
-        <v>0</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>65</v>
+      <c r="E28" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" t="s">
+        <v>513</v>
+      </c>
+      <c r="J28" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="30">
@@ -2823,7 +3279,7 @@
         <v>106</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C29" s="16" t="s">
         <v>107</v>
@@ -2834,14 +3290,14 @@
       <c r="E29" s="11">
         <v>7</v>
       </c>
-      <c r="F29" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>65</v>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" t="s">
+        <v>515</v>
+      </c>
+      <c r="J29" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="30">
@@ -2849,7 +3305,7 @@
         <v>109</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>110</v>
@@ -2860,14 +3316,14 @@
       <c r="E30" s="11">
         <v>1</v>
       </c>
-      <c r="F30" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>65</v>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" t="s">
+        <v>517</v>
+      </c>
+      <c r="J30" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2883,17 +3339,17 @@
       <c r="D31" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="E31" s="11">
-        <v>0</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>65</v>
+      <c r="E31" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" t="s">
+        <v>519</v>
+      </c>
+      <c r="J31" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="45">
@@ -2912,14 +3368,14 @@
       <c r="E32" s="11">
         <v>7</v>
       </c>
-      <c r="F32" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>65</v>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" t="s">
+        <v>521</v>
+      </c>
+      <c r="J32" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="45">
@@ -2938,14 +3394,14 @@
       <c r="E33" s="11">
         <v>7</v>
       </c>
-      <c r="F33" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>65</v>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" t="s">
+        <v>523</v>
+      </c>
+      <c r="J33" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="30">
@@ -2973,6 +3429,12 @@
       <c r="H34" s="15" t="s">
         <v>128</v>
       </c>
+      <c r="I34" t="s">
+        <v>525</v>
+      </c>
+      <c r="J34" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="35" spans="1:10" ht="30">
       <c r="A35" s="13" t="s">
@@ -2999,13 +3461,19 @@
       <c r="H35" s="11" t="s">
         <v>128</v>
       </c>
+      <c r="I35" t="s">
+        <v>527</v>
+      </c>
+      <c r="J35" t="s">
+        <v>528</v>
+      </c>
     </row>
     <row r="36" spans="1:10" ht="30">
       <c r="A36" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C36" s="16" t="s">
         <v>133</v>
@@ -3016,14 +3484,14 @@
       <c r="E36" s="11">
         <v>1</v>
       </c>
-      <c r="F36" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>65</v>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" t="s">
+        <v>529</v>
+      </c>
+      <c r="J36" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="30">
@@ -3042,14 +3510,14 @@
       <c r="E37" s="11">
         <v>7</v>
       </c>
-      <c r="F37" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>65</v>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" t="s">
+        <v>531</v>
+      </c>
+      <c r="J37" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="30">
@@ -3068,14 +3536,14 @@
       <c r="E38" s="11">
         <v>2</v>
       </c>
-      <c r="F38" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>65</v>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" t="s">
+        <v>533</v>
+      </c>
+      <c r="J38" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="30">
@@ -3094,14 +3562,14 @@
       <c r="E39" s="11">
         <v>7</v>
       </c>
-      <c r="F39" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>65</v>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" t="s">
+        <v>535</v>
+      </c>
+      <c r="J39" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -3109,7 +3577,7 @@
         <v>145</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C40" s="16" t="s">
         <v>146</v>
@@ -3120,14 +3588,14 @@
       <c r="E40" s="11">
         <v>7</v>
       </c>
-      <c r="F40" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>65</v>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" t="s">
+        <v>537</v>
+      </c>
+      <c r="J40" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -3146,14 +3614,14 @@
       <c r="E41" s="11">
         <v>3</v>
       </c>
-      <c r="F41" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>65</v>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" t="s">
+        <v>539</v>
+      </c>
+      <c r="J41" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="30">
@@ -3161,7 +3629,7 @@
         <v>151</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C42" s="16" t="s">
         <v>152</v>
@@ -3172,14 +3640,14 @@
       <c r="E42" s="11">
         <v>7</v>
       </c>
-      <c r="F42" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H42" s="11" t="s">
-        <v>65</v>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" t="s">
+        <v>541</v>
+      </c>
+      <c r="J42" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="30">
@@ -3198,14 +3666,14 @@
       <c r="E43" s="11">
         <v>2</v>
       </c>
-      <c r="F43" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>65</v>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" t="s">
+        <v>543</v>
+      </c>
+      <c r="J43" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -3233,6 +3701,12 @@
       <c r="H44" s="15" t="s">
         <v>163</v>
       </c>
+      <c r="I44" t="s">
+        <v>545</v>
+      </c>
+      <c r="J44" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="13" t="s">
@@ -3259,6 +3733,12 @@
       <c r="H45" s="11" t="s">
         <v>163</v>
       </c>
+      <c r="I45" t="s">
+        <v>547</v>
+      </c>
+      <c r="J45" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="46" spans="1:10" ht="30">
       <c r="A46" s="13" t="s">
@@ -3285,6 +3765,12 @@
       <c r="H46" s="11" t="s">
         <v>163</v>
       </c>
+      <c r="I46" t="s">
+        <v>549</v>
+      </c>
+      <c r="J46" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="47" spans="1:10" ht="30">
       <c r="A47" s="13" t="s">
@@ -3311,6 +3797,12 @@
       <c r="H47" s="15" t="s">
         <v>174</v>
       </c>
+      <c r="I47" t="s">
+        <v>551</v>
+      </c>
+      <c r="J47" t="s">
+        <v>552</v>
+      </c>
     </row>
     <row r="48" spans="1:10" ht="30">
       <c r="A48" s="13" t="s">
@@ -3337,6 +3829,12 @@
       <c r="H48" s="11" t="s">
         <v>174</v>
       </c>
+      <c r="I48" t="s">
+        <v>553</v>
+      </c>
+      <c r="J48" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="13" t="s">
@@ -3363,6 +3861,12 @@
       <c r="H49" s="15" t="s">
         <v>184</v>
       </c>
+      <c r="I49" t="s">
+        <v>555</v>
+      </c>
+      <c r="J49" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="50" spans="1:10" ht="60">
       <c r="A50" s="13" t="s">
@@ -3377,8 +3881,8 @@
       <c r="D50" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="E50" s="11">
-        <v>0</v>
+      <c r="E50" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="F50" s="11" t="s">
         <v>182</v>
@@ -3388,6 +3892,12 @@
       </c>
       <c r="H50" s="11" t="s">
         <v>184</v>
+      </c>
+      <c r="I50" t="s">
+        <v>557</v>
+      </c>
+      <c r="J50" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="60">
@@ -3415,6 +3925,12 @@
       <c r="H51" s="15" t="s">
         <v>195</v>
       </c>
+      <c r="I51" t="s">
+        <v>559</v>
+      </c>
+      <c r="J51" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="52" spans="1:10" ht="60">
       <c r="A52" s="13" t="s">
@@ -3441,6 +3957,12 @@
       <c r="H52" s="11" t="s">
         <v>195</v>
       </c>
+      <c r="I52" t="s">
+        <v>561</v>
+      </c>
+      <c r="J52" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="53" spans="1:10" ht="105">
       <c r="A53" s="13" t="s">
@@ -3467,6 +3989,12 @@
       <c r="H53" s="15" t="s">
         <v>205</v>
       </c>
+      <c r="I53" t="s">
+        <v>563</v>
+      </c>
+      <c r="J53" t="s">
+        <v>564</v>
+      </c>
     </row>
     <row r="54" spans="1:10" ht="30">
       <c r="A54" s="13" t="s">
@@ -3493,6 +4021,12 @@
       <c r="H54" s="15" t="s">
         <v>212</v>
       </c>
+      <c r="I54" t="s">
+        <v>565</v>
+      </c>
+      <c r="J54" t="s">
+        <v>566</v>
+      </c>
     </row>
     <row r="55" spans="1:10" ht="30">
       <c r="A55" s="13" t="s">
@@ -3519,6 +4053,12 @@
       <c r="H55" s="11" t="s">
         <v>212</v>
       </c>
+      <c r="I55" t="s">
+        <v>567</v>
+      </c>
+      <c r="J55" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="56" spans="1:10" ht="26.25">
       <c r="A56" s="13" t="s">
@@ -3545,6 +4085,12 @@
       <c r="H56" s="12" t="s">
         <v>212</v>
       </c>
+      <c r="I56" t="s">
+        <v>569</v>
+      </c>
+      <c r="J56" t="s">
+        <v>570</v>
+      </c>
     </row>
     <row r="57" spans="1:10" ht="30">
       <c r="A57" s="13" t="s">
@@ -3559,8 +4105,8 @@
       <c r="D57" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="E57" s="15">
-        <v>0</v>
+      <c r="E57" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="F57" s="15" t="s">
         <v>222</v>
@@ -3570,6 +4116,12 @@
       </c>
       <c r="H57" s="15" t="s">
         <v>212</v>
+      </c>
+      <c r="I57" t="s">
+        <v>571</v>
+      </c>
+      <c r="J57" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -3597,6 +4149,12 @@
       <c r="H58" s="11" t="s">
         <v>212</v>
       </c>
+      <c r="I58" t="s">
+        <v>573</v>
+      </c>
+      <c r="J58" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="59" spans="1:10" ht="30">
       <c r="A59" s="13" t="s">
@@ -3611,8 +4169,8 @@
       <c r="D59" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="E59" s="11">
-        <v>0</v>
+      <c r="E59" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="F59" s="11" t="s">
         <v>222</v>
@@ -3622,6 +4180,12 @@
       </c>
       <c r="H59" s="11" t="s">
         <v>212</v>
+      </c>
+      <c r="I59" t="s">
+        <v>575</v>
+      </c>
+      <c r="J59" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -3637,8 +4201,8 @@
       <c r="D60" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="E60" s="12">
-        <v>0</v>
+      <c r="E60" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="F60" s="12" t="s">
         <v>222</v>
@@ -3648,6 +4212,12 @@
       </c>
       <c r="H60" s="12" t="s">
         <v>212</v>
+      </c>
+      <c r="I60" t="s">
+        <v>577</v>
+      </c>
+      <c r="J60" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -3675,6 +4245,12 @@
       <c r="H61" s="15" t="s">
         <v>238</v>
       </c>
+      <c r="I61" t="s">
+        <v>579</v>
+      </c>
+      <c r="J61" t="s">
+        <v>580</v>
+      </c>
     </row>
     <row r="62" spans="1:10" ht="60">
       <c r="A62" s="13" t="s">
@@ -3701,6 +4277,12 @@
       <c r="H62" s="15" t="s">
         <v>244</v>
       </c>
+      <c r="I62" t="s">
+        <v>581</v>
+      </c>
+      <c r="J62" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="63" spans="1:10" ht="45">
       <c r="A63" s="13" t="s">
@@ -3727,13 +4309,19 @@
       <c r="H63" s="11" t="s">
         <v>244</v>
       </c>
+      <c r="I63" t="s">
+        <v>583</v>
+      </c>
+      <c r="J63" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="13" t="s">
         <v>248</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C64" s="16" t="s">
         <v>241</v>
@@ -3752,6 +4340,12 @@
       </c>
       <c r="H64" s="11" t="s">
         <v>244</v>
+      </c>
+      <c r="I64" t="s">
+        <v>585</v>
+      </c>
+      <c r="J64" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -3811,7 +4405,7 @@
         <v>256</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C67" s="14" t="s">
         <v>257</v>
@@ -3863,7 +4457,7 @@
         <v>268</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C69" s="14" t="s">
         <v>269</v>
@@ -3889,7 +4483,7 @@
         <v>271</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C70" s="16" t="s">
         <v>272</v>
@@ -3900,15 +4494,9 @@
       <c r="E70" s="11">
         <v>7</v>
       </c>
-      <c r="F70" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G70" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H70" s="11" t="s">
-        <v>65</v>
-      </c>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
     </row>
     <row r="71" spans="1:10" ht="45">
       <c r="A71" s="13" t="s">
@@ -3927,33 +4515,33 @@
         <v>7</v>
       </c>
       <c r="F71" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G71" s="15" t="s">
         <v>278</v>
       </c>
       <c r="H71" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations count="2">
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
-          <x14:formula1 xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-            <xm:f>'Listas y leyendas'!$F$2:$F$9</xm:f>
-          </x14:formula1>
-          <xm:sqref xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">E72:E1048576 C2:C71</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
-          <x14:formula1 xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-            <xm:f>'Listas y leyendas'!$O$2:$O$10</xm:f>
-          </x14:formula1>
-          <xm:sqref xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">H72:H1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
+    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <g2:dataValidations xmlns:g2="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" count="2">
+        <g2:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+          <g2:formula1>
+            <g3:f xmlns:g3="http://schemas.microsoft.com/office/excel/2006/main">'Listas y leyendas'!$F$2:$F$9</g3:f>
+          </g2:formula1>
+          <g3:sqref xmlns:g3="http://schemas.microsoft.com/office/excel/2006/main">E72:E1048576 C2:C71</g3:sqref>
+        </g2:dataValidation>
+        <g2:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+          <g2:formula1>
+            <g3:f xmlns:g3="http://schemas.microsoft.com/office/excel/2006/main">'Listas y leyendas'!$O$2:$O$10</g3:f>
+          </g2:formula1>
+          <g3:sqref xmlns:g3="http://schemas.microsoft.com/office/excel/2006/main">H72:H1048576</g3:sqref>
+        </g2:dataValidation>
+      </g2:dataValidations>
     </ext>
   </extLst>
 </worksheet>
@@ -3963,8 +4551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I1048576"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14062" defaultRowHeight="15"/>
@@ -4015,115 +4603,103 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>288</v>
       </c>
       <c r="C2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D2">
         <v>5</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F2" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="G2" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="G2" s="22" t="s">
-        <v>289</v>
-      </c>
       <c r="H2" t="s">
-        <v>291</v>
-      </c>
-      <c r="I2" t="s">
-        <v>460</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="195">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H3" t="s">
-        <v>295</v>
-      </c>
-      <c r="I3" t="s">
-        <v>460</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="180">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H4" t="s">
-        <v>299</v>
-      </c>
-      <c r="I4" t="s">
-        <v>460</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="270">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D5">
         <v>6</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H5" t="s">
-        <v>303</v>
-      </c>
-      <c r="I5" t="s">
-        <v>460</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="165">
@@ -4131,28 +4707,25 @@
         <v>95</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H6" t="s">
-        <v>307</v>
-      </c>
-      <c r="I6" t="s">
-        <v>460</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="120">
@@ -4160,28 +4733,25 @@
         <v>107</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H7" t="s">
-        <v>311</v>
-      </c>
-      <c r="I7" t="s">
-        <v>460</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="51.75">
@@ -4189,28 +4759,25 @@
         <v>117</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D8">
         <v>5</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H8" t="s">
-        <v>315</v>
-      </c>
-      <c r="I8" t="s">
-        <v>460</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="102.75">
@@ -4218,28 +4785,25 @@
         <v>124</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D9">
         <v>6</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H9" t="s">
-        <v>319</v>
-      </c>
-      <c r="I9" t="s">
-        <v>460</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="315">
@@ -4247,28 +4811,25 @@
         <v>133</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D10">
         <v>6</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H10" t="s">
-        <v>323</v>
-      </c>
-      <c r="I10" t="s">
-        <v>460</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="405">
@@ -4276,28 +4837,25 @@
         <v>140</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D11">
         <v>6</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H11" t="s">
-        <v>327</v>
-      </c>
-      <c r="I11" t="s">
-        <v>460</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="90">
@@ -4305,28 +4863,25 @@
         <v>146</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D12">
         <v>4</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H12" t="s">
-        <v>331</v>
-      </c>
-      <c r="I12" t="s">
-        <v>460</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="102.75">
@@ -4334,28 +4889,25 @@
         <v>152</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D13">
         <v>5</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H13" t="s">
-        <v>335</v>
-      </c>
-      <c r="I13" t="s">
-        <v>460</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="345">
@@ -4363,28 +4915,25 @@
         <v>159</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D14">
         <v>6</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H14" t="s">
-        <v>339</v>
-      </c>
-      <c r="I14" t="s">
-        <v>460</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="150">
@@ -4392,28 +4941,25 @@
         <v>170</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D15">
         <v>6</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H15" t="s">
-        <v>343</v>
-      </c>
-      <c r="I15" t="s">
-        <v>460</v>
+        <v>344</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="77.25">
@@ -4421,28 +4967,25 @@
         <v>187</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H16" t="s">
-        <v>347</v>
-      </c>
-      <c r="I16" t="s">
-        <v>460</v>
+        <v>348</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="75">
@@ -4450,28 +4993,25 @@
         <v>191</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C17" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D17">
         <v>5</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H17" t="s">
-        <v>351</v>
-      </c>
-      <c r="I17" t="s">
-        <v>460</v>
+        <v>352</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="375">
@@ -4479,28 +5019,25 @@
         <v>201</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H18" t="s">
-        <v>355</v>
-      </c>
-      <c r="I18" t="s">
-        <v>460</v>
+        <v>356</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="102.75">
@@ -4508,28 +5045,25 @@
         <v>208</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D19">
         <v>5</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H19" t="s">
-        <v>359</v>
-      </c>
-      <c r="I19" t="s">
-        <v>460</v>
+        <v>360</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="51" customHeight="1">
@@ -4537,28 +5071,25 @@
         <v>220</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H20" t="s">
-        <v>363</v>
-      </c>
-      <c r="I20" t="s">
-        <v>460</v>
+        <v>364</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="115.5">
@@ -4566,28 +5097,25 @@
         <v>234</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D21">
         <v>5</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H21" t="s">
-        <v>367</v>
-      </c>
-      <c r="I21" t="s">
-        <v>460</v>
+        <v>368</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="102.75">
@@ -4595,28 +5123,25 @@
         <v>241</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D22">
         <v>4</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H22" t="s">
-        <v>371</v>
-      </c>
-      <c r="I22" t="s">
-        <v>460</v>
+        <v>372</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="115.5">
@@ -4624,28 +5149,25 @@
         <v>257</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D23">
         <v>7</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H23" t="s">
-        <v>375</v>
-      </c>
-      <c r="I23" t="s">
-        <v>460</v>
+        <v>376</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="64.5">
@@ -4653,28 +5175,25 @@
         <v>269</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D24">
         <v>18</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H24" t="s">
-        <v>379</v>
-      </c>
-      <c r="I24" t="s">
-        <v>460</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="38.25">
@@ -4682,28 +5201,25 @@
         <v>272</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>65</v>
+        <v>288</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D25">
         <v>6</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H25" t="s">
-        <v>382</v>
-      </c>
-      <c r="I25" t="s">
-        <v>460</v>
+        <v>383</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="128.25">
@@ -4711,28 +5227,25 @@
         <v>276</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H26" t="s">
-        <v>386</v>
-      </c>
-      <c r="I26" t="s">
-        <v>460</v>
+        <v>387</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -4753,21 +5266,21 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations count="2">
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
-          <x14:formula1 xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-            <xm:f>'Listas y leyendas'!$F$2:$F$9</xm:f>
-          </x14:formula1>
-          <xm:sqref xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">A2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation allowBlank="1" error="Seleccione un valor de la lista" errorTitle="Entrada inválida" prompt="Seleccione un tipo de empresa" promptTitle="Tipo de empresa" showErrorMessage="1" showInputMessage="1" type="list">
-          <x14:formula1 xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-            <xm:f>'Listas y leyendas'!$B$2:$B$21</xm:f>
-          </x14:formula1>
-          <xm:sqref xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">D2:D1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
+    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <g2:dataValidations xmlns:g2="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" count="2">
+        <g2:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+          <g2:formula1>
+            <g3:f xmlns:g3="http://schemas.microsoft.com/office/excel/2006/main">'Listas y leyendas'!$F$2:$F$9</g3:f>
+          </g2:formula1>
+          <g3:sqref xmlns:g3="http://schemas.microsoft.com/office/excel/2006/main">A2</g3:sqref>
+        </g2:dataValidation>
+        <g2:dataValidation allowBlank="1" error="Seleccione un valor de la lista" errorTitle="Entrada inválida" prompt="Seleccione un tipo de empresa" promptTitle="Tipo de empresa" showErrorMessage="1" showInputMessage="1" type="list">
+          <g2:formula1>
+            <g3:f xmlns:g3="http://schemas.microsoft.com/office/excel/2006/main">'Listas y leyendas'!$B$2:$B$21</g3:f>
+          </g2:formula1>
+          <g3:sqref xmlns:g3="http://schemas.microsoft.com/office/excel/2006/main">D2:D1048576</g3:sqref>
+        </g2:dataValidation>
+      </g2:dataValidations>
     </ext>
   </extLst>
 </worksheet>
@@ -4792,43 +5305,43 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75">
       <c r="A1" s="3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>389</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>388</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75">
       <c r="A2" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -4836,27 +5349,27 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F2" s="2">
         <v>0</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="I2" s="2">
         <v>0</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L2" s="2">
         <v>0</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
@@ -4864,7 +5377,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75">
       <c r="A3" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -4872,27 +5385,27 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F3" s="2">
         <v>1</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L3" s="2">
         <v>1</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O3" s="2">
         <v>1</v>
@@ -4900,7 +5413,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75">
       <c r="A4" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
@@ -4908,27 +5421,27 @@
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F4" s="2">
         <v>2</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="I4" s="2">
         <v>2</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L4" s="2">
         <v>2</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="O4" s="2">
         <v>2</v>
@@ -4936,7 +5449,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75">
       <c r="A5" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B5" s="2">
         <v>3</v>
@@ -4944,27 +5457,27 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F5" s="2">
         <v>3</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="I5" s="2">
         <v>3</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L5" s="2">
         <v>3</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="O5" s="2">
         <v>3</v>
@@ -4972,7 +5485,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75">
       <c r="A6" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B6" s="2">
         <v>4</v>
@@ -4980,27 +5493,27 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F6" s="2">
         <v>4</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="I6" s="2">
         <v>4</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L6" s="2">
         <v>4</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="O6" s="2">
         <v>4</v>
@@ -5008,7 +5521,7 @@
     </row>
     <row r="7" spans="1:15" ht="15.75">
       <c r="A7" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B7" s="2">
         <v>5</v>
@@ -5016,27 +5529,27 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F7" s="2">
         <v>5</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="I7" s="2">
         <v>5</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L7" s="2">
         <v>5</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O7" s="2">
         <v>5</v>
@@ -5044,7 +5557,7 @@
     </row>
     <row r="8" spans="1:15" ht="15.75">
       <c r="A8" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B8" s="2">
         <v>6</v>
@@ -5052,27 +5565,27 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F8" s="2">
         <v>6</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I8" s="2">
         <v>6</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L8" s="2">
         <v>6</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="O8" s="2">
         <v>6</v>
@@ -5080,7 +5593,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75">
       <c r="A9" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B9" s="2">
         <v>7</v>
@@ -5088,27 +5601,27 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F9" s="2">
         <v>7</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="I9" s="2">
         <v>7</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L9" s="2">
         <v>7</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="O9" s="2">
         <v>7</v>
@@ -5116,7 +5629,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75">
       <c r="A10" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B10" s="2">
         <v>8</v>
@@ -5127,20 +5640,20 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="I10" s="2">
         <v>8</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L10" s="2">
         <v>8</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O10" s="2">
         <v>8</v>
@@ -5148,7 +5661,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75">
       <c r="A11" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B11" s="2">
         <v>9</v>
@@ -5159,14 +5672,14 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="I11" s="2">
         <v>9</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L11" s="2">
         <v>9</v>
@@ -5174,7 +5687,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.75">
       <c r="A12" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B12" s="2">
         <v>10</v>
@@ -5185,14 +5698,14 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I12" s="2">
         <v>10</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L12" s="2">
         <v>10</v>
@@ -5200,7 +5713,7 @@
     </row>
     <row r="13" spans="1:15" ht="15.75">
       <c r="A13" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B13" s="2">
         <v>11</v>
@@ -5211,14 +5724,14 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="I13" s="2">
         <v>11</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L13" s="2">
         <v>11</v>
@@ -5226,7 +5739,7 @@
     </row>
     <row r="14" spans="1:15" ht="15.75">
       <c r="A14" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B14" s="2">
         <v>12</v>
@@ -5237,14 +5750,14 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="I14" s="2">
         <v>12</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L14" s="2">
         <v>12</v>
@@ -5252,7 +5765,7 @@
     </row>
     <row r="15" spans="1:15" ht="15.75">
       <c r="A15" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B15" s="2">
         <v>13</v>
@@ -5263,14 +5776,14 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="I15" s="2">
         <v>13</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L15" s="2">
         <v>13</v>
@@ -5278,7 +5791,7 @@
     </row>
     <row r="16" spans="1:15" ht="15.75">
       <c r="A16" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B16" s="2">
         <v>14</v>
@@ -5289,14 +5802,14 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="I16" s="2">
         <v>14</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L16" s="2">
         <v>14</v>
@@ -5304,7 +5817,7 @@
     </row>
     <row r="17" spans="1:15" ht="15.75">
       <c r="A17" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B17" s="2">
         <v>15</v>
@@ -5315,7 +5828,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="I17" s="2">
         <v>15</v>
@@ -5326,7 +5839,7 @@
     </row>
     <row r="18" spans="1:15" ht="15.75">
       <c r="A18" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B18" s="2">
         <v>16</v>
@@ -5344,7 +5857,7 @@
     </row>
     <row r="19" spans="1:15" ht="15.75">
       <c r="A19" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B19" s="2">
         <v>17</v>
@@ -5362,7 +5875,7 @@
     </row>
     <row r="20" spans="1:15" ht="15.75">
       <c r="A20" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B20" s="2">
         <v>18</v>
@@ -5380,7 +5893,7 @@
     </row>
     <row r="21" spans="1:15" ht="15.75">
       <c r="A21" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B21" s="2">
         <v>19</v>

--- a/MyProject2/Content/Excels/Socios.xlsx
+++ b/MyProject2/Content/Excels/Socios.xlsx
@@ -1,27 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23906"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan\Desktop\Secpholand_Win64_0.6.18_EXPERIMENTAL\MyProject2\Content\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5AE1732-3E80-46C6-8241-0AA6F22B0537}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4965" yWindow="3750" windowWidth="28800" windowHeight="15435"/>
+    <workbookView xWindow="4965" yWindow="3750" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registro de usuarios" sheetId="1" r:id="rId1"/>
     <sheet name="Registro de empresas" sheetId="2" r:id="rId2"/>
     <sheet name="Listas y leyendas" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028" concurrentCalc="0"/>
+  <calcPr calcId="191028" calcCompleted="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="461">
   <si>
     <t>Nomre y apellidos</t>
   </si>
@@ -994,7 +1006,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">ALTER TECHNOLOGY</t>
+      <t>ALTER TECHNOLOGY</t>
     </r>
     <r>
       <rPr>
@@ -1003,7 +1015,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> provide a single point of contact for all high reliability electronic component requirements, covering testing, engineering, procurement, storage, quality control, certification and consultancy. They bring services both for new-build equipment and also for managing component obsolescence issues in operational equipment. They have also extended their component capability into specialized equipment testing and EMC certification. The company in many markets including, but not limited to, Aerospace, Security, Transport, Emergency Services, Health &amp; Safety and Automotive.</t>
+      <t> provide a single point of contact for all high reliability electronic component requirements, covering testing, engineering, procurement, storage, quality control, certification and consultancy. They bring services both for new-build equipment and also for managing component obsolescence issues in operational equipment. They have also extended their component capability into specialized equipment testing and EMC certification. The company in many markets including, but not limited to, Aerospace, Security, Transport, Emergency Services, Health &amp; Safety and Automotive.</t>
     </r>
   </si>
   <si>
@@ -1058,7 +1070,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">AOTECH</t>
+      <t>AOTECH</t>
     </r>
     <r>
       <rPr>
@@ -1067,7 +1079,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">is a spin-off company from the University of the Basque Country whose mission is to apply customized photonic solutions to all kind of industrial processes. Currently, the two main areas of activity are aeronautics and food industry. In aeronautics, they are developing a system to monitor structural health monitoring of blades in turbines and compressors. Whereas in their second area, food industry, they are going to apply NIR spectroscopy sensors to different processes. AOTECH plans to expand this activities to other sectors such as energy, automotive, metallurgy chemistry or environment.</t>
+      <t>is a spin-off company from the University of the Basque Country whose mission is to apply customized photonic solutions to all kind of industrial processes. Currently, the two main areas of activity are aeronautics and food industry. In aeronautics, they are developing a system to monitor structural health monitoring of blades in turbines and compressors. Whereas in their second area, food industry, they are going to apply NIR spectroscopy sensors to different processes. AOTECH plans to expand this activities to other sectors such as energy, automotive, metallurgy chemistry or environment.</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1093,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Aragon Photonics Labs.</t>
+      <t>Aragon Photonics Labs.</t>
     </r>
     <r>
       <rPr>
@@ -1090,7 +1102,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">is a manufacturer of advanced optical test &amp; measurement instrumentation and fiber optic distributed sensing equipment based on proprietary patents. With more than 10 years experience and operating in more than 20 countries, Aragon Photonics provides test &amp; measurement products to photonic R&amp;D centers, optical telecom component manufacturers and telecom operators (optical spectrum analysis, passive component characterization, polarization analysis and phase measurement) and distributed acoustic sensing turnkey solutions for transport, energy and security infrastructures.</t>
+      <t>is a manufacturer of advanced optical test &amp; measurement instrumentation and fiber optic distributed sensing equipment based on proprietary patents. With more than 10 years experience and operating in more than 20 countries, Aragon Photonics provides test &amp; measurement products to photonic R&amp;D centers, optical telecom component manufacturers and telecom operators (optical spectrum analysis, passive component characterization, polarization analysis and phase measurement) and distributed acoustic sensing turnkey solutions for transport, energy and security infrastructures.</t>
     </r>
   </si>
   <si>
@@ -1190,7 +1202,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">ICFO</t>
+      <t>ICFO</t>
     </r>
     <r>
       <rPr>
@@ -1199,7 +1211,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">is a research centre devoted to the science and technologies of light with fundamental and applied research programs that address standing issues such as health, renewable energies, information technologies, security and industrial processes, among others.  The centre hosts 400 professionals including researchers and PhD students, and collaborates with a wide range of companies around the world.  In particular, ICFO’s Corporate Liaison Program includes more than 25 national and international industries and corporations. Likewise, the institute actively promotes the creation of spin-off companies by ICFO researchers.</t>
+      <t>is a research centre devoted to the science and technologies of light with fundamental and applied research programs that address standing issues such as health, renewable energies, information technologies, security and industrial processes, among others.  The centre hosts 400 professionals including researchers and PhD students, and collaborates with a wide range of companies around the world.  In particular, ICFO’s Corporate Liaison Program includes more than 25 national and international industries and corporations. Likewise, the institute actively promotes the creation of spin-off companies by ICFO researchers.</t>
     </r>
   </si>
   <si>
@@ -1270,7 +1282,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Tekniker</t>
+      <t>Tekniker</t>
     </r>
     <r>
       <rPr>
@@ -1279,7 +1291,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">is an independent research organization, whose main working focus is to improve manufacturing technologies, that includes all the situations that characterises a product life cycle, from conception and design, until the end of working life. Automotive parts, machine tools, mechanical capital goods, aerospace, chemical and petroleum products and industrial and consumer electronics are the most relevant sectors served by Tekniker.Tekniker likes to define itself as a Mechatronics, Manufacturing Technologies and Microtechnologies centre. It mainly specialises in: designing consumer and industrial products, solving problems relating to friction, wear and lubrication, incorporating information technologies and communications in the plant, high precision, miniaturisation and micro/nanotechnologies.</t>
+      <t>is an independent research organization, whose main working focus is to improve manufacturing technologies, that includes all the situations that characterises a product life cycle, from conception and design, until the end of working life. Automotive parts, machine tools, mechanical capital goods, aerospace, chemical and petroleum products and industrial and consumer electronics are the most relevant sectors served by Tekniker.Tekniker likes to define itself as a Mechatronics, Manufacturing Technologies and Microtechnologies centre. It mainly specialises in: designing consumer and industrial products, solving problems relating to friction, wear and lubrication, incorporating information technologies and communications in the plant, high precision, miniaturisation and micro/nanotechnologies.</t>
     </r>
   </si>
   <si>
@@ -1509,390 +1521,12 @@
   </si>
   <si>
     <t>Administración pública</t>
-  </si>
-  <si>
-    <t>susanamarcosmarcos</t>
-  </si>
-  <si>
-    <t>ZcEqj?`uS_Cm</t>
-  </si>
-  <si>
-    <t>cándidoguerrero</t>
-  </si>
-  <si>
-    <t>UjRnH:?N&gt;nSI</t>
-  </si>
-  <si>
-    <t>enriquegambra</t>
-  </si>
-  <si>
-    <t>RVwa?uZQhH2o</t>
-  </si>
-  <si>
-    <t>Álvarosánchez-lozano</t>
-  </si>
-  <si>
-    <t>57BUOoD0=M93</t>
-  </si>
-  <si>
-    <t>carlosdorronsoro</t>
-  </si>
-  <si>
-    <t>]8Hv=TR]ZA\S</t>
-  </si>
-  <si>
-    <t>patriciablanco</t>
-  </si>
-  <si>
-    <t>1t:`fkSB`c^X</t>
-  </si>
-  <si>
-    <t>ambroisevandewynckèle</t>
-  </si>
-  <si>
-    <t>vMzLVY0hdOQ`</t>
-  </si>
-  <si>
-    <t>pabloromero</t>
-  </si>
-  <si>
-    <t>iNwZ4`Zn6Kfj</t>
-  </si>
-  <si>
-    <t>félixaresblanco</t>
-  </si>
-  <si>
-    <t>WVm&lt;EDhlFhKI</t>
-  </si>
-  <si>
-    <t>daviddiegovallejo</t>
-  </si>
-  <si>
-    <t>R[bDDlVL^uTl</t>
-  </si>
-  <si>
-    <t>ricardodíazpujol</t>
-  </si>
-  <si>
-    <t>W&gt;eG1mAe_bK:</t>
-  </si>
-  <si>
-    <t>edgarllopgozalbo</t>
-  </si>
-  <si>
-    <t>ftj^CA=[8?=w</t>
-  </si>
-  <si>
-    <t>eliseovillanueva</t>
-  </si>
-  <si>
-    <t>m55CNaveKDld</t>
-  </si>
-  <si>
-    <t>sergioarroniz</t>
-  </si>
-  <si>
-    <t>aGl5TkE4cCUE</t>
-  </si>
-  <si>
-    <t>basiliomena</t>
-  </si>
-  <si>
-    <t>\OB&gt;o[woNBnb</t>
-  </si>
-  <si>
-    <t>yagosánchez</t>
-  </si>
-  <si>
-    <t>FulPII`3oI1I</t>
-  </si>
-  <si>
-    <t>juanantoniogilsanza</t>
-  </si>
-  <si>
-    <t>59_dM&gt;tnIm=N</t>
-  </si>
-  <si>
-    <t>sergiogarcía</t>
-  </si>
-  <si>
-    <t>;c^_w9EQK]mc</t>
-  </si>
-  <si>
-    <t>cristinagonzálezrodríguez</t>
-  </si>
-  <si>
-    <t>&lt;:mk]vxanDPc</t>
-  </si>
-  <si>
-    <t>tatianaledesmablanco</t>
-  </si>
-  <si>
-    <t>5ITz\3`aenY&lt;</t>
-  </si>
-  <si>
-    <t>héctorcordal</t>
-  </si>
-  <si>
-    <t>gelVsz:Hu7n_</t>
-  </si>
-  <si>
-    <t>antoniocastelo</t>
-  </si>
-  <si>
-    <t>Esyy;SUX3u&lt;J</t>
-  </si>
-  <si>
-    <t>josemariaalmazan</t>
-  </si>
-  <si>
-    <t>k^3j;gO\yrg4</t>
-  </si>
-  <si>
-    <t>anabelénmartínez</t>
-  </si>
-  <si>
-    <t>K4RfWq9^2?0B</t>
-  </si>
-  <si>
-    <t>alejandrosánchez</t>
-  </si>
-  <si>
-    <t>sM^&gt;iUEC:;ey</t>
-  </si>
-  <si>
-    <t>núriavalls</t>
-  </si>
-  <si>
-    <t>]46&gt;ImGfK7i4</t>
-  </si>
-  <si>
-    <t>martaÁvila</t>
-  </si>
-  <si>
-    <t>_&lt;2j\X;vbKRj</t>
-  </si>
-  <si>
-    <t>jimenagarciaromeu</t>
-  </si>
-  <si>
-    <t>:BWm]O4V3T3t</t>
-  </si>
-  <si>
-    <t>antoniodias</t>
-  </si>
-  <si>
-    <t>BKfA[;HXFVim</t>
-  </si>
-  <si>
-    <t>aitorvillafranca</t>
-  </si>
-  <si>
-    <t>V&lt;7BeB[fntsv</t>
-  </si>
-  <si>
-    <t>miguelsilva-constenla</t>
-  </si>
-  <si>
-    <t>b0E=mc@Nkdyn</t>
-  </si>
-  <si>
-    <t>adriaanlandman</t>
-  </si>
-  <si>
-    <t>7b8iN]]SapzZ</t>
-  </si>
-  <si>
-    <t>demetriolópez</t>
-  </si>
-  <si>
-    <t>vIawqa2PN]Ek</t>
-  </si>
-  <si>
-    <t>marciaarizaga</t>
-  </si>
-  <si>
-    <t>DViGep7l1^FL</t>
-  </si>
-  <si>
-    <t>joseramonvigil</t>
-  </si>
-  <si>
-    <t>SIPjzi2XmEuH</t>
-  </si>
-  <si>
-    <t>marioalfonso</t>
-  </si>
-  <si>
-    <t>VMrXm4G]5]Ko</t>
-  </si>
-  <si>
-    <t>bartolomémoralesvázquez</t>
-  </si>
-  <si>
-    <t>E6ouI]Xm]L?@</t>
-  </si>
-  <si>
-    <t>saracalomarde</t>
-  </si>
-  <si>
-    <t>hfK6Xqi?sEaf</t>
-  </si>
-  <si>
-    <t>ikergarcíaesteban-barcina</t>
-  </si>
-  <si>
-    <t>&gt;2=Aj025aMwz</t>
-  </si>
-  <si>
-    <t>vanesagarcia</t>
-  </si>
-  <si>
-    <t>aai;mW0I?64S</t>
-  </si>
-  <si>
-    <t>asiervillafranca</t>
-  </si>
-  <si>
-    <t>7eHBcG&lt;vtSeC</t>
-  </si>
-  <si>
-    <t>ricardoarias</t>
-  </si>
-  <si>
-    <t>RCMtO9EHSN[I</t>
-  </si>
-  <si>
-    <t>antoniosanchez</t>
-  </si>
-  <si>
-    <t>IXK=nho3lZtF</t>
-  </si>
-  <si>
-    <t>josepmariasanchez</t>
-  </si>
-  <si>
-    <t>Pl`y[7W26Z2s</t>
-  </si>
-  <si>
-    <t>rosaalonso</t>
-  </si>
-  <si>
-    <t>uK@RUvc7NL&lt;l</t>
-  </si>
-  <si>
-    <t>elenamartinez</t>
-  </si>
-  <si>
-    <t>?3dm24EPrYTP</t>
-  </si>
-  <si>
-    <t>rosacastillón</t>
-  </si>
-  <si>
-    <t>djQdtXWZCPH:</t>
-  </si>
-  <si>
-    <t>jaumecastellà</t>
-  </si>
-  <si>
-    <t>XwNtsxhj7rIZ</t>
-  </si>
-  <si>
-    <t>miguelaresrodríguez</t>
-  </si>
-  <si>
-    <t>Uu]916cgR[wt</t>
-  </si>
-  <si>
-    <t>mikelbengoa</t>
-  </si>
-  <si>
-    <t>9MO4zc1We`Pu</t>
-  </si>
-  <si>
-    <t>sandramosqueravazquez</t>
-  </si>
-  <si>
-    <t>66qtRnNtd:_&lt;</t>
-  </si>
-  <si>
-    <t>evafité</t>
-  </si>
-  <si>
-    <t>rHc7[BQ^OegD</t>
-  </si>
-  <si>
-    <t>davidcastrillosanz</t>
-  </si>
-  <si>
-    <t>PCVs:jhJ&gt;fm&gt;</t>
-  </si>
-  <si>
-    <t>victorbernardo</t>
-  </si>
-  <si>
-    <t>UfJ=oX:Rik9E</t>
-  </si>
-  <si>
-    <t>jordisobrinogil</t>
-  </si>
-  <si>
-    <t>YiCxIy57Wc5u</t>
-  </si>
-  <si>
-    <t>sergiferrando</t>
-  </si>
-  <si>
-    <t>2^ryvumwE&gt;j_</t>
-  </si>
-  <si>
-    <t>silviacarrasco</t>
-  </si>
-  <si>
-    <t>`jnP8UG;OHgU</t>
-  </si>
-  <si>
-    <t>martinagiovannella</t>
-  </si>
-  <si>
-    <t>eoI1yArZ8ncJ</t>
-  </si>
-  <si>
-    <t>alfredoongaro</t>
-  </si>
-  <si>
-    <t>cc@t?:l1Ws9Q</t>
-  </si>
-  <si>
-    <t>ramonsansravellat</t>
-  </si>
-  <si>
-    <t>O4n6pdyz[]iJ</t>
-  </si>
-  <si>
-    <t>oscarciordia</t>
-  </si>
-  <si>
-    <t>6QksljWyauyq</t>
-  </si>
-  <si>
-    <t>fernandobarberodíaz</t>
-  </si>
-  <si>
-    <t>xFy@cl\QRRZZ</t>
-  </si>
-  <si>
-    <t>rubenpérez</t>
-  </si>
-  <si>
-    <t>G67P577C_\m]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14">
     <font>
       <sz val="11"/>
@@ -2088,43 +1722,43 @@
   </cellStyleXfs>
   <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" applyFill="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" applyFill="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="2" applyFill="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyFill="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFill="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFill="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFill="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFill="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFill="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFill="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFill="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFill="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFill="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFill="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2134,7 +1768,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFill="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2160,19 +1794,22 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
+    <cellStyle name="Bueno" xfId="3" builtinId="26"/>
+    <cellStyle name="Hipervínculo" xfId="5" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Incorrecto" xfId="6" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Hyperlink" xfId="1"/>
     <cellStyle name="Salida" xfId="2" builtinId="21"/>
-    <cellStyle name="Bueno" xfId="3" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
-    <cellStyle name="Hipervínculo" xfId="5" builtinId="8"/>
-    <cellStyle name="Incorrecto" xfId="6" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2440,14 +2077,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14062" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
@@ -2519,12 +2156,6 @@
       <c r="H2" s="11">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
-        <v>461</v>
-      </c>
-      <c r="J2" t="s">
-        <v>462</v>
-      </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="13" t="s">
@@ -2551,12 +2182,6 @@
       <c r="H3" s="11">
         <v>1</v>
       </c>
-      <c r="I3" t="s">
-        <v>463</v>
-      </c>
-      <c r="J3" t="s">
-        <v>464</v>
-      </c>
     </row>
     <row r="4" spans="1:10" ht="30">
       <c r="A4" s="13" t="s">
@@ -2583,12 +2208,6 @@
       <c r="H4" s="11">
         <v>1</v>
       </c>
-      <c r="I4" t="s">
-        <v>465</v>
-      </c>
-      <c r="J4" t="s">
-        <v>466</v>
-      </c>
     </row>
     <row r="5" spans="1:10" ht="45">
       <c r="A5" s="13" t="s">
@@ -2615,12 +2234,6 @@
       <c r="H5" s="11">
         <v>1</v>
       </c>
-      <c r="I5" t="s">
-        <v>467</v>
-      </c>
-      <c r="J5" t="s">
-        <v>468</v>
-      </c>
     </row>
     <row r="6" spans="1:10" ht="30">
       <c r="A6" s="13" t="s">
@@ -2647,12 +2260,6 @@
       <c r="H6" s="11">
         <v>1</v>
       </c>
-      <c r="I6" t="s">
-        <v>469</v>
-      </c>
-      <c r="J6" t="s">
-        <v>470</v>
-      </c>
     </row>
     <row r="7" spans="1:10" ht="45">
       <c r="A7" s="13" t="s">
@@ -2679,12 +2286,6 @@
       <c r="H7" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I7" t="s">
-        <v>471</v>
-      </c>
-      <c r="J7" t="s">
-        <v>472</v>
-      </c>
     </row>
     <row r="8" spans="1:10" ht="45">
       <c r="A8" s="13" t="s">
@@ -2711,12 +2312,6 @@
       <c r="H8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I8" t="s">
-        <v>473</v>
-      </c>
-      <c r="J8" t="s">
-        <v>474</v>
-      </c>
     </row>
     <row r="9" spans="1:10" ht="30">
       <c r="A9" s="13" t="s">
@@ -2743,12 +2338,6 @@
       <c r="H9" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I9" t="s">
-        <v>475</v>
-      </c>
-      <c r="J9" t="s">
-        <v>476</v>
-      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="13" t="s">
@@ -2775,12 +2364,6 @@
       <c r="H10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I10" t="s">
-        <v>477</v>
-      </c>
-      <c r="J10" t="s">
-        <v>478</v>
-      </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="13" t="s">
@@ -2807,12 +2390,6 @@
       <c r="H11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I11" t="s">
-        <v>479</v>
-      </c>
-      <c r="J11" t="s">
-        <v>480</v>
-      </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="13" t="s">
@@ -2839,12 +2416,6 @@
       <c r="H12" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I12" t="s">
-        <v>481</v>
-      </c>
-      <c r="J12" t="s">
-        <v>482</v>
-      </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="13" t="s">
@@ -2871,12 +2442,6 @@
       <c r="H13" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I13" t="s">
-        <v>483</v>
-      </c>
-      <c r="J13" t="s">
-        <v>484</v>
-      </c>
     </row>
     <row r="14" spans="1:10" ht="60">
       <c r="A14" s="13" t="s">
@@ -2903,12 +2468,6 @@
       <c r="H14" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I14" t="s">
-        <v>485</v>
-      </c>
-      <c r="J14" t="s">
-        <v>486</v>
-      </c>
     </row>
     <row r="15" spans="1:10" ht="90">
       <c r="A15" s="13" t="s">
@@ -2929,12 +2488,6 @@
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
-      <c r="I15" t="s">
-        <v>487</v>
-      </c>
-      <c r="J15" t="s">
-        <v>488</v>
-      </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="13" t="s">
@@ -2955,14 +2508,8 @@
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
-      <c r="I16" t="s">
-        <v>489</v>
-      </c>
-      <c r="J16" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="75">
+    </row>
+    <row r="17" spans="1:8" ht="75">
       <c r="A17" s="13" t="s">
         <v>69</v>
       </c>
@@ -2981,14 +2528,8 @@
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
-      <c r="I17" t="s">
-        <v>491</v>
-      </c>
-      <c r="J17" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="45">
+    </row>
+    <row r="18" spans="1:8" ht="45">
       <c r="A18" s="13" t="s">
         <v>72</v>
       </c>
@@ -3007,14 +2548,8 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
-      <c r="I18" t="s">
-        <v>493</v>
-      </c>
-      <c r="J18" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="60">
+    </row>
+    <row r="19" spans="1:8" ht="60">
       <c r="A19" s="13" t="s">
         <v>75</v>
       </c>
@@ -3033,14 +2568,8 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
-      <c r="I19" t="s">
-        <v>495</v>
-      </c>
-      <c r="J19" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="45">
+    </row>
+    <row r="20" spans="1:8" ht="45">
       <c r="A20" s="13" t="s">
         <v>78</v>
       </c>
@@ -3059,14 +2588,8 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
-      <c r="I20" t="s">
-        <v>497</v>
-      </c>
-      <c r="J20" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="30">
+    </row>
+    <row r="21" spans="1:8" ht="30">
       <c r="A21" s="13" t="s">
         <v>81</v>
       </c>
@@ -3085,14 +2608,8 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
-      <c r="I21" t="s">
-        <v>499</v>
-      </c>
-      <c r="J21" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="30">
+    </row>
+    <row r="22" spans="1:8" ht="30">
       <c r="A22" s="13" t="s">
         <v>84</v>
       </c>
@@ -3111,14 +2628,8 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
-      <c r="I22" t="s">
-        <v>501</v>
-      </c>
-      <c r="J22" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="13" t="s">
         <v>87</v>
       </c>
@@ -3137,14 +2648,8 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
-      <c r="I23" t="s">
-        <v>503</v>
-      </c>
-      <c r="J23" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="30">
+    </row>
+    <row r="24" spans="1:8" ht="30">
       <c r="A24" s="13" t="s">
         <v>90</v>
       </c>
@@ -3163,14 +2668,8 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
-      <c r="I24" t="s">
-        <v>505</v>
-      </c>
-      <c r="J24" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="45">
+    </row>
+    <row r="25" spans="1:8" ht="45">
       <c r="A25" s="13" t="s">
         <v>93</v>
       </c>
@@ -3189,14 +2688,8 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
-      <c r="I25" t="s">
-        <v>507</v>
-      </c>
-      <c r="J25" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="30">
+    </row>
+    <row r="26" spans="1:8" ht="30">
       <c r="A26" s="13" t="s">
         <v>97</v>
       </c>
@@ -3215,14 +2708,8 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
-      <c r="I26" t="s">
-        <v>509</v>
-      </c>
-      <c r="J26" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="30">
+    </row>
+    <row r="27" spans="1:8" ht="30">
       <c r="A27" s="13" t="s">
         <v>100</v>
       </c>
@@ -3241,14 +2728,8 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
-      <c r="I27" t="s">
-        <v>511</v>
-      </c>
-      <c r="J27" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="30">
+    </row>
+    <row r="28" spans="1:8" ht="30">
       <c r="A28" s="13" t="s">
         <v>103</v>
       </c>
@@ -3267,14 +2748,8 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
-      <c r="I28" t="s">
-        <v>513</v>
-      </c>
-      <c r="J28" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="30">
+    </row>
+    <row r="29" spans="1:8" ht="30">
       <c r="A29" s="13" t="s">
         <v>106</v>
       </c>
@@ -3293,14 +2768,8 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
-      <c r="I29" t="s">
-        <v>515</v>
-      </c>
-      <c r="J29" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="30">
+    </row>
+    <row r="30" spans="1:8" ht="30">
       <c r="A30" s="13" t="s">
         <v>109</v>
       </c>
@@ -3319,14 +2788,8 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
-      <c r="I30" t="s">
-        <v>517</v>
-      </c>
-      <c r="J30" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="13" t="s">
         <v>112</v>
       </c>
@@ -3345,14 +2808,8 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
-      <c r="I31" t="s">
-        <v>519</v>
-      </c>
-      <c r="J31" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="45">
+    </row>
+    <row r="32" spans="1:8" ht="45">
       <c r="A32" s="13" t="s">
         <v>115</v>
       </c>
@@ -3371,14 +2828,8 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
-      <c r="I32" t="s">
-        <v>521</v>
-      </c>
-      <c r="J32" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="45">
+    </row>
+    <row r="33" spans="1:8" ht="45">
       <c r="A33" s="13" t="s">
         <v>119</v>
       </c>
@@ -3397,14 +2848,8 @@
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
-      <c r="I33" t="s">
-        <v>523</v>
-      </c>
-      <c r="J33" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="30">
+    </row>
+    <row r="34" spans="1:8" ht="30">
       <c r="A34" s="13" t="s">
         <v>122</v>
       </c>
@@ -3429,14 +2874,8 @@
       <c r="H34" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="I34" t="s">
-        <v>525</v>
-      </c>
-      <c r="J34" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="30">
+    </row>
+    <row r="35" spans="1:8" ht="30">
       <c r="A35" s="13" t="s">
         <v>129</v>
       </c>
@@ -3461,14 +2900,8 @@
       <c r="H35" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="I35" t="s">
-        <v>527</v>
-      </c>
-      <c r="J35" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="30">
+    </row>
+    <row r="36" spans="1:8" ht="30">
       <c r="A36" s="13" t="s">
         <v>132</v>
       </c>
@@ -3487,14 +2920,8 @@
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
-      <c r="I36" t="s">
-        <v>529</v>
-      </c>
-      <c r="J36" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="30">
+    </row>
+    <row r="37" spans="1:8" ht="30">
       <c r="A37" s="13" t="s">
         <v>135</v>
       </c>
@@ -3513,14 +2940,8 @@
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
-      <c r="I37" t="s">
-        <v>531</v>
-      </c>
-      <c r="J37" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="30">
+    </row>
+    <row r="38" spans="1:8" ht="30">
       <c r="A38" s="13" t="s">
         <v>138</v>
       </c>
@@ -3539,14 +2960,8 @@
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
-      <c r="I38" t="s">
-        <v>533</v>
-      </c>
-      <c r="J38" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="30">
+    </row>
+    <row r="39" spans="1:8" ht="30">
       <c r="A39" s="13" t="s">
         <v>142</v>
       </c>
@@ -3565,14 +2980,8 @@
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
-      <c r="I39" t="s">
-        <v>535</v>
-      </c>
-      <c r="J39" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="13" t="s">
         <v>145</v>
       </c>
@@ -3591,14 +3000,8 @@
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
-      <c r="I40" t="s">
-        <v>537</v>
-      </c>
-      <c r="J40" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="13" t="s">
         <v>148</v>
       </c>
@@ -3617,14 +3020,8 @@
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
-      <c r="I41" t="s">
-        <v>539</v>
-      </c>
-      <c r="J41" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="30">
+    </row>
+    <row r="42" spans="1:8" ht="30">
       <c r="A42" s="13" t="s">
         <v>151</v>
       </c>
@@ -3643,14 +3040,8 @@
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
-      <c r="I42" t="s">
-        <v>541</v>
-      </c>
-      <c r="J42" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="30">
+    </row>
+    <row r="43" spans="1:8" ht="30">
       <c r="A43" s="13" t="s">
         <v>154</v>
       </c>
@@ -3669,14 +3060,8 @@
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
-      <c r="I43" t="s">
-        <v>543</v>
-      </c>
-      <c r="J43" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="13" t="s">
         <v>157</v>
       </c>
@@ -3701,14 +3086,8 @@
       <c r="H44" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="I44" t="s">
-        <v>545</v>
-      </c>
-      <c r="J44" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="13" t="s">
         <v>164</v>
       </c>
@@ -3733,14 +3112,8 @@
       <c r="H45" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="I45" t="s">
-        <v>547</v>
-      </c>
-      <c r="J45" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="30">
+    </row>
+    <row r="46" spans="1:8" ht="30">
       <c r="A46" s="13" t="s">
         <v>167</v>
       </c>
@@ -3765,14 +3138,8 @@
       <c r="H46" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="I46" t="s">
-        <v>549</v>
-      </c>
-      <c r="J46" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="30">
+    </row>
+    <row r="47" spans="1:8" ht="30">
       <c r="A47" s="13" t="s">
         <v>169</v>
       </c>
@@ -3797,14 +3164,8 @@
       <c r="H47" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="I47" t="s">
-        <v>551</v>
-      </c>
-      <c r="J47" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="30">
+    </row>
+    <row r="48" spans="1:8" ht="30">
       <c r="A48" s="13" t="s">
         <v>175</v>
       </c>
@@ -3829,14 +3190,8 @@
       <c r="H48" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="I48" t="s">
-        <v>553</v>
-      </c>
-      <c r="J48" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="13" t="s">
         <v>178</v>
       </c>
@@ -3861,14 +3216,8 @@
       <c r="H49" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="I49" t="s">
-        <v>555</v>
-      </c>
-      <c r="J49" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="60">
+    </row>
+    <row r="50" spans="1:8" ht="60">
       <c r="A50" s="13" t="s">
         <v>185</v>
       </c>
@@ -3893,14 +3242,8 @@
       <c r="H50" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="I50" t="s">
-        <v>557</v>
-      </c>
-      <c r="J50" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="60">
+    </row>
+    <row r="51" spans="1:8" ht="60">
       <c r="A51" s="13" t="s">
         <v>189</v>
       </c>
@@ -3925,14 +3268,8 @@
       <c r="H51" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="I51" t="s">
-        <v>559</v>
-      </c>
-      <c r="J51" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="60">
+    </row>
+    <row r="52" spans="1:8" ht="60">
       <c r="A52" s="13" t="s">
         <v>196</v>
       </c>
@@ -3957,14 +3294,8 @@
       <c r="H52" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="I52" t="s">
-        <v>561</v>
-      </c>
-      <c r="J52" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="105">
+    </row>
+    <row r="53" spans="1:8" ht="105">
       <c r="A53" s="13" t="s">
         <v>199</v>
       </c>
@@ -3989,14 +3320,8 @@
       <c r="H53" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="I53" t="s">
-        <v>563</v>
-      </c>
-      <c r="J53" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="30">
+    </row>
+    <row r="54" spans="1:8" ht="30">
       <c r="A54" s="13" t="s">
         <v>206</v>
       </c>
@@ -4021,14 +3346,8 @@
       <c r="H54" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="I54" t="s">
-        <v>565</v>
-      </c>
-      <c r="J54" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="30">
+    </row>
+    <row r="55" spans="1:8" ht="30">
       <c r="A55" s="13" t="s">
         <v>213</v>
       </c>
@@ -4053,14 +3372,8 @@
       <c r="H55" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="I55" t="s">
-        <v>567</v>
-      </c>
-      <c r="J55" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="26.25">
+    </row>
+    <row r="56" spans="1:8" ht="26.25">
       <c r="A56" s="13" t="s">
         <v>216</v>
       </c>
@@ -4085,14 +3398,8 @@
       <c r="H56" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="I56" t="s">
-        <v>569</v>
-      </c>
-      <c r="J56" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="30">
+    </row>
+    <row r="57" spans="1:8" ht="30">
       <c r="A57" s="13" t="s">
         <v>218</v>
       </c>
@@ -4117,14 +3424,8 @@
       <c r="H57" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="I57" t="s">
-        <v>571</v>
-      </c>
-      <c r="J57" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="13" t="s">
         <v>223</v>
       </c>
@@ -4149,14 +3450,8 @@
       <c r="H58" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="I58" t="s">
-        <v>573</v>
-      </c>
-      <c r="J58" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="30">
+    </row>
+    <row r="59" spans="1:8" ht="30">
       <c r="A59" s="13" t="s">
         <v>226</v>
       </c>
@@ -4181,14 +3476,8 @@
       <c r="H59" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="I59" t="s">
-        <v>575</v>
-      </c>
-      <c r="J59" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="13" t="s">
         <v>229</v>
       </c>
@@ -4213,14 +3502,8 @@
       <c r="H60" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="I60" t="s">
-        <v>577</v>
-      </c>
-      <c r="J60" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="13" t="s">
         <v>232</v>
       </c>
@@ -4245,14 +3528,8 @@
       <c r="H61" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="I61" t="s">
-        <v>579</v>
-      </c>
-      <c r="J61" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="60">
+    </row>
+    <row r="62" spans="1:8" ht="60">
       <c r="A62" s="13" t="s">
         <v>239</v>
       </c>
@@ -4277,14 +3554,8 @@
       <c r="H62" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="I62" t="s">
-        <v>581</v>
-      </c>
-      <c r="J62" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="45">
+    </row>
+    <row r="63" spans="1:8" ht="45">
       <c r="A63" s="13" t="s">
         <v>245</v>
       </c>
@@ -4309,14 +3580,8 @@
       <c r="H63" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="I63" t="s">
-        <v>583</v>
-      </c>
-      <c r="J63" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="13" t="s">
         <v>248</v>
       </c>
@@ -4341,14 +3606,8 @@
       <c r="H64" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="I64" t="s">
-        <v>585</v>
-      </c>
-      <c r="J64" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="13" t="s">
         <v>250</v>
       </c>
@@ -4374,7 +3633,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="45">
+    <row r="66" spans="1:8" ht="45">
       <c r="A66" s="13" t="s">
         <v>253</v>
       </c>
@@ -4400,7 +3659,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="30">
+    <row r="67" spans="1:8" ht="30">
       <c r="A67" s="13" t="s">
         <v>256</v>
       </c>
@@ -4426,7 +3685,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="30">
+    <row r="68" spans="1:8" ht="30">
       <c r="A68" s="13" t="s">
         <v>262</v>
       </c>
@@ -4452,7 +3711,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="30">
+    <row r="69" spans="1:8" ht="30">
       <c r="A69" s="13" t="s">
         <v>268</v>
       </c>
@@ -4478,7 +3737,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:8">
       <c r="A70" s="13" t="s">
         <v>271</v>
       </c>
@@ -4498,7 +3757,7 @@
       <c r="G70" s="11"/>
       <c r="H70" s="11"/>
     </row>
-    <row r="71" spans="1:10" ht="45">
+    <row r="71" spans="1:8" ht="45">
       <c r="A71" s="13" t="s">
         <v>274</v>
       </c>
@@ -4527,35 +3786,35 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
-    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <g2:dataValidations xmlns:g2="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" count="2">
-        <g2:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
-          <g2:formula1>
-            <g3:f xmlns:g3="http://schemas.microsoft.com/office/excel/2006/main">'Listas y leyendas'!$F$2:$F$9</g3:f>
-          </g2:formula1>
-          <g3:sqref xmlns:g3="http://schemas.microsoft.com/office/excel/2006/main">E72:E1048576 C2:C71</g3:sqref>
-        </g2:dataValidation>
-        <g2:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
-          <g2:formula1>
-            <g3:f xmlns:g3="http://schemas.microsoft.com/office/excel/2006/main">'Listas y leyendas'!$O$2:$O$10</g3:f>
-          </g2:formula1>
-          <g3:sqref xmlns:g3="http://schemas.microsoft.com/office/excel/2006/main">H72:H1048576</g3:sqref>
-        </g2:dataValidation>
-      </g2:dataValidations>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+          <x14:formula1>
+            <xm:f>'Listas y leyendas'!$F$2:$F$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>E72:E1048576 C2:C71</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+          <x14:formula1>
+            <xm:f>'Listas y leyendas'!$O$2:$O$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>H72:H1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
     </ext>
   </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14062" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="2" max="2" width="76.5703125" customWidth="1"/>
@@ -4988,7 +4247,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="75">
+    <row r="17" spans="1:8" ht="75">
       <c r="A17" t="s">
         <v>191</v>
       </c>
@@ -5014,7 +4273,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="375">
+    <row r="18" spans="1:8" ht="375">
       <c r="A18" t="s">
         <v>201</v>
       </c>
@@ -5040,7 +4299,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="102.75">
+    <row r="19" spans="1:8" ht="102.75">
       <c r="A19" t="s">
         <v>208</v>
       </c>
@@ -5066,7 +4325,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="51" customHeight="1">
+    <row r="20" spans="1:8" ht="51" customHeight="1">
       <c r="A20" t="s">
         <v>220</v>
       </c>
@@ -5092,7 +4351,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="115.5">
+    <row r="21" spans="1:8" ht="115.5">
       <c r="A21" t="s">
         <v>234</v>
       </c>
@@ -5118,7 +4377,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="102.75">
+    <row r="22" spans="1:8" ht="102.75">
       <c r="A22" t="s">
         <v>241</v>
       </c>
@@ -5144,7 +4403,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="115.5">
+    <row r="23" spans="1:8" ht="115.5">
       <c r="A23" t="s">
         <v>257</v>
       </c>
@@ -5170,7 +4429,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="64.5">
+    <row r="24" spans="1:8" ht="64.5">
       <c r="A24" t="s">
         <v>269</v>
       </c>
@@ -5196,7 +4455,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="38.25">
+    <row r="25" spans="1:8" ht="38.25">
       <c r="A25" t="s">
         <v>272</v>
       </c>
@@ -5222,7 +4481,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="128.25">
+    <row r="26" spans="1:8" ht="128.25">
       <c r="A26" t="s">
         <v>276</v>
       </c>
@@ -5248,53 +4507,53 @@
         <v>387</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:8">
       <c r="B27" s="20"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:8">
       <c r="B28" s="21"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:8">
       <c r="B29" s="21"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:8">
       <c r="B30" s="20"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:8">
       <c r="B31" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
-    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <g2:dataValidations xmlns:g2="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" count="2">
-        <g2:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
-          <g2:formula1>
-            <g3:f xmlns:g3="http://schemas.microsoft.com/office/excel/2006/main">'Listas y leyendas'!$F$2:$F$9</g3:f>
-          </g2:formula1>
-          <g3:sqref xmlns:g3="http://schemas.microsoft.com/office/excel/2006/main">A2</g3:sqref>
-        </g2:dataValidation>
-        <g2:dataValidation allowBlank="1" error="Seleccione un valor de la lista" errorTitle="Entrada inválida" prompt="Seleccione un tipo de empresa" promptTitle="Tipo de empresa" showErrorMessage="1" showInputMessage="1" type="list">
-          <g2:formula1>
-            <g3:f xmlns:g3="http://schemas.microsoft.com/office/excel/2006/main">'Listas y leyendas'!$B$2:$B$21</g3:f>
-          </g2:formula1>
-          <g3:sqref xmlns:g3="http://schemas.microsoft.com/office/excel/2006/main">D2:D1048576</g3:sqref>
-        </g2:dataValidation>
-      </g2:dataValidations>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+          <x14:formula1>
+            <xm:f>'Listas y leyendas'!$F$2:$F$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Entrada inválida" error="Seleccione un valor de la lista" promptTitle="Tipo de empresa" prompt="Seleccione un tipo de empresa" xr:uid="{00000000-0002-0000-0100-000001000000}">
+          <x14:formula1>
+            <xm:f>'Listas y leyendas'!$B$2:$B$21</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
     </ext>
   </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14062" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="39.5703125" customWidth="1"/>
     <col min="5" max="5" width="30.85546875" customWidth="1"/>
@@ -5815,7 +5074,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75">
+    <row r="17" spans="1:12" ht="15.75">
       <c r="A17" s="2" t="s">
         <v>455</v>
       </c>
@@ -5837,7 +5096,7 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:15" ht="15.75">
+    <row r="18" spans="1:12" ht="15.75">
       <c r="A18" s="2" t="s">
         <v>457</v>
       </c>
@@ -5855,7 +5114,7 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:15" ht="15.75">
+    <row r="19" spans="1:12" ht="15.75">
       <c r="A19" s="2" t="s">
         <v>458</v>
       </c>
@@ -5873,7 +5132,7 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:15" ht="15.75">
+    <row r="20" spans="1:12" ht="15.75">
       <c r="A20" s="2" t="s">
         <v>459</v>
       </c>
@@ -5891,7 +5150,7 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:15" ht="15.75">
+    <row r="21" spans="1:12" ht="15.75">
       <c r="A21" s="2" t="s">
         <v>460</v>
       </c>

--- a/MyProject2/Content/Excels/Socios.xlsx
+++ b/MyProject2/Content/Excels/Socios.xlsx
@@ -1,39 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23906"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23911"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan\Desktop\Secpholand_Win64_0.6.18_EXPERIMENTAL\MyProject2\Content\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5AE1732-3E80-46C6-8241-0AA6F22B0537}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4965" yWindow="3750" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4965" yWindow="3750" windowWidth="28800" windowHeight="15435"/>
   </bookViews>
   <sheets>
     <sheet name="Registro de usuarios" sheetId="1" r:id="rId1"/>
     <sheet name="Registro de empresas" sheetId="2" r:id="rId2"/>
     <sheet name="Listas y leyendas" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191028" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="604">
   <si>
     <t>Nomre y apellidos</t>
   </si>
@@ -59,7 +47,10 @@
     <t>Ambitos</t>
   </si>
   <si>
-    <t>Username Generado</t>
+    <t>Genero</t>
+  </si>
+  <si>
+    <t>Username</t>
   </si>
   <si>
     <t>PW Generado</t>
@@ -83,6 +74,12 @@
     <t>0+7+14</t>
   </si>
   <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>susanamarcosmarcos1</t>
+  </si>
+  <si>
     <t>Cándido Guerrero</t>
   </si>
   <si>
@@ -95,6 +92,12 @@
     <t>cguerrero@2eyesvision.com</t>
   </si>
   <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>susanamarcosmarcos2</t>
+  </si>
+  <si>
     <t>Enrique Gambra</t>
   </si>
   <si>
@@ -104,6 +107,9 @@
     <t>egambra@2eyesvision.com</t>
   </si>
   <si>
+    <t>susanamarcosmarcos3</t>
+  </si>
+  <si>
     <t>Álvaro Sánchez-Lozano</t>
   </si>
   <si>
@@ -113,6 +119,9 @@
     <t>alvaro@2eyesvision.com</t>
   </si>
   <si>
+    <t>susanamarcosmarcos4</t>
+  </si>
+  <si>
     <t>Carlos Dorronsoro</t>
   </si>
   <si>
@@ -122,6 +131,9 @@
     <t>cdorronsoro@2eyesvision.com</t>
   </si>
   <si>
+    <t>susanamarcosmarcos5</t>
+  </si>
+  <si>
     <t>Patricia Blanco</t>
   </si>
   <si>
@@ -143,6 +155,9 @@
     <t>0+1+4+5+6</t>
   </si>
   <si>
+    <t>susanamarcosmarcos6</t>
+  </si>
+  <si>
     <t>Ambroise Vandewynckèle</t>
   </si>
   <si>
@@ -152,6 +167,9 @@
     <t>ambroise@aimen.es</t>
   </si>
   <si>
+    <t>susanamarcosmarcos7</t>
+  </si>
+  <si>
     <t>Pablo Romero</t>
   </si>
   <si>
@@ -161,6 +179,9 @@
     <t>promero@aimen.es</t>
   </si>
   <si>
+    <t>susanamarcosmarcos8</t>
+  </si>
+  <si>
     <t>Félix Ares Blanco</t>
   </si>
   <si>
@@ -173,6 +194,9 @@
     <t>1+4</t>
   </si>
   <si>
+    <t>susanamarcosmarcos9</t>
+  </si>
+  <si>
     <t>David Diego Vallejo</t>
   </si>
   <si>
@@ -182,6 +206,9 @@
     <t>david.diego@aimen.es</t>
   </si>
   <si>
+    <t>susanamarcosmarcos10</t>
+  </si>
+  <si>
     <t>Ricardo Díaz Pujol</t>
   </si>
   <si>
@@ -203,6 +230,9 @@
     <t>0+1+3+4+7</t>
   </si>
   <si>
+    <t>susanamarcosmarcos11</t>
+  </si>
+  <si>
     <t>Edgar Llop Gozalbo</t>
   </si>
   <si>
@@ -212,6 +242,9 @@
     <t>ellop@ainia.es</t>
   </si>
   <si>
+    <t>susanamarcosmarcos12</t>
+  </si>
+  <si>
     <t>Eliseo Villanueva</t>
   </si>
   <si>
@@ -221,6 +254,9 @@
     <t>evillanueva@ainia.es</t>
   </si>
   <si>
+    <t>susanamarcosmarcos13</t>
+  </si>
+  <si>
     <t>Sergio Arroniz</t>
   </si>
   <si>
@@ -233,6 +269,9 @@
     <t>sarroniz@grupoalava.com</t>
   </si>
   <si>
+    <t>susanamarcosmarcos14</t>
+  </si>
+  <si>
     <t>Basilio Mena</t>
   </si>
   <si>
@@ -242,6 +281,9 @@
     <t>bmena@grupoalava.com</t>
   </si>
   <si>
+    <t>susanamarcosmarcos15</t>
+  </si>
+  <si>
     <t>Yago Sánchez</t>
   </si>
   <si>
@@ -251,6 +293,9 @@
     <t>ysanchez@grupoalava.com</t>
   </si>
   <si>
+    <t>susanamarcosmarcos16</t>
+  </si>
+  <si>
     <t>Juan Antonio Gil Sanza</t>
   </si>
   <si>
@@ -260,6 +305,9 @@
     <t>jagil@grupoalava.com</t>
   </si>
   <si>
+    <t>susanamarcosmarcos17</t>
+  </si>
+  <si>
     <t>Sergio García</t>
   </si>
   <si>
@@ -269,6 +317,9 @@
     <t>sgfernandez@grupoalava.com</t>
   </si>
   <si>
+    <t>susanamarcosmarcos18</t>
+  </si>
+  <si>
     <t>Cristina González Rodríguez</t>
   </si>
   <si>
@@ -278,6 +329,9 @@
     <t>cgonzalez@grupoalava.com</t>
   </si>
   <si>
+    <t>susanamarcosmarcos19</t>
+  </si>
+  <si>
     <t>Tatiana Ledesma Blanco</t>
   </si>
   <si>
@@ -287,6 +341,9 @@
     <t>tledesma@grupoalava.com</t>
   </si>
   <si>
+    <t>susanamarcosmarcos20</t>
+  </si>
+  <si>
     <t>Héctor Cordal</t>
   </si>
   <si>
@@ -296,6 +353,9 @@
     <t>hcordal@grupoalava.com</t>
   </si>
   <si>
+    <t>susanamarcosmarcos21</t>
+  </si>
+  <si>
     <t>Antonio Castelo</t>
   </si>
   <si>
@@ -305,6 +365,9 @@
     <t>acastelo@grupoalava.com</t>
   </si>
   <si>
+    <t>susanamarcosmarcos22</t>
+  </si>
+  <si>
     <t>Jose Maria Almazan</t>
   </si>
   <si>
@@ -314,6 +377,9 @@
     <t>jmalmazan@grupoalava.com</t>
   </si>
   <si>
+    <t>susanamarcosmarcos23</t>
+  </si>
+  <si>
     <t>Ana Belén Martínez</t>
   </si>
   <si>
@@ -326,6 +392,9 @@
     <t>amartinez@cells.es</t>
   </si>
   <si>
+    <t>susanamarcosmarcos24</t>
+  </si>
+  <si>
     <t>Alejandro Sánchez</t>
   </si>
   <si>
@@ -335,6 +404,9 @@
     <t>asanchez@cells.es</t>
   </si>
   <si>
+    <t>susanamarcosmarcos25</t>
+  </si>
+  <si>
     <t>Núria Valls</t>
   </si>
   <si>
@@ -344,6 +416,9 @@
     <t>nvalls@cells.es</t>
   </si>
   <si>
+    <t>susanamarcosmarcos26</t>
+  </si>
+  <si>
     <t>Marta Ávila</t>
   </si>
   <si>
@@ -353,6 +428,9 @@
     <t>mavila@cells.es</t>
   </si>
   <si>
+    <t>susanamarcosmarcos27</t>
+  </si>
+  <si>
     <t>Jimena Garcia Romeu</t>
   </si>
   <si>
@@ -362,6 +440,9 @@
     <t>jimena.garciaromeu@alcyonphotonics.com</t>
   </si>
   <si>
+    <t>susanamarcosmarcos28</t>
+  </si>
+  <si>
     <t>Antonio Dias</t>
   </si>
   <si>
@@ -371,6 +452,9 @@
     <t>antonio.dias@alcyonphotonics.com</t>
   </si>
   <si>
+    <t>susanamarcosmarcos29</t>
+  </si>
+  <si>
     <t>Aitor Villafranca</t>
   </si>
   <si>
@@ -380,6 +464,9 @@
     <t>a.villafranca@csic.es</t>
   </si>
   <si>
+    <t>susanamarcosmarcos30</t>
+  </si>
+  <si>
     <t>Miguel  Silva-Constenla</t>
   </si>
   <si>
@@ -392,6 +479,9 @@
     <t>miguel@allread.ai</t>
   </si>
   <si>
+    <t>susanamarcosmarcos31</t>
+  </si>
+  <si>
     <t>Adriaan  Landman</t>
   </si>
   <si>
@@ -401,6 +491,9 @@
     <t>adriaan@allread.ai</t>
   </si>
   <si>
+    <t>susanamarcosmarcos32</t>
+  </si>
+  <si>
     <t>Demetrio López</t>
   </si>
   <si>
@@ -422,6 +515,9 @@
     <t>0+1+4+5+6+8</t>
   </si>
   <si>
+    <t>susanamarcosmarcos33</t>
+  </si>
+  <si>
     <t>Marcia Arizaga</t>
   </si>
   <si>
@@ -431,6 +527,9 @@
     <t>marcia.arizaga@altertechnology.com</t>
   </si>
   <si>
+    <t>susanamarcosmarcos34</t>
+  </si>
+  <si>
     <t>Jose Ramon Vigil</t>
   </si>
   <si>
@@ -440,6 +539,9 @@
     <t>jvigil@alteriaautomation.com</t>
   </si>
   <si>
+    <t>susanamarcosmarcos35</t>
+  </si>
+  <si>
     <t>Mario Alfonso</t>
   </si>
   <si>
@@ -449,6 +551,9 @@
     <t>malfonso@alteriaautomation.com</t>
   </si>
   <si>
+    <t>susanamarcosmarcos36</t>
+  </si>
+  <si>
     <t>Bartolomé Morales Vázquez</t>
   </si>
   <si>
@@ -461,6 +566,9 @@
     <t>bmoralesvazquez@amstechnologies.com</t>
   </si>
   <si>
+    <t>susanamarcosmarcos37</t>
+  </si>
+  <si>
     <t>Sara Calomarde</t>
   </si>
   <si>
@@ -470,6 +578,9 @@
     <t>scalomarde@amstechnologies.com</t>
   </si>
   <si>
+    <t>susanamarcosmarcos38</t>
+  </si>
+  <si>
     <t>Iker García Esteban-Barcina</t>
   </si>
   <si>
@@ -479,6 +590,9 @@
     <t>igarcia@aotech.es</t>
   </si>
   <si>
+    <t>susanamarcosmarcos39</t>
+  </si>
+  <si>
     <t>Vanesa Garcia</t>
   </si>
   <si>
@@ -488,6 +602,9 @@
     <t>administracion@aotech.es</t>
   </si>
   <si>
+    <t>susanamarcosmarcos40</t>
+  </si>
+  <si>
     <t>Asier Villafranca</t>
   </si>
   <si>
@@ -497,6 +614,9 @@
     <t>a.villafranca@aragonphotonics.com</t>
   </si>
   <si>
+    <t>susanamarcosmarcos41</t>
+  </si>
+  <si>
     <t>Ricardo Arias</t>
   </si>
   <si>
@@ -506,6 +626,9 @@
     <t>r.arias@aragonphotonics.com</t>
   </si>
   <si>
+    <t>susanamarcosmarcos42</t>
+  </si>
+  <si>
     <t>Antonio Sanchez</t>
   </si>
   <si>
@@ -527,6 +650,9 @@
     <t>0+1+5+6</t>
   </si>
   <si>
+    <t>susanamarcosmarcos43</t>
+  </si>
+  <si>
     <t>Josep Maria Sanchez</t>
   </si>
   <si>
@@ -536,12 +662,18 @@
     <t>jmsanchez@asorcad.es</t>
   </si>
   <si>
+    <t>susanamarcosmarcos44</t>
+  </si>
+  <si>
     <t>Rosa Alonso</t>
   </si>
   <si>
     <t>dircom@asorcad.es</t>
   </si>
   <si>
+    <t>susanamarcosmarcos45</t>
+  </si>
+  <si>
     <t>Elena Martinez</t>
   </si>
   <si>
@@ -560,6 +692,9 @@
     <t>0+1+5+6+7</t>
   </si>
   <si>
+    <t>susanamarcosmarcos46</t>
+  </si>
+  <si>
     <t>Rosa Castillón</t>
   </si>
   <si>
@@ -569,6 +704,9 @@
     <t>rosa.castillon@atriainnovation.com</t>
   </si>
   <si>
+    <t>susanamarcosmarcos47</t>
+  </si>
+  <si>
     <t>Jaume Castellà</t>
   </si>
   <si>
@@ -590,6 +728,9 @@
     <t>0+1+3</t>
   </si>
   <si>
+    <t>susanamarcosmarcos48</t>
+  </si>
+  <si>
     <t>Miguel Ares Rodríguez</t>
   </si>
   <si>
@@ -602,6 +743,9 @@
     <t>miguel.ares@upc.edu</t>
   </si>
   <si>
+    <t>susanamarcosmarcos49</t>
+  </si>
+  <si>
     <t>Mikel Bengoa</t>
   </si>
   <si>
@@ -623,6 +767,9 @@
     <t>0+1+3+5+6</t>
   </si>
   <si>
+    <t>susanamarcosmarcos50</t>
+  </si>
+  <si>
     <t>Sandra Mosquera Vazquez</t>
   </si>
   <si>
@@ -632,6 +779,9 @@
     <t>sandra.mosquera@coherent.com</t>
   </si>
   <si>
+    <t>susanamarcosmarcos51</t>
+  </si>
+  <si>
     <t>Eva Fité</t>
   </si>
   <si>
@@ -653,6 +803,9 @@
     <t>0+6</t>
   </si>
   <si>
+    <t>susanamarcosmarcos52</t>
+  </si>
+  <si>
     <t>David Castrillo Sanz</t>
   </si>
   <si>
@@ -674,6 +827,9 @@
     <t>0+1+2+3+4+5+6+7+8</t>
   </si>
   <si>
+    <t>susanamarcosmarcos53</t>
+  </si>
+  <si>
     <t>Victor Bernardo</t>
   </si>
   <si>
@@ -683,12 +839,18 @@
     <t>vbernardo@hamamatsu.es</t>
   </si>
   <si>
+    <t>susanamarcosmarcos54</t>
+  </si>
+  <si>
     <t>Jordi Sobrino Gil</t>
   </si>
   <si>
     <t>jsobrino@hamamatsu.es</t>
   </si>
   <si>
+    <t>susanamarcosmarcos55</t>
+  </si>
+  <si>
     <t>Sergi Ferrando</t>
   </si>
   <si>
@@ -704,6 +866,9 @@
     <t>0+1+2+3+4+5+7+8+12+13+14</t>
   </si>
   <si>
+    <t>susanamarcosmarcos56</t>
+  </si>
+  <si>
     <t>Silvia Carrasco</t>
   </si>
   <si>
@@ -713,6 +878,9 @@
     <t>silvia.carrasco@icfo.es</t>
   </si>
   <si>
+    <t>susanamarcosmarcos57</t>
+  </si>
+  <si>
     <t>Martina Giovannella</t>
   </si>
   <si>
@@ -722,6 +890,9 @@
     <t>martina.giovannella@icfo.eu</t>
   </si>
   <si>
+    <t>susanamarcosmarcos58</t>
+  </si>
+  <si>
     <t>Alfredo Ongaro</t>
   </si>
   <si>
@@ -731,6 +902,9 @@
     <t>alfredo.ongaro@icfo.eu</t>
   </si>
   <si>
+    <t>susanamarcosmarcos59</t>
+  </si>
+  <si>
     <t>Ramon Sans Ravellat</t>
   </si>
   <si>
@@ -752,6 +926,9 @@
     <t>0+3+7</t>
   </si>
   <si>
+    <t>susanamarcosmarcos60</t>
+  </si>
+  <si>
     <t>Oscar Ciordia</t>
   </si>
   <si>
@@ -770,6 +947,9 @@
     <t>2+5+8</t>
   </si>
   <si>
+    <t>susanamarcosmarcos61</t>
+  </si>
+  <si>
     <t>Fernando Barbero Díaz</t>
   </si>
   <si>
@@ -779,12 +959,18 @@
     <t>fernando.barbero@kdpof.com</t>
   </si>
   <si>
+    <t>susanamarcosmarcos62</t>
+  </si>
+  <si>
     <t>Ruben Pérez</t>
   </si>
   <si>
     <t>rubenpda@kdpof.com</t>
   </si>
   <si>
+    <t>susanamarcosmarcos63</t>
+  </si>
+  <si>
     <t>Cesar Esteban</t>
   </si>
   <si>
@@ -794,6 +980,9 @@
     <t>cesar.esteban@kdpof.com</t>
   </si>
   <si>
+    <t>susanamarcosmarcos64</t>
+  </si>
+  <si>
     <t>Joaquín Cantos</t>
   </si>
   <si>
@@ -803,6 +992,9 @@
     <t>joaquin.cantos@kdpof.com</t>
   </si>
   <si>
+    <t>susanamarcosmarcos65</t>
+  </si>
+  <si>
     <t>Ramon Villanova</t>
   </si>
   <si>
@@ -821,6 +1013,9 @@
     <t>0+2+3+4+6+7</t>
   </si>
   <si>
+    <t>susanamarcosmarcos66</t>
+  </si>
+  <si>
     <t>Youcef Lebour</t>
   </si>
   <si>
@@ -839,6 +1034,9 @@
     <t>0+3+5</t>
   </si>
   <si>
+    <t>susanamarcosmarcos67</t>
+  </si>
+  <si>
     <t>Jose Mª Silvestre</t>
   </si>
   <si>
@@ -848,6 +1046,9 @@
     <t>jose.m.silvestre@procarelight.com</t>
   </si>
   <si>
+    <t>susanamarcosmarcos68</t>
+  </si>
+  <si>
     <t>Ricardo Rodriguez Rodriguez</t>
   </si>
   <si>
@@ -857,6 +1058,9 @@
     <t>ricardo@isuigeneris.es</t>
   </si>
   <si>
+    <t>susanamarcosmarcos69</t>
+  </si>
+  <si>
     <t>David Gómez Plaza</t>
   </si>
   <si>
@@ -870,6 +1074,9 @@
   </si>
   <si>
     <t>0+5+6+7+8</t>
+  </si>
+  <si>
+    <t>susanamarcosmarcos70</t>
   </si>
   <si>
     <t>Name</t>
@@ -1006,7 +1213,7 @@
   </si>
   <si>
     <r>
-      <t>ALTER TECHNOLOGY</t>
+      <t xml:space="preserve">ALTER TECHNOLOGY</t>
     </r>
     <r>
       <rPr>
@@ -1015,7 +1222,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t> provide a single point of contact for all high reliability electronic component requirements, covering testing, engineering, procurement, storage, quality control, certification and consultancy. They bring services both for new-build equipment and also for managing component obsolescence issues in operational equipment. They have also extended their component capability into specialized equipment testing and EMC certification. The company in many markets including, but not limited to, Aerospace, Security, Transport, Emergency Services, Health &amp; Safety and Automotive.</t>
+      <t xml:space="preserve"> provide a single point of contact for all high reliability electronic component requirements, covering testing, engineering, procurement, storage, quality control, certification and consultancy. They bring services both for new-build equipment and also for managing component obsolescence issues in operational equipment. They have also extended their component capability into specialized equipment testing and EMC certification. The company in many markets including, but not limited to, Aerospace, Security, Transport, Emergency Services, Health &amp; Safety and Automotive.</t>
     </r>
   </si>
   <si>
@@ -1070,7 +1277,7 @@
   </si>
   <si>
     <r>
-      <t>AOTECH</t>
+      <t xml:space="preserve">AOTECH</t>
     </r>
     <r>
       <rPr>
@@ -1079,7 +1286,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>is a spin-off company from the University of the Basque Country whose mission is to apply customized photonic solutions to all kind of industrial processes. Currently, the two main areas of activity are aeronautics and food industry. In aeronautics, they are developing a system to monitor structural health monitoring of blades in turbines and compressors. Whereas in their second area, food industry, they are going to apply NIR spectroscopy sensors to different processes. AOTECH plans to expand this activities to other sectors such as energy, automotive, metallurgy chemistry or environment.</t>
+      <t xml:space="preserve">is a spin-off company from the University of the Basque Country whose mission is to apply customized photonic solutions to all kind of industrial processes. Currently, the two main areas of activity are aeronautics and food industry. In aeronautics, they are developing a system to monitor structural health monitoring of blades in turbines and compressors. Whereas in their second area, food industry, they are going to apply NIR spectroscopy sensors to different processes. AOTECH plans to expand this activities to other sectors such as energy, automotive, metallurgy chemistry or environment.</t>
     </r>
   </si>
   <si>
@@ -1093,7 +1300,7 @@
   </si>
   <si>
     <r>
-      <t>Aragon Photonics Labs.</t>
+      <t xml:space="preserve">Aragon Photonics Labs.</t>
     </r>
     <r>
       <rPr>
@@ -1102,7 +1309,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>is a manufacturer of advanced optical test &amp; measurement instrumentation and fiber optic distributed sensing equipment based on proprietary patents. With more than 10 years experience and operating in more than 20 countries, Aragon Photonics provides test &amp; measurement products to photonic R&amp;D centers, optical telecom component manufacturers and telecom operators (optical spectrum analysis, passive component characterization, polarization analysis and phase measurement) and distributed acoustic sensing turnkey solutions for transport, energy and security infrastructures.</t>
+      <t xml:space="preserve">is a manufacturer of advanced optical test &amp; measurement instrumentation and fiber optic distributed sensing equipment based on proprietary patents. With more than 10 years experience and operating in more than 20 countries, Aragon Photonics provides test &amp; measurement products to photonic R&amp;D centers, optical telecom component manufacturers and telecom operators (optical spectrum analysis, passive component characterization, polarization analysis and phase measurement) and distributed acoustic sensing turnkey solutions for transport, energy and security infrastructures.</t>
     </r>
   </si>
   <si>
@@ -1202,7 +1409,7 @@
   </si>
   <si>
     <r>
-      <t>ICFO</t>
+      <t xml:space="preserve">ICFO</t>
     </r>
     <r>
       <rPr>
@@ -1211,7 +1418,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>is a research centre devoted to the science and technologies of light with fundamental and applied research programs that address standing issues such as health, renewable energies, information technologies, security and industrial processes, among others.  The centre hosts 400 professionals including researchers and PhD students, and collaborates with a wide range of companies around the world.  In particular, ICFO’s Corporate Liaison Program includes more than 25 national and international industries and corporations. Likewise, the institute actively promotes the creation of spin-off companies by ICFO researchers.</t>
+      <t xml:space="preserve">is a research centre devoted to the science and technologies of light with fundamental and applied research programs that address standing issues such as health, renewable energies, information technologies, security and industrial processes, among others.  The centre hosts 400 professionals including researchers and PhD students, and collaborates with a wide range of companies around the world.  In particular, ICFO’s Corporate Liaison Program includes more than 25 national and international industries and corporations. Likewise, the institute actively promotes the creation of spin-off companies by ICFO researchers.</t>
     </r>
   </si>
   <si>
@@ -1282,7 +1489,7 @@
   </si>
   <si>
     <r>
-      <t>Tekniker</t>
+      <t xml:space="preserve">Tekniker</t>
     </r>
     <r>
       <rPr>
@@ -1291,7 +1498,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>is an independent research organization, whose main working focus is to improve manufacturing technologies, that includes all the situations that characterises a product life cycle, from conception and design, until the end of working life. Automotive parts, machine tools, mechanical capital goods, aerospace, chemical and petroleum products and industrial and consumer electronics are the most relevant sectors served by Tekniker.Tekniker likes to define itself as a Mechatronics, Manufacturing Technologies and Microtechnologies centre. It mainly specialises in: designing consumer and industrial products, solving problems relating to friction, wear and lubrication, incorporating information technologies and communications in the plant, high precision, miniaturisation and micro/nanotechnologies.</t>
+      <t xml:space="preserve">is an independent research organization, whose main working focus is to improve manufacturing technologies, that includes all the situations that characterises a product life cycle, from conception and design, until the end of working life. Automotive parts, machine tools, mechanical capital goods, aerospace, chemical and petroleum products and industrial and consumer electronics are the most relevant sectors served by Tekniker.Tekniker likes to define itself as a Mechatronics, Manufacturing Technologies and Microtechnologies centre. It mainly specialises in: designing consumer and industrial products, solving problems relating to friction, wear and lubrication, incorporating information technologies and communications in the plant, high precision, miniaturisation and micro/nanotechnologies.</t>
     </r>
   </si>
   <si>
@@ -1521,12 +1728,222 @@
   </si>
   <si>
     <t>Administración pública</t>
+  </si>
+  <si>
+    <t>hy=M7PNLkIJz</t>
+  </si>
+  <si>
+    <t>D3E2@?&gt;]cqYt</t>
+  </si>
+  <si>
+    <t>H^30g`Yjuxhd</t>
+  </si>
+  <si>
+    <t>s8o75xE8Cx4D</t>
+  </si>
+  <si>
+    <t>;pjNVx:4h5Qz</t>
+  </si>
+  <si>
+    <t>^g&gt;uqTADcK\s</t>
+  </si>
+  <si>
+    <t>]s_3UDpDtFUs</t>
+  </si>
+  <si>
+    <t>WRF\4SRS7899</t>
+  </si>
+  <si>
+    <t>Jq25TQ?5ans]</t>
+  </si>
+  <si>
+    <t>yZVg6&lt;8tf?E_</t>
+  </si>
+  <si>
+    <t>8oXTuQLZ[KYa</t>
+  </si>
+  <si>
+    <t>]4jaOoWebgUt</t>
+  </si>
+  <si>
+    <t>dP[IJs1:D=xw</t>
+  </si>
+  <si>
+    <t>VuYfcTjV&lt;KnX</t>
+  </si>
+  <si>
+    <t>hkkkqBG1YlO]</t>
+  </si>
+  <si>
+    <t>qKWqbL3atPWN</t>
+  </si>
+  <si>
+    <t>7QzckH@&lt;qppJ</t>
+  </si>
+  <si>
+    <t>x=&lt;w&lt;KA&lt;xGTG</t>
+  </si>
+  <si>
+    <t>1Uu:v@anFh9C</t>
+  </si>
+  <si>
+    <t>0&lt;@9wxzL^=]R</t>
+  </si>
+  <si>
+    <t>YyNq8fqahYgV</t>
+  </si>
+  <si>
+    <t>i:U25j?mgiXQ</t>
+  </si>
+  <si>
+    <t>lD18QFP3YWTk</t>
+  </si>
+  <si>
+    <t>G&gt;97phF4d`Jy</t>
+  </si>
+  <si>
+    <t>2205tO@&gt;]k9x</t>
+  </si>
+  <si>
+    <t>HE8uR2XWdzrS</t>
+  </si>
+  <si>
+    <t>&gt;6^VAS_@S5@2</t>
+  </si>
+  <si>
+    <t>bCn3ZctVD5??</t>
+  </si>
+  <si>
+    <t>^ZvZ?jYOpiR[</t>
+  </si>
+  <si>
+    <t>pALPDEU3;UIW</t>
+  </si>
+  <si>
+    <t>E@:0Sb5hQBdw</t>
+  </si>
+  <si>
+    <t>Ue\?84ZQLiq_</t>
+  </si>
+  <si>
+    <t>5MMpsAru7Q_f</t>
+  </si>
+  <si>
+    <t>I6z7\ukyjX6&gt;</t>
+  </si>
+  <si>
+    <t>Z4T`maftxyL;</t>
+  </si>
+  <si>
+    <t>RqHF&lt;em5D:=f</t>
+  </si>
+  <si>
+    <t>qr=3vVQ&lt;S1dr</t>
+  </si>
+  <si>
+    <t>;tJ9qYi&gt;S[l`</t>
+  </si>
+  <si>
+    <t>wA&gt;509em;Da=</t>
+  </si>
+  <si>
+    <t>\XV3vEd:_89d</t>
+  </si>
+  <si>
+    <t>FwuUzuiLuC3t</t>
+  </si>
+  <si>
+    <t>@s_Dh;x?tpYO</t>
+  </si>
+  <si>
+    <t>Y?hg`J27Sdyb</t>
+  </si>
+  <si>
+    <t>4s@Aw&gt;ds3pvn</t>
+  </si>
+  <si>
+    <t>fubjtKCJ_38D</t>
+  </si>
+  <si>
+    <t>^&gt;[U?]yohAV:</t>
+  </si>
+  <si>
+    <t>fQMgOp&gt;7]bOB</t>
+  </si>
+  <si>
+    <t>nYS=:6qPSkHd</t>
+  </si>
+  <si>
+    <t>2Qm=W5K&lt;T?BQ</t>
+  </si>
+  <si>
+    <t>gKWIrbTmA9oZ</t>
+  </si>
+  <si>
+    <t>^r4Xo0`M&lt;waO</t>
+  </si>
+  <si>
+    <t>n4r6A62LQ@:^</t>
+  </si>
+  <si>
+    <t>KCD`ZiAMQnes</t>
+  </si>
+  <si>
+    <t>vq1?DqxIIWe[</t>
+  </si>
+  <si>
+    <t>YPu55wvtpl56</t>
+  </si>
+  <si>
+    <t>gPjyXO^&lt;eATF</t>
+  </si>
+  <si>
+    <t>oEc416tiegS@</t>
+  </si>
+  <si>
+    <t>Pd5e[`48[UEV</t>
+  </si>
+  <si>
+    <t>M3UTbEOc4oOw</t>
+  </si>
+  <si>
+    <t>h;do^YZ6Di?`</t>
+  </si>
+  <si>
+    <t>O9E_7@h8JN:v</t>
+  </si>
+  <si>
+    <t>=xc=eXSr]Vsi</t>
+  </si>
+  <si>
+    <t>iPg8nTIf9h\3</t>
+  </si>
+  <si>
+    <t>^2`R@nx&gt;wZMX</t>
+  </si>
+  <si>
+    <t>&gt;KUa4Yi=OsYj</t>
+  </si>
+  <si>
+    <t>&lt;Hl0sw5xT50=</t>
+  </si>
+  <si>
+    <t>^9W5hsFx]Fia</t>
+  </si>
+  <si>
+    <t>M4kRVVR:kUYI</t>
+  </si>
+  <si>
+    <t>[?HJA5y[ilCT</t>
+  </si>
+  <si>
+    <t>WPKjgALPFV7y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="14">
     <font>
       <sz val="11"/>
@@ -1722,43 +2139,43 @@
   </cellStyleXfs>
   <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" applyFill="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" applyFill="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="2" applyFill="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyFill="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFill="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFill="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFill="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFill="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFill="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFill="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFill="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFill="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFill="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFill="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1768,7 +2185,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFill="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1794,22 +2211,19 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1"/>
+    <cellStyle name="Salida" xfId="2" builtinId="21"/>
     <cellStyle name="Bueno" xfId="3" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8"/>
-    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Incorrecto" xfId="6" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Salida" xfId="2" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2077,14 +2491,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8:I71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14062" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
@@ -2094,12 +2508,13 @@
     <col min="6" max="6" width="14.42578125" style="9" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" style="9" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="8" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="22" style="8" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="8" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2130,357 +2545,477 @@
       <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="30">
+      <c r="K1" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>15</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>14</v>
       </c>
       <c r="H2" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="30">
+      <c r="I2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E3" s="11">
         <v>6</v>
       </c>
       <c r="F3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>15</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>14</v>
       </c>
       <c r="H3" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="30">
+      <c r="I3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="13" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B4" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="D4" s="16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E4" s="11">
         <v>1</v>
       </c>
       <c r="F4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>14</v>
       </c>
       <c r="H4" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="45">
+      <c r="I4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="45">
       <c r="A5" s="13" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E5" s="11">
         <v>2</v>
       </c>
       <c r="F5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>15</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>14</v>
       </c>
       <c r="H5" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="30">
+      <c r="I5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="30">
       <c r="A6" s="13" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>15</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>14</v>
       </c>
       <c r="H6" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="45">
+      <c r="I6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="45">
       <c r="A7" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E7" s="11">
         <v>3</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="45">
+        <v>43</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="45">
       <c r="A8" s="13" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E8" s="11">
         <v>7</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="30">
+        <v>43</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="30">
       <c r="A9" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>31</v>
-      </c>
       <c r="D9" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>33</v>
-      </c>
       <c r="G9" s="11" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>43</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="13" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E10" s="11">
         <v>1</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>43</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="13" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E11" s="11">
         <v>1</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>43</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="13" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E12" s="11">
         <v>7</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>68</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="13" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="E13" s="11">
         <v>1</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="60">
+        <v>68</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="K13" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="60">
       <c r="A14" s="13" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="90">
+        <v>68</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="90">
       <c r="A15" s="13" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E15" s="11">
         <v>1</v>
@@ -2488,19 +3023,28 @@
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="I15" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="13" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="E16" s="11">
         <v>2</v>
@@ -2508,19 +3052,28 @@
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
-    </row>
-    <row r="17" spans="1:8" ht="75">
+      <c r="I16" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="75">
       <c r="A17" s="13" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="E17" s="11">
         <v>7</v>
@@ -2528,19 +3081,28 @@
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
-    </row>
-    <row r="18" spans="1:8" ht="45">
+      <c r="I17" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K17" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="45">
       <c r="A18" s="13" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="E18" s="11">
         <v>1</v>
@@ -2548,19 +3110,28 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
-    </row>
-    <row r="19" spans="1:8" ht="60">
+      <c r="I18" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K18" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="60">
       <c r="A19" s="13" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="E19" s="11">
         <v>2</v>
@@ -2568,19 +3139,28 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
-    </row>
-    <row r="20" spans="1:8" ht="45">
+      <c r="I19" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K19" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="45">
       <c r="A20" s="13" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="E20" s="11">
         <v>1</v>
@@ -2588,19 +3168,28 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
-    </row>
-    <row r="21" spans="1:8" ht="30">
+      <c r="I20" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K20" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="30">
       <c r="A21" s="13" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="E21" s="11">
         <v>3</v>
@@ -2608,19 +3197,28 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
-    </row>
-    <row r="22" spans="1:8" ht="30">
+      <c r="I21" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="K21" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="30">
       <c r="A22" s="13" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="E22" s="11">
         <v>1</v>
@@ -2628,19 +3226,28 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="K22" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="13" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="E23" s="11">
         <v>2</v>
@@ -2648,19 +3255,28 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
-    </row>
-    <row r="24" spans="1:8" ht="30">
+      <c r="I23" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="K23" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="30">
       <c r="A24" s="13" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="E24" s="11">
         <v>7</v>
@@ -2668,19 +3284,28 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
-    </row>
-    <row r="25" spans="1:8" ht="45">
+      <c r="I24" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="K24" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="45">
       <c r="A25" s="13" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="E25" s="11">
         <v>3</v>
@@ -2688,19 +3313,28 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
-    </row>
-    <row r="26" spans="1:8" ht="30">
+      <c r="I25" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="K25" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="30">
       <c r="A26" s="13" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="E26" s="11">
         <v>7</v>
@@ -2708,59 +3342,86 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
-    </row>
-    <row r="27" spans="1:8" ht="30">
+      <c r="I26" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="K26" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="30">
       <c r="A27" s="13" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
-    </row>
-    <row r="28" spans="1:8" ht="30">
+      <c r="I27" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="K27" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="30">
       <c r="A28" s="13" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
-    </row>
-    <row r="29" spans="1:8" ht="30">
+      <c r="I28" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="K28" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="30">
       <c r="A29" s="13" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="E29" s="11">
         <v>7</v>
@@ -2768,19 +3429,28 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
-    </row>
-    <row r="30" spans="1:8" ht="30">
+      <c r="I29" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="K29" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="30">
       <c r="A30" s="13" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="E30" s="11">
         <v>1</v>
@@ -2788,39 +3458,57 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="K30" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="13" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
-    </row>
-    <row r="32" spans="1:8" ht="45">
+      <c r="I31" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="K31" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="45">
       <c r="A32" s="13" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="E32" s="11">
         <v>7</v>
@@ -2828,19 +3516,28 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
-    </row>
-    <row r="33" spans="1:8" ht="45">
+      <c r="I32" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="K32" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="45">
       <c r="A33" s="13" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="E33" s="11">
         <v>7</v>
@@ -2848,71 +3545,98 @@
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
-    </row>
-    <row r="34" spans="1:8" ht="30">
+      <c r="I33" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="K33" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="30">
       <c r="A34" s="13" t="s">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="E34" s="15">
         <v>7</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="30">
+        <v>163</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="K34" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="30">
       <c r="A35" s="13" t="s">
-        <v>129</v>
+        <v>165</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="E35" s="11">
         <v>3</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="30">
+        <v>163</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="K35" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="30">
       <c r="A36" s="13" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="E36" s="11">
         <v>1</v>
@@ -2920,19 +3644,28 @@
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
-    </row>
-    <row r="37" spans="1:8" ht="30">
+      <c r="I36" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K36" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="30">
       <c r="A37" s="13" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="E37" s="11">
         <v>7</v>
@@ -2940,19 +3673,28 @@
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
-    </row>
-    <row r="38" spans="1:8" ht="30">
+      <c r="I37" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="K37" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="30">
       <c r="A38" s="13" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="E38" s="11">
         <v>2</v>
@@ -2960,19 +3702,28 @@
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
-    </row>
-    <row r="39" spans="1:8" ht="30">
+      <c r="I38" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="K38" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="30">
       <c r="A39" s="13" t="s">
-        <v>142</v>
+        <v>182</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="E39" s="11">
         <v>7</v>
@@ -2980,19 +3731,28 @@
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="I39" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="K39" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="13" t="s">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="E40" s="11">
         <v>7</v>
@@ -3000,19 +3760,28 @@
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="I40" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="K40" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="13" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="E41" s="11">
         <v>3</v>
@@ -3020,19 +3789,28 @@
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
-    </row>
-    <row r="42" spans="1:8" ht="30">
+      <c r="I41" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="K41" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="30">
       <c r="A42" s="13" t="s">
-        <v>151</v>
+        <v>194</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>152</v>
+        <v>195</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>153</v>
+        <v>196</v>
       </c>
       <c r="E42" s="11">
         <v>7</v>
@@ -3040,19 +3818,28 @@
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
-    </row>
-    <row r="43" spans="1:8" ht="30">
+      <c r="I42" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="K42" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="30">
       <c r="A43" s="13" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>155</v>
+        <v>199</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>152</v>
+        <v>195</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="E43" s="11">
         <v>2</v>
@@ -3060,487 +3847,658 @@
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="I43" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="K43" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="13" t="s">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>158</v>
+        <v>203</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="E44" s="15">
         <v>7</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="H44" s="15" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>208</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="K44" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="13" t="s">
-        <v>164</v>
+        <v>210</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>165</v>
+        <v>211</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>166</v>
+        <v>212</v>
       </c>
       <c r="E45" s="11">
         <v>1</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="30">
+        <v>208</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="K45" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="30">
       <c r="A46" s="13" t="s">
-        <v>167</v>
+        <v>214</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>168</v>
+        <v>215</v>
       </c>
       <c r="E46" s="11">
         <v>3</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="30">
+        <v>208</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="K46" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="30">
       <c r="A47" s="13" t="s">
-        <v>169</v>
+        <v>217</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>170</v>
+        <v>218</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>171</v>
+        <v>219</v>
       </c>
       <c r="E47" s="15">
         <v>7</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>172</v>
+        <v>220</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>173</v>
+        <v>221</v>
       </c>
       <c r="H47" s="15" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="30">
+        <v>222</v>
+      </c>
+      <c r="I47" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="K47" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="30">
       <c r="A48" s="13" t="s">
-        <v>175</v>
+        <v>224</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>176</v>
+        <v>225</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>170</v>
+        <v>218</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>177</v>
+        <v>226</v>
       </c>
       <c r="E48" s="11">
         <v>1</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>172</v>
+        <v>220</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>173</v>
+        <v>221</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>222</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="K48" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="30">
       <c r="A49" s="13" t="s">
-        <v>178</v>
+        <v>228</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>179</v>
+        <v>229</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>181</v>
+        <v>231</v>
       </c>
       <c r="E49" s="15">
         <v>7</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>182</v>
+        <v>232</v>
       </c>
       <c r="G49" s="15" t="s">
-        <v>183</v>
+        <v>233</v>
       </c>
       <c r="H49" s="15" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="60">
+        <v>234</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="K49" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="60">
       <c r="A50" s="13" t="s">
-        <v>185</v>
+        <v>236</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>186</v>
+        <v>237</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>187</v>
+        <v>238</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>182</v>
+        <v>232</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>183</v>
+        <v>233</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="60">
+        <v>234</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J50" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="K50" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="60">
       <c r="A51" s="13" t="s">
-        <v>189</v>
+        <v>241</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>190</v>
+        <v>242</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>191</v>
+        <v>243</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>192</v>
+        <v>244</v>
       </c>
       <c r="E51" s="15">
         <v>7</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>193</v>
+        <v>245</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>194</v>
+        <v>246</v>
       </c>
       <c r="H51" s="15" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="60">
+        <v>247</v>
+      </c>
+      <c r="I51" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J51" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="K51" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="45">
       <c r="A52" s="13" t="s">
-        <v>196</v>
+        <v>249</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>197</v>
+        <v>250</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>191</v>
+        <v>243</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>198</v>
+        <v>251</v>
       </c>
       <c r="E52" s="11">
         <v>2</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>193</v>
+        <v>245</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>194</v>
+        <v>246</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="105">
+        <v>247</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="K52" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="105">
       <c r="A53" s="13" t="s">
-        <v>199</v>
+        <v>253</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>200</v>
+        <v>254</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>201</v>
+        <v>255</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>202</v>
+        <v>256</v>
       </c>
       <c r="E53" s="15">
         <v>7</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>203</v>
+        <v>257</v>
       </c>
       <c r="G53" s="15" t="s">
-        <v>204</v>
+        <v>258</v>
       </c>
       <c r="H53" s="15" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="30">
+        <v>259</v>
+      </c>
+      <c r="I53" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J53" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="K53" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="30">
       <c r="A54" s="13" t="s">
-        <v>206</v>
+        <v>261</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>207</v>
+        <v>262</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>208</v>
+        <v>263</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>209</v>
+        <v>264</v>
       </c>
       <c r="E54" s="15">
         <v>7</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>210</v>
+        <v>265</v>
       </c>
       <c r="G54" s="15" t="s">
-        <v>211</v>
+        <v>266</v>
       </c>
       <c r="H54" s="15" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="30">
+        <v>267</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J54" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="K54" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="30">
       <c r="A55" s="13" t="s">
-        <v>213</v>
+        <v>269</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>208</v>
+        <v>263</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>215</v>
+        <v>271</v>
       </c>
       <c r="E55" s="11">
         <v>2</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>210</v>
+        <v>265</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>211</v>
+        <v>266</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="26.25">
+        <v>267</v>
+      </c>
+      <c r="I55" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J55" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="K55" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="25.5">
       <c r="A56" s="13" t="s">
-        <v>216</v>
+        <v>273</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>208</v>
+        <v>263</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>217</v>
+        <v>274</v>
       </c>
       <c r="E56" s="12">
         <v>2</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>210</v>
+        <v>265</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>211</v>
+        <v>266</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="30">
+        <v>267</v>
+      </c>
+      <c r="I56" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J56" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="K56" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="30">
       <c r="A57" s="13" t="s">
-        <v>218</v>
+        <v>276</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>219</v>
+        <v>277</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>220</v>
+        <v>278</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>221</v>
+        <v>279</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>222</v>
+        <v>280</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>211</v>
+        <v>266</v>
       </c>
       <c r="H57" s="15" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>267</v>
+      </c>
+      <c r="I57" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J57" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="K57" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="13" t="s">
-        <v>223</v>
+        <v>282</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>224</v>
+        <v>283</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>220</v>
+        <v>278</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>225</v>
+        <v>284</v>
       </c>
       <c r="E58" s="11">
         <v>7</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>222</v>
+        <v>280</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>211</v>
+        <v>266</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="30">
+        <v>267</v>
+      </c>
+      <c r="I58" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J58" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="K58" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="30">
       <c r="A59" s="13" t="s">
-        <v>226</v>
+        <v>286</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>227</v>
+        <v>287</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>220</v>
+        <v>278</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>228</v>
+        <v>288</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>222</v>
+        <v>280</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>211</v>
+        <v>266</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>267</v>
+      </c>
+      <c r="I59" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J59" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="K59" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="13" t="s">
-        <v>229</v>
+        <v>290</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>230</v>
+        <v>291</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>220</v>
+        <v>278</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>231</v>
+        <v>292</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>222</v>
+        <v>280</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>211</v>
+        <v>266</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>267</v>
+      </c>
+      <c r="I60" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J60" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="K60" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="13" t="s">
-        <v>232</v>
+        <v>294</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>233</v>
+        <v>295</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>234</v>
+        <v>296</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>235</v>
+        <v>297</v>
       </c>
       <c r="E61" s="15">
         <v>7</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>236</v>
+        <v>298</v>
       </c>
       <c r="G61" s="15" t="s">
-        <v>237</v>
+        <v>299</v>
       </c>
       <c r="H61" s="15" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="60">
+        <v>300</v>
+      </c>
+      <c r="I61" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J61" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="K61" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="60">
       <c r="A62" s="13" t="s">
-        <v>239</v>
+        <v>302</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>240</v>
+        <v>303</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>241</v>
+        <v>304</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>242</v>
+        <v>305</v>
       </c>
       <c r="E62" s="15">
         <v>3</v>
@@ -3549,24 +4507,33 @@
         <v>2</v>
       </c>
       <c r="G62" s="15" t="s">
-        <v>243</v>
+        <v>306</v>
       </c>
       <c r="H62" s="15" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="45">
+        <v>307</v>
+      </c>
+      <c r="I62" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J62" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="K62" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="45">
       <c r="A63" s="13" t="s">
-        <v>245</v>
+        <v>309</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>246</v>
+        <v>310</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>241</v>
+        <v>304</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>247</v>
+        <v>311</v>
       </c>
       <c r="E63" s="11">
         <v>1</v>
@@ -3575,24 +4542,33 @@
         <v>2</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>243</v>
+        <v>306</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>307</v>
+      </c>
+      <c r="I63" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J63" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="K63" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="13" t="s">
-        <v>248</v>
+        <v>313</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>241</v>
+        <v>304</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>249</v>
+        <v>314</v>
       </c>
       <c r="E64" s="11">
         <v>1</v>
@@ -3601,24 +4577,33 @@
         <v>2</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>243</v>
+        <v>306</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>307</v>
+      </c>
+      <c r="I64" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J64" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="K64" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="13" t="s">
-        <v>250</v>
+        <v>316</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>251</v>
+        <v>317</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>241</v>
+        <v>304</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>252</v>
+        <v>318</v>
       </c>
       <c r="E65" s="11">
         <v>1</v>
@@ -3627,24 +4612,33 @@
         <v>2</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>243</v>
+        <v>306</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="45">
+        <v>307</v>
+      </c>
+      <c r="I65" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J65" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="K65" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="45">
       <c r="A66" s="13" t="s">
-        <v>253</v>
+        <v>320</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>254</v>
+        <v>321</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>241</v>
+        <v>304</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>255</v>
+        <v>322</v>
       </c>
       <c r="E66" s="11">
         <v>1</v>
@@ -3653,50 +4647,68 @@
         <v>2</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>243</v>
+        <v>306</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="30">
+        <v>307</v>
+      </c>
+      <c r="I66" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J66" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="K66" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="30">
       <c r="A67" s="13" t="s">
-        <v>256</v>
+        <v>324</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>257</v>
+        <v>325</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>258</v>
+        <v>326</v>
       </c>
       <c r="E67" s="15">
         <v>2</v>
       </c>
       <c r="F67" s="15" t="s">
-        <v>259</v>
+        <v>327</v>
       </c>
       <c r="G67" s="15" t="s">
-        <v>260</v>
+        <v>328</v>
       </c>
       <c r="H67" s="15" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="30">
+        <v>329</v>
+      </c>
+      <c r="I67" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J67" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="K67" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="30">
       <c r="A68" s="13" t="s">
-        <v>262</v>
+        <v>331</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>263</v>
+        <v>332</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>264</v>
+        <v>333</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>265</v>
+        <v>334</v>
       </c>
       <c r="E68" s="11">
         <v>1</v>
@@ -3705,24 +4717,33 @@
         <v>1</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>266</v>
+        <v>335</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="30">
+        <v>336</v>
+      </c>
+      <c r="I68" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J68" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="K68" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="30">
       <c r="A69" s="13" t="s">
-        <v>268</v>
+        <v>338</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>269</v>
+        <v>339</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="E69" s="15">
         <v>7</v>
@@ -3731,24 +4752,33 @@
         <v>1</v>
       </c>
       <c r="G69" s="15" t="s">
-        <v>266</v>
+        <v>335</v>
       </c>
       <c r="H69" s="15" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>336</v>
+      </c>
+      <c r="I69" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J69" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K69" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="13" t="s">
-        <v>271</v>
+        <v>342</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>272</v>
+        <v>343</v>
       </c>
       <c r="D70" s="16" t="s">
-        <v>273</v>
+        <v>344</v>
       </c>
       <c r="E70" s="11">
         <v>7</v>
@@ -3756,65 +4786,83 @@
       <c r="F70" s="11"/>
       <c r="G70" s="11"/>
       <c r="H70" s="11"/>
-    </row>
-    <row r="71" spans="1:8" ht="45">
+      <c r="I70" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J70" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="K70" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="45">
       <c r="A71" s="13" t="s">
-        <v>274</v>
+        <v>346</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>275</v>
+        <v>347</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>276</v>
+        <v>348</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>277</v>
+        <v>349</v>
       </c>
       <c r="E71" s="15">
         <v>7</v>
       </c>
       <c r="F71" s="15" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="G71" s="15" t="s">
-        <v>278</v>
+        <v>350</v>
       </c>
       <c r="H71" s="15" t="s">
-        <v>35</v>
+        <v>43</v>
+      </c>
+      <c r="I71" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J71" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="K71" t="s">
+        <v>603</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
-          <x14:formula1>
-            <xm:f>'Listas y leyendas'!$F$2:$F$9</xm:f>
-          </x14:formula1>
-          <xm:sqref>E72:E1048576 C2:C71</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
-          <x14:formula1>
-            <xm:f>'Listas y leyendas'!$O$2:$O$10</xm:f>
-          </x14:formula1>
-          <xm:sqref>H72:H1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
+    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <g2:dataValidations xmlns:g2="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" count="2">
+        <g2:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+          <g2:formula1>
+            <g3:f xmlns:g3="http://schemas.microsoft.com/office/excel/2006/main">'Listas y leyendas'!$F$2:$F$9</g3:f>
+          </g2:formula1>
+          <g3:sqref xmlns:g3="http://schemas.microsoft.com/office/excel/2006/main">E72:E1048576 C2:C71</g3:sqref>
+        </g2:dataValidation>
+        <g2:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+          <g2:formula1>
+            <g3:f xmlns:g3="http://schemas.microsoft.com/office/excel/2006/main">'Listas y leyendas'!$O$2:$O$10</g3:f>
+          </g2:formula1>
+          <g3:sqref xmlns:g3="http://schemas.microsoft.com/office/excel/2006/main">H72:I1048576</g3:sqref>
+        </g2:dataValidation>
+      </g2:dataValidations>
     </ext>
   </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14062" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="2" max="2" width="76.5703125" customWidth="1"/>
@@ -3830,730 +4878,730 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>279</v>
+        <v>352</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>280</v>
+        <v>353</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>281</v>
+        <v>354</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>282</v>
+        <v>355</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>283</v>
+        <v>356</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>284</v>
+        <v>357</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>285</v>
+        <v>358</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>286</v>
+        <v>359</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>287</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="25.5">
       <c r="A2" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>288</v>
+        <v>361</v>
       </c>
       <c r="C2" t="s">
-        <v>289</v>
+        <v>362</v>
       </c>
       <c r="D2">
         <v>5</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>290</v>
+        <v>363</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>291</v>
+        <v>364</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>290</v>
+        <v>363</v>
       </c>
       <c r="H2" t="s">
-        <v>292</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="195">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>293</v>
+        <v>366</v>
       </c>
       <c r="C3" t="s">
-        <v>294</v>
+        <v>367</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>290</v>
+        <v>363</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>295</v>
+        <v>368</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>290</v>
+        <v>363</v>
       </c>
       <c r="H3" t="s">
-        <v>296</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="180">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>297</v>
+        <v>370</v>
       </c>
       <c r="C4" t="s">
-        <v>298</v>
+        <v>371</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>290</v>
+        <v>363</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>299</v>
+        <v>372</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>290</v>
+        <v>363</v>
       </c>
       <c r="H4" t="s">
-        <v>300</v>
+        <v>373</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="270">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>301</v>
+        <v>374</v>
       </c>
       <c r="C5" t="s">
-        <v>302</v>
+        <v>375</v>
       </c>
       <c r="D5">
         <v>6</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>290</v>
+        <v>363</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>303</v>
+        <v>376</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>290</v>
+        <v>363</v>
       </c>
       <c r="H5" t="s">
-        <v>304</v>
+        <v>377</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="165">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>305</v>
+        <v>378</v>
       </c>
       <c r="C6" t="s">
-        <v>306</v>
+        <v>379</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>290</v>
+        <v>363</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>307</v>
+        <v>380</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>290</v>
+        <v>363</v>
       </c>
       <c r="H6" t="s">
-        <v>308</v>
+        <v>381</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="120">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>309</v>
+        <v>382</v>
       </c>
       <c r="C7" t="s">
-        <v>310</v>
+        <v>383</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>290</v>
+        <v>363</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>311</v>
+        <v>384</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>290</v>
+        <v>363</v>
       </c>
       <c r="H7" t="s">
-        <v>312</v>
+        <v>385</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="51.75">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>313</v>
+        <v>386</v>
       </c>
       <c r="C8" t="s">
-        <v>314</v>
+        <v>387</v>
       </c>
       <c r="D8">
         <v>5</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>290</v>
+        <v>363</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>315</v>
+        <v>388</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>290</v>
+        <v>363</v>
       </c>
       <c r="H8" t="s">
-        <v>316</v>
+        <v>389</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="102.75">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>317</v>
+        <v>390</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>318</v>
+        <v>391</v>
       </c>
       <c r="D9">
         <v>6</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>290</v>
+        <v>363</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>319</v>
+        <v>392</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>290</v>
+        <v>363</v>
       </c>
       <c r="H9" t="s">
-        <v>320</v>
+        <v>393</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="315">
       <c r="A10" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>321</v>
+        <v>394</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>322</v>
+        <v>395</v>
       </c>
       <c r="D10">
         <v>6</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>290</v>
+        <v>363</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>323</v>
+        <v>396</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>290</v>
+        <v>363</v>
       </c>
       <c r="H10" t="s">
-        <v>324</v>
+        <v>397</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="405">
       <c r="A11" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>325</v>
+        <v>398</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>326</v>
+        <v>399</v>
       </c>
       <c r="D11">
         <v>6</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>290</v>
+        <v>363</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>327</v>
+        <v>400</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>290</v>
+        <v>363</v>
       </c>
       <c r="H11" t="s">
-        <v>328</v>
+        <v>401</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="90">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>329</v>
+        <v>402</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>330</v>
+        <v>403</v>
       </c>
       <c r="D12">
         <v>4</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>290</v>
+        <v>363</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>331</v>
+        <v>404</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>290</v>
+        <v>363</v>
       </c>
       <c r="H12" t="s">
-        <v>332</v>
+        <v>405</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="102.75">
       <c r="A13" t="s">
-        <v>152</v>
+        <v>195</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>333</v>
+        <v>406</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>334</v>
+        <v>407</v>
       </c>
       <c r="D13">
         <v>5</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>290</v>
+        <v>363</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>335</v>
+        <v>408</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>290</v>
+        <v>363</v>
       </c>
       <c r="H13" t="s">
-        <v>336</v>
+        <v>409</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="345">
       <c r="A14" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>337</v>
+        <v>410</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>338</v>
+        <v>411</v>
       </c>
       <c r="D14">
         <v>6</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>290</v>
+        <v>363</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>339</v>
+        <v>412</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>290</v>
+        <v>363</v>
       </c>
       <c r="H14" t="s">
-        <v>340</v>
+        <v>413</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="150">
       <c r="A15" t="s">
-        <v>170</v>
+        <v>218</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>341</v>
+        <v>414</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>342</v>
+        <v>415</v>
       </c>
       <c r="D15">
         <v>6</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>290</v>
+        <v>363</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>343</v>
+        <v>416</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>290</v>
+        <v>363</v>
       </c>
       <c r="H15" t="s">
-        <v>344</v>
+        <v>417</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="77.25">
       <c r="A16" t="s">
-        <v>187</v>
+        <v>238</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>345</v>
+        <v>418</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>346</v>
+        <v>419</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>290</v>
+        <v>363</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>347</v>
+        <v>420</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>290</v>
+        <v>363</v>
       </c>
       <c r="H16" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="75">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="75">
       <c r="A17" t="s">
-        <v>191</v>
+        <v>243</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>349</v>
+        <v>422</v>
       </c>
       <c r="C17" t="s">
-        <v>350</v>
+        <v>423</v>
       </c>
       <c r="D17">
         <v>5</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>290</v>
+        <v>363</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>351</v>
+        <v>424</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>290</v>
+        <v>363</v>
       </c>
       <c r="H17" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="375">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="375">
       <c r="A18" t="s">
-        <v>201</v>
+        <v>255</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>353</v>
+        <v>426</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>354</v>
+        <v>427</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>290</v>
+        <v>363</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>355</v>
+        <v>428</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>290</v>
+        <v>363</v>
       </c>
       <c r="H18" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="102.75">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="102.75">
       <c r="A19" t="s">
-        <v>208</v>
+        <v>263</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>357</v>
+        <v>430</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>358</v>
+        <v>431</v>
       </c>
       <c r="D19">
         <v>5</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>290</v>
+        <v>363</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>359</v>
+        <v>432</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>290</v>
+        <v>363</v>
       </c>
       <c r="H19" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="51" customHeight="1">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="51" customHeight="1">
       <c r="A20" t="s">
-        <v>220</v>
+        <v>278</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>361</v>
+        <v>434</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>362</v>
+        <v>435</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>290</v>
+        <v>363</v>
       </c>
       <c r="F20" s="24" t="s">
+        <v>436</v>
+      </c>
+      <c r="G20" s="22" t="s">
         <v>363</v>
       </c>
-      <c r="G20" s="22" t="s">
-        <v>290</v>
-      </c>
       <c r="H20" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="115.5">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="115.5">
       <c r="A21" t="s">
-        <v>234</v>
+        <v>296</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>365</v>
+        <v>438</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>366</v>
+        <v>439</v>
       </c>
       <c r="D21">
         <v>5</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>290</v>
+        <v>363</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>367</v>
+        <v>440</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>290</v>
+        <v>363</v>
       </c>
       <c r="H21" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="102.75">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="102.75">
       <c r="A22" t="s">
-        <v>241</v>
+        <v>304</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>369</v>
+        <v>442</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>370</v>
+        <v>443</v>
       </c>
       <c r="D22">
         <v>4</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>290</v>
+        <v>363</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>371</v>
+        <v>444</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>290</v>
+        <v>363</v>
       </c>
       <c r="H22" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="115.5">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="115.5">
       <c r="A23" t="s">
-        <v>257</v>
+        <v>325</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>373</v>
+        <v>446</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>374</v>
+        <v>447</v>
       </c>
       <c r="D23">
         <v>7</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>290</v>
+        <v>363</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>375</v>
+        <v>448</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>290</v>
+        <v>363</v>
       </c>
       <c r="H23" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="64.5">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="64.5">
       <c r="A24" t="s">
-        <v>269</v>
+        <v>339</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>377</v>
+        <v>450</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>378</v>
+        <v>451</v>
       </c>
       <c r="D24">
         <v>18</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>290</v>
+        <v>363</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>379</v>
+        <v>452</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>290</v>
+        <v>363</v>
       </c>
       <c r="H24" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="38.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="38.25">
       <c r="A25" t="s">
-        <v>272</v>
+        <v>343</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>288</v>
+        <v>361</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>381</v>
+        <v>454</v>
       </c>
       <c r="D25">
         <v>6</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>290</v>
+        <v>363</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>382</v>
+        <v>455</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>290</v>
+        <v>363</v>
       </c>
       <c r="H25" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="128.25">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="128.25">
       <c r="A26" t="s">
-        <v>276</v>
+        <v>348</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>384</v>
+        <v>457</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>385</v>
+        <v>458</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>290</v>
+        <v>363</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>386</v>
+        <v>459</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>290</v>
+        <v>363</v>
       </c>
       <c r="H26" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="B27" s="20"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:9">
       <c r="B28" s="21"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:9">
       <c r="B29" s="21"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:9">
       <c r="B30" s="20"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:9">
       <c r="B31" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
-          <x14:formula1>
-            <xm:f>'Listas y leyendas'!$F$2:$F$9</xm:f>
-          </x14:formula1>
-          <xm:sqref>A2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Entrada inválida" error="Seleccione un valor de la lista" promptTitle="Tipo de empresa" prompt="Seleccione un tipo de empresa" xr:uid="{00000000-0002-0000-0100-000001000000}">
-          <x14:formula1>
-            <xm:f>'Listas y leyendas'!$B$2:$B$21</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:D1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
+    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <g2:dataValidations xmlns:g2="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" count="2">
+        <g2:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+          <g2:formula1>
+            <g3:f xmlns:g3="http://schemas.microsoft.com/office/excel/2006/main">'Listas y leyendas'!$F$2:$F$9</g3:f>
+          </g2:formula1>
+          <g3:sqref xmlns:g3="http://schemas.microsoft.com/office/excel/2006/main">A2</g3:sqref>
+        </g2:dataValidation>
+        <g2:dataValidation allowBlank="1" error="Seleccione un valor de la lista" errorTitle="Entrada inválida" prompt="Seleccione un tipo de empresa" promptTitle="Tipo de empresa" showErrorMessage="1" showInputMessage="1" type="list">
+          <g2:formula1>
+            <g3:f xmlns:g3="http://schemas.microsoft.com/office/excel/2006/main">'Listas y leyendas'!$B$2:$B$21</g3:f>
+          </g2:formula1>
+          <g3:sqref xmlns:g3="http://schemas.microsoft.com/office/excel/2006/main">D2:D1048576</g3:sqref>
+        </g2:dataValidation>
+      </g2:dataValidations>
     </ext>
   </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14062" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="39.5703125" customWidth="1"/>
     <col min="5" max="5" width="30.85546875" customWidth="1"/>
@@ -4564,43 +5612,43 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75">
       <c r="A1" s="3" t="s">
-        <v>388</v>
+        <v>461</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>389</v>
+        <v>462</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5" t="s">
-        <v>390</v>
+        <v>463</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>389</v>
+        <v>462</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="6" t="s">
-        <v>391</v>
+        <v>464</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>389</v>
+        <v>462</v>
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="7" t="s">
-        <v>392</v>
+        <v>465</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>389</v>
+        <v>462</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>389</v>
+        <v>462</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75">
       <c r="A2" s="2" t="s">
-        <v>393</v>
+        <v>466</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -4608,27 +5656,27 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="2" t="s">
-        <v>394</v>
+        <v>467</v>
       </c>
       <c r="F2" s="2">
         <v>0</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="2" t="s">
-        <v>395</v>
+        <v>468</v>
       </c>
       <c r="I2" s="2">
         <v>0</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="2" t="s">
-        <v>396</v>
+        <v>469</v>
       </c>
       <c r="L2" s="2">
         <v>0</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>397</v>
+        <v>470</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
@@ -4636,7 +5684,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75">
       <c r="A3" s="2" t="s">
-        <v>398</v>
+        <v>471</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -4644,27 +5692,27 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="2" t="s">
-        <v>399</v>
+        <v>472</v>
       </c>
       <c r="F3" s="2">
         <v>1</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="2" t="s">
-        <v>400</v>
+        <v>473</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="2" t="s">
-        <v>401</v>
+        <v>474</v>
       </c>
       <c r="L3" s="2">
         <v>1</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>402</v>
+        <v>475</v>
       </c>
       <c r="O3" s="2">
         <v>1</v>
@@ -4672,7 +5720,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75">
       <c r="A4" s="2" t="s">
-        <v>403</v>
+        <v>476</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
@@ -4680,27 +5728,27 @@
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="2" t="s">
-        <v>404</v>
+        <v>477</v>
       </c>
       <c r="F4" s="2">
         <v>2</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="2" t="s">
-        <v>405</v>
+        <v>478</v>
       </c>
       <c r="I4" s="2">
         <v>2</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="2" t="s">
-        <v>406</v>
+        <v>479</v>
       </c>
       <c r="L4" s="2">
         <v>2</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>407</v>
+        <v>480</v>
       </c>
       <c r="O4" s="2">
         <v>2</v>
@@ -4708,7 +5756,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75">
       <c r="A5" s="2" t="s">
-        <v>408</v>
+        <v>481</v>
       </c>
       <c r="B5" s="2">
         <v>3</v>
@@ -4716,27 +5764,27 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="2" t="s">
-        <v>409</v>
+        <v>482</v>
       </c>
       <c r="F5" s="2">
         <v>3</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="2" t="s">
-        <v>410</v>
+        <v>483</v>
       </c>
       <c r="I5" s="2">
         <v>3</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="2" t="s">
-        <v>411</v>
+        <v>484</v>
       </c>
       <c r="L5" s="2">
         <v>3</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>412</v>
+        <v>485</v>
       </c>
       <c r="O5" s="2">
         <v>3</v>
@@ -4744,7 +5792,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75">
       <c r="A6" s="2" t="s">
-        <v>413</v>
+        <v>486</v>
       </c>
       <c r="B6" s="2">
         <v>4</v>
@@ -4752,27 +5800,27 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="2" t="s">
-        <v>414</v>
+        <v>487</v>
       </c>
       <c r="F6" s="2">
         <v>4</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="2" t="s">
-        <v>415</v>
+        <v>488</v>
       </c>
       <c r="I6" s="2">
         <v>4</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="2" t="s">
-        <v>416</v>
+        <v>489</v>
       </c>
       <c r="L6" s="2">
         <v>4</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>417</v>
+        <v>490</v>
       </c>
       <c r="O6" s="2">
         <v>4</v>
@@ -4780,7 +5828,7 @@
     </row>
     <row r="7" spans="1:15" ht="15.75">
       <c r="A7" s="2" t="s">
-        <v>418</v>
+        <v>491</v>
       </c>
       <c r="B7" s="2">
         <v>5</v>
@@ -4788,27 +5836,27 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="2" t="s">
-        <v>419</v>
+        <v>492</v>
       </c>
       <c r="F7" s="2">
         <v>5</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="2" t="s">
-        <v>420</v>
+        <v>493</v>
       </c>
       <c r="I7" s="2">
         <v>5</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="2" t="s">
-        <v>421</v>
+        <v>494</v>
       </c>
       <c r="L7" s="2">
         <v>5</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>422</v>
+        <v>495</v>
       </c>
       <c r="O7" s="2">
         <v>5</v>
@@ -4816,7 +5864,7 @@
     </row>
     <row r="8" spans="1:15" ht="15.75">
       <c r="A8" s="2" t="s">
-        <v>423</v>
+        <v>496</v>
       </c>
       <c r="B8" s="2">
         <v>6</v>
@@ -4824,27 +5872,27 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="2" t="s">
-        <v>424</v>
+        <v>497</v>
       </c>
       <c r="F8" s="2">
         <v>6</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="2" t="s">
-        <v>425</v>
+        <v>498</v>
       </c>
       <c r="I8" s="2">
         <v>6</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="2" t="s">
-        <v>426</v>
+        <v>499</v>
       </c>
       <c r="L8" s="2">
         <v>6</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>427</v>
+        <v>500</v>
       </c>
       <c r="O8" s="2">
         <v>6</v>
@@ -4852,7 +5900,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75">
       <c r="A9" s="2" t="s">
-        <v>428</v>
+        <v>501</v>
       </c>
       <c r="B9" s="2">
         <v>7</v>
@@ -4860,27 +5908,27 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="2" t="s">
-        <v>429</v>
+        <v>502</v>
       </c>
       <c r="F9" s="2">
         <v>7</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="2" t="s">
-        <v>430</v>
+        <v>503</v>
       </c>
       <c r="I9" s="2">
         <v>7</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="2" t="s">
-        <v>431</v>
+        <v>504</v>
       </c>
       <c r="L9" s="2">
         <v>7</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>432</v>
+        <v>505</v>
       </c>
       <c r="O9" s="2">
         <v>7</v>
@@ -4888,7 +5936,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75">
       <c r="A10" s="2" t="s">
-        <v>433</v>
+        <v>506</v>
       </c>
       <c r="B10" s="2">
         <v>8</v>
@@ -4899,20 +5947,20 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="2" t="s">
-        <v>434</v>
+        <v>507</v>
       </c>
       <c r="I10" s="2">
         <v>8</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="2" t="s">
-        <v>435</v>
+        <v>508</v>
       </c>
       <c r="L10" s="2">
         <v>8</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>436</v>
+        <v>509</v>
       </c>
       <c r="O10" s="2">
         <v>8</v>
@@ -4920,7 +5968,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75">
       <c r="A11" s="2" t="s">
-        <v>437</v>
+        <v>510</v>
       </c>
       <c r="B11" s="2">
         <v>9</v>
@@ -4931,14 +5979,14 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="2" t="s">
-        <v>438</v>
+        <v>511</v>
       </c>
       <c r="I11" s="2">
         <v>9</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="2" t="s">
-        <v>439</v>
+        <v>512</v>
       </c>
       <c r="L11" s="2">
         <v>9</v>
@@ -4946,7 +5994,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.75">
       <c r="A12" s="2" t="s">
-        <v>440</v>
+        <v>513</v>
       </c>
       <c r="B12" s="2">
         <v>10</v>
@@ -4957,14 +6005,14 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="2" t="s">
-        <v>441</v>
+        <v>514</v>
       </c>
       <c r="I12" s="2">
         <v>10</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="2" t="s">
-        <v>442</v>
+        <v>515</v>
       </c>
       <c r="L12" s="2">
         <v>10</v>
@@ -4972,7 +6020,7 @@
     </row>
     <row r="13" spans="1:15" ht="15.75">
       <c r="A13" s="2" t="s">
-        <v>443</v>
+        <v>516</v>
       </c>
       <c r="B13" s="2">
         <v>11</v>
@@ -4983,14 +6031,14 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="2" t="s">
-        <v>444</v>
+        <v>517</v>
       </c>
       <c r="I13" s="2">
         <v>11</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="2" t="s">
-        <v>445</v>
+        <v>518</v>
       </c>
       <c r="L13" s="2">
         <v>11</v>
@@ -4998,7 +6046,7 @@
     </row>
     <row r="14" spans="1:15" ht="15.75">
       <c r="A14" s="2" t="s">
-        <v>446</v>
+        <v>519</v>
       </c>
       <c r="B14" s="2">
         <v>12</v>
@@ -5009,14 +6057,14 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="2" t="s">
-        <v>447</v>
+        <v>520</v>
       </c>
       <c r="I14" s="2">
         <v>12</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="2" t="s">
-        <v>448</v>
+        <v>521</v>
       </c>
       <c r="L14" s="2">
         <v>12</v>
@@ -5024,7 +6072,7 @@
     </row>
     <row r="15" spans="1:15" ht="15.75">
       <c r="A15" s="2" t="s">
-        <v>449</v>
+        <v>522</v>
       </c>
       <c r="B15" s="2">
         <v>13</v>
@@ -5035,14 +6083,14 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="2" t="s">
-        <v>450</v>
+        <v>523</v>
       </c>
       <c r="I15" s="2">
         <v>13</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="2" t="s">
-        <v>451</v>
+        <v>524</v>
       </c>
       <c r="L15" s="2">
         <v>13</v>
@@ -5050,7 +6098,7 @@
     </row>
     <row r="16" spans="1:15" ht="15.75">
       <c r="A16" s="2" t="s">
-        <v>452</v>
+        <v>525</v>
       </c>
       <c r="B16" s="2">
         <v>14</v>
@@ -5061,22 +6109,22 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="2" t="s">
-        <v>453</v>
+        <v>526</v>
       </c>
       <c r="I16" s="2">
         <v>14</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="2" t="s">
-        <v>454</v>
+        <v>527</v>
       </c>
       <c r="L16" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75">
+    <row r="17" spans="1:15" ht="15.75">
       <c r="A17" s="2" t="s">
-        <v>455</v>
+        <v>528</v>
       </c>
       <c r="B17" s="2">
         <v>15</v>
@@ -5087,7 +6135,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="2" t="s">
-        <v>456</v>
+        <v>529</v>
       </c>
       <c r="I17" s="2">
         <v>15</v>
@@ -5096,9 +6144,9 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" ht="15.75">
+    <row r="18" spans="1:15" ht="15.75">
       <c r="A18" s="2" t="s">
-        <v>457</v>
+        <v>530</v>
       </c>
       <c r="B18" s="2">
         <v>16</v>
@@ -5114,9 +6162,9 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" ht="15.75">
+    <row r="19" spans="1:15" ht="15.75">
       <c r="A19" s="2" t="s">
-        <v>458</v>
+        <v>531</v>
       </c>
       <c r="B19" s="2">
         <v>17</v>
@@ -5132,9 +6180,9 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" ht="15.75">
+    <row r="20" spans="1:15" ht="15.75">
       <c r="A20" s="2" t="s">
-        <v>459</v>
+        <v>532</v>
       </c>
       <c r="B20" s="2">
         <v>18</v>
@@ -5150,9 +6198,9 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" ht="15.75">
+    <row r="21" spans="1:15" ht="15.75">
       <c r="A21" s="2" t="s">
-        <v>460</v>
+        <v>533</v>
       </c>
       <c r="B21" s="2">
         <v>19</v>

--- a/MyProject2/Content/Excels/Socios.xlsx
+++ b/MyProject2/Content/Excels/Socios.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan\Desktop\Secpholand_Win64_0.6.18_EXPERIMENTAL\MyProject2\Content\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4965" yWindow="3750" windowWidth="28800" windowHeight="15435"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Registro de usuarios" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="604">
   <si>
     <t>Nomre y apellidos</t>
   </si>
@@ -47,16 +47,16 @@
     <t>Ambitos</t>
   </si>
   <si>
-    <t>Genero</t>
-  </si>
-  <si>
-    <t>Username</t>
+    <t>Tipo cuerpo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Username </t>
   </si>
   <si>
     <t>PW Generado</t>
   </si>
   <si>
-    <t>Susana Marcos Marcos</t>
+    <t xml:space="preserve">Susana Marcos </t>
   </si>
   <si>
     <t>Co-Founder</t>
@@ -77,7 +77,7 @@
     <t>F</t>
   </si>
   <si>
-    <t>susanamarcosmarcos1</t>
+    <t>susanamarcos</t>
   </si>
   <si>
     <t>Cándido Guerrero</t>
@@ -86,16 +86,13 @@
     <t>CFO</t>
   </si>
   <si>
-    <t>2EyesVision</t>
-  </si>
-  <si>
     <t>cguerrero@2eyesvision.com</t>
   </si>
   <si>
     <t>M</t>
   </si>
   <si>
-    <t>susanamarcosmarcos2</t>
+    <t>candidoguerrero</t>
   </si>
   <si>
     <t>Enrique Gambra</t>
@@ -107,7 +104,7 @@
     <t>egambra@2eyesvision.com</t>
   </si>
   <si>
-    <t>susanamarcosmarcos3</t>
+    <t>enriquegambra</t>
   </si>
   <si>
     <t>Álvaro Sánchez-Lozano</t>
@@ -119,7 +116,7 @@
     <t>alvaro@2eyesvision.com</t>
   </si>
   <si>
-    <t>susanamarcosmarcos4</t>
+    <t>alvarosanchez</t>
   </si>
   <si>
     <t>Carlos Dorronsoro</t>
@@ -131,7 +128,7 @@
     <t>cdorronsoro@2eyesvision.com</t>
   </si>
   <si>
-    <t>susanamarcosmarcos5</t>
+    <t>carlosdorronsoro</t>
   </si>
   <si>
     <t>Patricia Blanco</t>
@@ -155,7 +152,7 @@
     <t>0+1+4+5+6</t>
   </si>
   <si>
-    <t>susanamarcosmarcos6</t>
+    <t>patriciablanco</t>
   </si>
   <si>
     <t>Ambroise Vandewynckèle</t>
@@ -167,7 +164,7 @@
     <t>ambroise@aimen.es</t>
   </si>
   <si>
-    <t>susanamarcosmarcos7</t>
+    <t>ambroisevandewynckele</t>
   </si>
   <si>
     <t>Pablo Romero</t>
@@ -179,7 +176,7 @@
     <t>promero@aimen.es</t>
   </si>
   <si>
-    <t>susanamarcosmarcos8</t>
+    <t>pabloromero</t>
   </si>
   <si>
     <t>Félix Ares Blanco</t>
@@ -194,10 +191,10 @@
     <t>1+4</t>
   </si>
   <si>
-    <t>susanamarcosmarcos9</t>
-  </si>
-  <si>
-    <t>David Diego Vallejo</t>
+    <t>felixaresblanco</t>
+  </si>
+  <si>
+    <t>David Diego-Vallejo</t>
   </si>
   <si>
     <t>Técnico</t>
@@ -206,10 +203,10 @@
     <t>david.diego@aimen.es</t>
   </si>
   <si>
-    <t>susanamarcosmarcos10</t>
-  </si>
-  <si>
-    <t>Ricardo Díaz Pujol</t>
+    <t>diegovallejo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ricardo Díaz </t>
   </si>
   <si>
     <t>Jefe Departamento Automatización Inteligente</t>
@@ -230,10 +227,10 @@
     <t>0+1+3+4+7</t>
   </si>
   <si>
-    <t>susanamarcosmarcos11</t>
-  </si>
-  <si>
-    <t>Edgar Llop Gozalbo</t>
+    <t>ricardodiaz</t>
+  </si>
+  <si>
+    <t>Edgar Llop</t>
   </si>
   <si>
     <t>Project Manager</t>
@@ -242,7 +239,7 @@
     <t>ellop@ainia.es</t>
   </si>
   <si>
-    <t>susanamarcosmarcos12</t>
+    <t>edgarllop</t>
   </si>
   <si>
     <t>Eliseo Villanueva</t>
@@ -254,7 +251,7 @@
     <t>evillanueva@ainia.es</t>
   </si>
   <si>
-    <t>susanamarcosmarcos13</t>
+    <t>eliseovillanueva</t>
   </si>
   <si>
     <t>Sergio Arroniz</t>
@@ -269,7 +266,7 @@
     <t>sarroniz@grupoalava.com</t>
   </si>
   <si>
-    <t>susanamarcosmarcos14</t>
+    <t>sergioarroniz</t>
   </si>
   <si>
     <t>Basilio Mena</t>
@@ -281,7 +278,7 @@
     <t>bmena@grupoalava.com</t>
   </si>
   <si>
-    <t>susanamarcosmarcos15</t>
+    <t>basiliomena</t>
   </si>
   <si>
     <t>Yago Sánchez</t>
@@ -293,10 +290,10 @@
     <t>ysanchez@grupoalava.com</t>
   </si>
   <si>
-    <t>susanamarcosmarcos16</t>
-  </si>
-  <si>
-    <t>Juan Antonio Gil Sanza</t>
+    <t>yagosanchez</t>
+  </si>
+  <si>
+    <t>Juan Antonio Gil</t>
   </si>
   <si>
     <t>Corporate key Account Manager Automotive</t>
@@ -305,7 +302,7 @@
     <t>jagil@grupoalava.com</t>
   </si>
   <si>
-    <t>susanamarcosmarcos17</t>
+    <t>juanantoniogil</t>
   </si>
   <si>
     <t>Sergio García</t>
@@ -317,10 +314,10 @@
     <t>sgfernandez@grupoalava.com</t>
   </si>
   <si>
-    <t>susanamarcosmarcos18</t>
-  </si>
-  <si>
-    <t>Cristina González Rodríguez</t>
+    <t>sergiogarcia</t>
+  </si>
+  <si>
+    <t>Cristina González</t>
   </si>
   <si>
     <t>Directora de Área Imagen, Fotónica y Nanotecnología</t>
@@ -329,10 +326,10 @@
     <t>cgonzalez@grupoalava.com</t>
   </si>
   <si>
-    <t>susanamarcosmarcos19</t>
-  </si>
-  <si>
-    <t>Tatiana Ledesma Blanco</t>
+    <t>cristinagonzalez</t>
+  </si>
+  <si>
+    <t>Tatiana Ledesma</t>
   </si>
   <si>
     <t>Directora de Marketing</t>
@@ -341,7 +338,7 @@
     <t>tledesma@grupoalava.com</t>
   </si>
   <si>
-    <t>susanamarcosmarcos20</t>
+    <t>tatianaledesma</t>
   </si>
   <si>
     <t>Héctor Cordal</t>
@@ -353,7 +350,7 @@
     <t>hcordal@grupoalava.com</t>
   </si>
   <si>
-    <t>susanamarcosmarcos21</t>
+    <t>hectorcordal</t>
   </si>
   <si>
     <t>Antonio Castelo</t>
@@ -365,7 +362,7 @@
     <t>acastelo@grupoalava.com</t>
   </si>
   <si>
-    <t>susanamarcosmarcos22</t>
+    <t>antoniocastelo</t>
   </si>
   <si>
     <t>Jose Maria Almazan</t>
@@ -377,7 +374,7 @@
     <t>jmalmazan@grupoalava.com</t>
   </si>
   <si>
-    <t>susanamarcosmarcos23</t>
+    <t>josemariaalmazan</t>
   </si>
   <si>
     <t>Ana Belén Martínez</t>
@@ -392,7 +389,7 @@
     <t>amartinez@cells.es</t>
   </si>
   <si>
-    <t>susanamarcosmarcos24</t>
+    <t>anabelenmartínez</t>
   </si>
   <si>
     <t>Alejandro Sánchez</t>
@@ -404,7 +401,7 @@
     <t>asanchez@cells.es</t>
   </si>
   <si>
-    <t>susanamarcosmarcos25</t>
+    <t>alejandrosanchez</t>
   </si>
   <si>
     <t>Núria Valls</t>
@@ -416,7 +413,7 @@
     <t>nvalls@cells.es</t>
   </si>
   <si>
-    <t>susanamarcosmarcos26</t>
+    <t>nuriavalls</t>
   </si>
   <si>
     <t>Marta Ávila</t>
@@ -428,10 +425,10 @@
     <t>mavila@cells.es</t>
   </si>
   <si>
-    <t>susanamarcosmarcos27</t>
-  </si>
-  <si>
-    <t>Jimena Garcia Romeu</t>
+    <t>martaavila</t>
+  </si>
+  <si>
+    <t>Jimena García Romeu</t>
   </si>
   <si>
     <t>Alcyon photonics</t>
@@ -440,7 +437,7 @@
     <t>jimena.garciaromeu@alcyonphotonics.com</t>
   </si>
   <si>
-    <t>susanamarcosmarcos28</t>
+    <t>jimenagarcia</t>
   </si>
   <si>
     <t>Antonio Dias</t>
@@ -452,7 +449,7 @@
     <t>antonio.dias@alcyonphotonics.com</t>
   </si>
   <si>
-    <t>susanamarcosmarcos29</t>
+    <t>antoniodias</t>
   </si>
   <si>
     <t>Aitor Villafranca</t>
@@ -464,7 +461,7 @@
     <t>a.villafranca@csic.es</t>
   </si>
   <si>
-    <t>susanamarcosmarcos30</t>
+    <t>aitorvillafranca</t>
   </si>
   <si>
     <t>Miguel  Silva-Constenla</t>
@@ -479,7 +476,7 @@
     <t>miguel@allread.ai</t>
   </si>
   <si>
-    <t>susanamarcosmarcos31</t>
+    <t>miguelsilva</t>
   </si>
   <si>
     <t>Adriaan  Landman</t>
@@ -491,7 +488,7 @@
     <t>adriaan@allread.ai</t>
   </si>
   <si>
-    <t>susanamarcosmarcos32</t>
+    <t>adriaanlandman</t>
   </si>
   <si>
     <t>Demetrio López</t>
@@ -515,7 +512,7 @@
     <t>0+1+4+5+6+8</t>
   </si>
   <si>
-    <t>susanamarcosmarcos33</t>
+    <t>demetriolopez</t>
   </si>
   <si>
     <t>Marcia Arizaga</t>
@@ -527,7 +524,7 @@
     <t>marcia.arizaga@altertechnology.com</t>
   </si>
   <si>
-    <t>susanamarcosmarcos34</t>
+    <t>marciaarizaga</t>
   </si>
   <si>
     <t>Jose Ramon Vigil</t>
@@ -539,7 +536,7 @@
     <t>jvigil@alteriaautomation.com</t>
   </si>
   <si>
-    <t>susanamarcosmarcos35</t>
+    <t>joseramonvigil</t>
   </si>
   <si>
     <t>Mario Alfonso</t>
@@ -551,10 +548,10 @@
     <t>malfonso@alteriaautomation.com</t>
   </si>
   <si>
-    <t>susanamarcosmarcos36</t>
-  </si>
-  <si>
-    <t>Bartolomé Morales Vázquez</t>
+    <t>marioalfonso</t>
+  </si>
+  <si>
+    <t>Bartolomé Morales</t>
   </si>
   <si>
     <t>Outside Sales Manager</t>
@@ -566,7 +563,7 @@
     <t>bmoralesvazquez@amstechnologies.com</t>
   </si>
   <si>
-    <t>susanamarcosmarcos37</t>
+    <t>bartolomemorales</t>
   </si>
   <si>
     <t>Sara Calomarde</t>
@@ -578,10 +575,10 @@
     <t>scalomarde@amstechnologies.com</t>
   </si>
   <si>
-    <t>susanamarcosmarcos38</t>
-  </si>
-  <si>
-    <t>Iker García Esteban-Barcina</t>
+    <t>saracalomarde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iker García </t>
   </si>
   <si>
     <t xml:space="preserve">Aotech </t>
@@ -590,7 +587,7 @@
     <t>igarcia@aotech.es</t>
   </si>
   <si>
-    <t>susanamarcosmarcos39</t>
+    <t>ikergarcia</t>
   </si>
   <si>
     <t>Vanesa Garcia</t>
@@ -602,7 +599,7 @@
     <t>administracion@aotech.es</t>
   </si>
   <si>
-    <t>susanamarcosmarcos40</t>
+    <t>vanesagarcia</t>
   </si>
   <si>
     <t>Asier Villafranca</t>
@@ -614,7 +611,7 @@
     <t>a.villafranca@aragonphotonics.com</t>
   </si>
   <si>
-    <t>susanamarcosmarcos41</t>
+    <t>asiervillafranca</t>
   </si>
   <si>
     <t>Ricardo Arias</t>
@@ -626,7 +623,7 @@
     <t>r.arias@aragonphotonics.com</t>
   </si>
   <si>
-    <t>susanamarcosmarcos42</t>
+    <t>ricardoarias</t>
   </si>
   <si>
     <t>Antonio Sanchez</t>
@@ -650,7 +647,7 @@
     <t>0+1+5+6</t>
   </si>
   <si>
-    <t>susanamarcosmarcos43</t>
+    <t>antoniosanchez</t>
   </si>
   <si>
     <t>Josep Maria Sanchez</t>
@@ -662,7 +659,7 @@
     <t>jmsanchez@asorcad.es</t>
   </si>
   <si>
-    <t>susanamarcosmarcos44</t>
+    <t>josepmariasanchez</t>
   </si>
   <si>
     <t>Rosa Alonso</t>
@@ -671,7 +668,7 @@
     <t>dircom@asorcad.es</t>
   </si>
   <si>
-    <t>susanamarcosmarcos45</t>
+    <t>rosaalonso</t>
   </si>
   <si>
     <t>Elena Martinez</t>
@@ -692,7 +689,7 @@
     <t>0+1+5+6+7</t>
   </si>
   <si>
-    <t>susanamarcosmarcos46</t>
+    <t>elenamartinez</t>
   </si>
   <si>
     <t>Rosa Castillón</t>
@@ -704,7 +701,7 @@
     <t>rosa.castillon@atriainnovation.com</t>
   </si>
   <si>
-    <t>susanamarcosmarcos47</t>
+    <t>rosacastillon</t>
   </si>
   <si>
     <t>Jaume Castellà</t>
@@ -728,7 +725,7 @@
     <t>0+1+3</t>
   </si>
   <si>
-    <t>susanamarcosmarcos48</t>
+    <t>jaumecastella</t>
   </si>
   <si>
     <t>Miguel Ares Rodríguez</t>
@@ -743,7 +740,7 @@
     <t>miguel.ares@upc.edu</t>
   </si>
   <si>
-    <t>susanamarcosmarcos49</t>
+    <t>miguelares</t>
   </si>
   <si>
     <t>Mikel Bengoa</t>
@@ -767,10 +764,10 @@
     <t>0+1+3+5+6</t>
   </si>
   <si>
-    <t>susanamarcosmarcos50</t>
-  </si>
-  <si>
-    <t>Sandra Mosquera Vazquez</t>
+    <t>mikelbengoa</t>
+  </si>
+  <si>
+    <t>Sandra Mosquera</t>
   </si>
   <si>
     <t>Area Sales Manager Scientific Spain/Portugal</t>
@@ -779,7 +776,7 @@
     <t>sandra.mosquera@coherent.com</t>
   </si>
   <si>
-    <t>susanamarcosmarcos51</t>
+    <t>sandramosquera</t>
   </si>
   <si>
     <t>Eva Fité</t>
@@ -803,10 +800,10 @@
     <t>0+6</t>
   </si>
   <si>
-    <t>susanamarcosmarcos52</t>
-  </si>
-  <si>
-    <t>David Castrillo Sanz</t>
+    <t>evafite</t>
+  </si>
+  <si>
+    <t>David Castrillo</t>
   </si>
   <si>
     <t>Area Manager Spain-Portugal</t>
@@ -827,7 +824,7 @@
     <t>0+1+2+3+4+5+6+7+8</t>
   </si>
   <si>
-    <t>susanamarcosmarcos53</t>
+    <t>davidcastrillo</t>
   </si>
   <si>
     <t>Victor Bernardo</t>
@@ -839,16 +836,16 @@
     <t>vbernardo@hamamatsu.es</t>
   </si>
   <si>
-    <t>susanamarcosmarcos54</t>
-  </si>
-  <si>
-    <t>Jordi Sobrino Gil</t>
+    <t>victorbernardo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordi Sobrino </t>
   </si>
   <si>
     <t>jsobrino@hamamatsu.es</t>
   </si>
   <si>
-    <t>susanamarcosmarcos55</t>
+    <t>jordisobrino</t>
   </si>
   <si>
     <t>Sergi Ferrando</t>
@@ -866,7 +863,7 @@
     <t>0+1+2+3+4+5+7+8+12+13+14</t>
   </si>
   <si>
-    <t>susanamarcosmarcos56</t>
+    <t>sergiferrando</t>
   </si>
   <si>
     <t>Silvia Carrasco</t>
@@ -878,7 +875,7 @@
     <t>silvia.carrasco@icfo.es</t>
   </si>
   <si>
-    <t>susanamarcosmarcos57</t>
+    <t>silviacarrasco</t>
   </si>
   <si>
     <t>Martina Giovannella</t>
@@ -890,7 +887,7 @@
     <t>martina.giovannella@icfo.eu</t>
   </si>
   <si>
-    <t>susanamarcosmarcos58</t>
+    <t>martinagiovannella</t>
   </si>
   <si>
     <t>Alfredo Ongaro</t>
@@ -902,10 +899,10 @@
     <t>alfredo.ongaro@icfo.eu</t>
   </si>
   <si>
-    <t>susanamarcosmarcos59</t>
-  </si>
-  <si>
-    <t>Ramon Sans Ravellat</t>
+    <t>alfredoongaro</t>
+  </si>
+  <si>
+    <t>Ramon Sans</t>
   </si>
   <si>
     <t>Director I+D</t>
@@ -926,7 +923,7 @@
     <t>0+3+7</t>
   </si>
   <si>
-    <t>susanamarcosmarcos60</t>
+    <t>ramonsans</t>
   </si>
   <si>
     <t>Oscar Ciordia</t>
@@ -947,10 +944,10 @@
     <t>2+5+8</t>
   </si>
   <si>
-    <t>susanamarcosmarcos61</t>
-  </si>
-  <si>
-    <t>Fernando Barbero Díaz</t>
+    <t>oscarciordia</t>
+  </si>
+  <si>
+    <t>Fernando Barbero</t>
   </si>
   <si>
     <t>Adjunto de Dirección Técnica I+D</t>
@@ -959,7 +956,7 @@
     <t>fernando.barbero@kdpof.com</t>
   </si>
   <si>
-    <t>susanamarcosmarcos62</t>
+    <t>fernandobarbero</t>
   </si>
   <si>
     <t>Ruben Pérez</t>
@@ -968,7 +965,7 @@
     <t>rubenpda@kdpof.com</t>
   </si>
   <si>
-    <t>susanamarcosmarcos63</t>
+    <t>rubenperez</t>
   </si>
   <si>
     <t>Cesar Esteban</t>
@@ -980,7 +977,7 @@
     <t>cesar.esteban@kdpof.com</t>
   </si>
   <si>
-    <t>susanamarcosmarcos64</t>
+    <t>cesaresteban</t>
   </si>
   <si>
     <t>Joaquín Cantos</t>
@@ -992,7 +989,7 @@
     <t>joaquin.cantos@kdpof.com</t>
   </si>
   <si>
-    <t>susanamarcosmarcos65</t>
+    <t>joaquincantos</t>
   </si>
   <si>
     <t>Ramon Villanova</t>
@@ -1013,7 +1010,7 @@
     <t>0+2+3+4+6+7</t>
   </si>
   <si>
-    <t>susanamarcosmarcos66</t>
+    <t>ramonvillanova</t>
   </si>
   <si>
     <t>Youcef Lebour</t>
@@ -1034,7 +1031,7 @@
     <t>0+3+5</t>
   </si>
   <si>
-    <t>susanamarcosmarcos67</t>
+    <t>youceflebour</t>
   </si>
   <si>
     <t>Jose Mª Silvestre</t>
@@ -1046,10 +1043,10 @@
     <t>jose.m.silvestre@procarelight.com</t>
   </si>
   <si>
-    <t>susanamarcosmarcos68</t>
-  </si>
-  <si>
-    <t>Ricardo Rodriguez Rodriguez</t>
+    <t>josepmariasilvestre</t>
+  </si>
+  <si>
+    <t>Ricardo Rodriguez</t>
   </si>
   <si>
     <t>Suigéneris</t>
@@ -1058,7 +1055,7 @@
     <t>ricardo@isuigeneris.es</t>
   </si>
   <si>
-    <t>susanamarcosmarcos69</t>
+    <t>ricardorodriguez</t>
   </si>
   <si>
     <t>David Gómez Plaza</t>
@@ -1076,7 +1073,7 @@
     <t>0+5+6+7+8</t>
   </si>
   <si>
-    <t>susanamarcosmarcos70</t>
+    <t>davidgomez</t>
   </si>
   <si>
     <t>Name</t>
@@ -1730,214 +1727,217 @@
     <t>Administración pública</t>
   </si>
   <si>
-    <t>hy=M7PNLkIJz</t>
-  </si>
-  <si>
-    <t>D3E2@?&gt;]cqYt</t>
-  </si>
-  <si>
-    <t>H^30g`Yjuxhd</t>
-  </si>
-  <si>
-    <t>s8o75xE8Cx4D</t>
-  </si>
-  <si>
-    <t>;pjNVx:4h5Qz</t>
-  </si>
-  <si>
-    <t>^g&gt;uqTADcK\s</t>
-  </si>
-  <si>
-    <t>]s_3UDpDtFUs</t>
-  </si>
-  <si>
-    <t>WRF\4SRS7899</t>
-  </si>
-  <si>
-    <t>Jq25TQ?5ans]</t>
-  </si>
-  <si>
-    <t>yZVg6&lt;8tf?E_</t>
-  </si>
-  <si>
-    <t>8oXTuQLZ[KYa</t>
-  </si>
-  <si>
-    <t>]4jaOoWebgUt</t>
-  </si>
-  <si>
-    <t>dP[IJs1:D=xw</t>
-  </si>
-  <si>
-    <t>VuYfcTjV&lt;KnX</t>
-  </si>
-  <si>
-    <t>hkkkqBG1YlO]</t>
-  </si>
-  <si>
-    <t>qKWqbL3atPWN</t>
-  </si>
-  <si>
-    <t>7QzckH@&lt;qppJ</t>
-  </si>
-  <si>
-    <t>x=&lt;w&lt;KA&lt;xGTG</t>
-  </si>
-  <si>
-    <t>1Uu:v@anFh9C</t>
-  </si>
-  <si>
-    <t>0&lt;@9wxzL^=]R</t>
-  </si>
-  <si>
-    <t>YyNq8fqahYgV</t>
-  </si>
-  <si>
-    <t>i:U25j?mgiXQ</t>
-  </si>
-  <si>
-    <t>lD18QFP3YWTk</t>
-  </si>
-  <si>
-    <t>G&gt;97phF4d`Jy</t>
-  </si>
-  <si>
-    <t>2205tO@&gt;]k9x</t>
-  </si>
-  <si>
-    <t>HE8uR2XWdzrS</t>
-  </si>
-  <si>
-    <t>&gt;6^VAS_@S5@2</t>
-  </si>
-  <si>
-    <t>bCn3ZctVD5??</t>
-  </si>
-  <si>
-    <t>^ZvZ?jYOpiR[</t>
-  </si>
-  <si>
-    <t>pALPDEU3;UIW</t>
-  </si>
-  <si>
-    <t>E@:0Sb5hQBdw</t>
-  </si>
-  <si>
-    <t>Ue\?84ZQLiq_</t>
-  </si>
-  <si>
-    <t>5MMpsAru7Q_f</t>
-  </si>
-  <si>
-    <t>I6z7\ukyjX6&gt;</t>
-  </si>
-  <si>
-    <t>Z4T`maftxyL;</t>
-  </si>
-  <si>
-    <t>RqHF&lt;em5D:=f</t>
-  </si>
-  <si>
-    <t>qr=3vVQ&lt;S1dr</t>
-  </si>
-  <si>
-    <t>;tJ9qYi&gt;S[l`</t>
-  </si>
-  <si>
-    <t>wA&gt;509em;Da=</t>
-  </si>
-  <si>
-    <t>\XV3vEd:_89d</t>
-  </si>
-  <si>
-    <t>FwuUzuiLuC3t</t>
-  </si>
-  <si>
-    <t>@s_Dh;x?tpYO</t>
-  </si>
-  <si>
-    <t>Y?hg`J27Sdyb</t>
-  </si>
-  <si>
-    <t>4s@Aw&gt;ds3pvn</t>
-  </si>
-  <si>
-    <t>fubjtKCJ_38D</t>
-  </si>
-  <si>
-    <t>^&gt;[U?]yohAV:</t>
-  </si>
-  <si>
-    <t>fQMgOp&gt;7]bOB</t>
-  </si>
-  <si>
-    <t>nYS=:6qPSkHd</t>
-  </si>
-  <si>
-    <t>2Qm=W5K&lt;T?BQ</t>
-  </si>
-  <si>
-    <t>gKWIrbTmA9oZ</t>
-  </si>
-  <si>
-    <t>^r4Xo0`M&lt;waO</t>
-  </si>
-  <si>
-    <t>n4r6A62LQ@:^</t>
-  </si>
-  <si>
-    <t>KCD`ZiAMQnes</t>
-  </si>
-  <si>
-    <t>vq1?DqxIIWe[</t>
-  </si>
-  <si>
-    <t>YPu55wvtpl56</t>
-  </si>
-  <si>
-    <t>gPjyXO^&lt;eATF</t>
-  </si>
-  <si>
-    <t>oEc416tiegS@</t>
-  </si>
-  <si>
-    <t>Pd5e[`48[UEV</t>
-  </si>
-  <si>
-    <t>M3UTbEOc4oOw</t>
-  </si>
-  <si>
-    <t>h;do^YZ6Di?`</t>
-  </si>
-  <si>
-    <t>O9E_7@h8JN:v</t>
-  </si>
-  <si>
-    <t>=xc=eXSr]Vsi</t>
-  </si>
-  <si>
-    <t>iPg8nTIf9h\3</t>
-  </si>
-  <si>
-    <t>^2`R@nx&gt;wZMX</t>
-  </si>
-  <si>
-    <t>&gt;KUa4Yi=OsYj</t>
-  </si>
-  <si>
-    <t>&lt;Hl0sw5xT50=</t>
-  </si>
-  <si>
-    <t>^9W5hsFx]Fia</t>
-  </si>
-  <si>
-    <t>M4kRVVR:kUYI</t>
-  </si>
-  <si>
-    <t>[?HJA5y[ilCT</t>
-  </si>
-  <si>
-    <t>WPKjgALPFV7y</t>
+    <t>X</t>
+  </si>
+  <si>
+    <t>8eUBY7AUET_P</t>
+  </si>
+  <si>
+    <t>z8nsyh^&gt;lxpI</t>
+  </si>
+  <si>
+    <t>eVJ7fTNqr3bW</t>
+  </si>
+  <si>
+    <t>_[OSGev30mXI</t>
+  </si>
+  <si>
+    <t>=a=nt5oEejw3</t>
+  </si>
+  <si>
+    <t>S^5Xz;qIalfr</t>
+  </si>
+  <si>
+    <t>PoL=oxEvOGxi</t>
+  </si>
+  <si>
+    <t>WV3ymqMoi[?h</t>
+  </si>
+  <si>
+    <t>d\xZVLj:^_&gt;K</t>
+  </si>
+  <si>
+    <t>D0ZksFRpa@l9</t>
+  </si>
+  <si>
+    <t>X;C&lt;IoEa5@3D</t>
+  </si>
+  <si>
+    <t>YWu`tQDyaXKs</t>
+  </si>
+  <si>
+    <t>oO3pxk?jJaH9</t>
+  </si>
+  <si>
+    <t>1ep&lt;Aw&gt;UPStq</t>
+  </si>
+  <si>
+    <t>Ab=vWYMK&gt;0^m</t>
+  </si>
+  <si>
+    <t>8mzm^YK@MD0V</t>
+  </si>
+  <si>
+    <t>95^VAx[AS49b</t>
+  </si>
+  <si>
+    <t>&gt;49CoLxMd]bK</t>
+  </si>
+  <si>
+    <t>b4Z\;KFifGmH</t>
+  </si>
+  <si>
+    <t>\c5E@hvu2m\h</t>
+  </si>
+  <si>
+    <t>cN&gt;dD=FFXwt2</t>
+  </si>
+  <si>
+    <t>W_@4eZLDJ?&lt;]</t>
+  </si>
+  <si>
+    <t>H46EwKK1S1FZ</t>
+  </si>
+  <si>
+    <t>0KZg\=sj4PgX</t>
+  </si>
+  <si>
+    <t>no7Ly_d`?Uyb</t>
+  </si>
+  <si>
+    <t>IwyFoXkzYgvm</t>
+  </si>
+  <si>
+    <t>_20Np2RUeht@</t>
+  </si>
+  <si>
+    <t>6y_:E3=`qiG`</t>
+  </si>
+  <si>
+    <t>H_&lt;zbiPX[0oH</t>
+  </si>
+  <si>
+    <t>HNv6qmr`l;uX</t>
+  </si>
+  <si>
+    <t>xqH@dV1\N3xi</t>
+  </si>
+  <si>
+    <t>qX\3Ev?KF&gt;tj</t>
+  </si>
+  <si>
+    <t>bE=Mr_5c[NKq</t>
+  </si>
+  <si>
+    <t>JsL&lt;Ly4&lt;wB4\</t>
+  </si>
+  <si>
+    <t>Pv&gt;a45@]MADL</t>
+  </si>
+  <si>
+    <t>2hM;?ISngPXq</t>
+  </si>
+  <si>
+    <t>akMUsG\MfEmG</t>
+  </si>
+  <si>
+    <t>6?7?LO\Qoc]k</t>
+  </si>
+  <si>
+    <t>wlccB=72FO6e</t>
+  </si>
+  <si>
+    <t>K[1e^kL^]nOe</t>
+  </si>
+  <si>
+    <t>fXqZyJC=lxKZ</t>
+  </si>
+  <si>
+    <t>YF81V[Q=M6]g</t>
+  </si>
+  <si>
+    <t>X&gt;F[5et`Km9\</t>
+  </si>
+  <si>
+    <t>eXXH[S=GxIi&lt;</t>
+  </si>
+  <si>
+    <t>5fmnK7MeuvDR</t>
+  </si>
+  <si>
+    <t>&gt;YoMIZ6ZWZ8k</t>
+  </si>
+  <si>
+    <t>F7dwv1_7;FuF</t>
+  </si>
+  <si>
+    <t>0Mw8xE2QPm5T</t>
+  </si>
+  <si>
+    <t>W_=HLj\aO:cM</t>
+  </si>
+  <si>
+    <t>Qfu9M&gt;MPRjXA</t>
+  </si>
+  <si>
+    <t>n@F7DgDE_oXC</t>
+  </si>
+  <si>
+    <t>rA3\`tForLUq</t>
+  </si>
+  <si>
+    <t>UYBtTR@Z[eMC</t>
+  </si>
+  <si>
+    <t>vH[TM]e1bdDf</t>
+  </si>
+  <si>
+    <t>Z3`96uyn7fQc</t>
+  </si>
+  <si>
+    <t>6jRL:6QcpCzY</t>
+  </si>
+  <si>
+    <t>EEHz1hanRiq]</t>
+  </si>
+  <si>
+    <t>?8X^hN:XUggA</t>
+  </si>
+  <si>
+    <t>OwcU2Dw;jsA6</t>
+  </si>
+  <si>
+    <t>UtGui3\DnG=i</t>
+  </si>
+  <si>
+    <t>tYoRi3lU?DnB</t>
+  </si>
+  <si>
+    <t>]XimGJEbCD12</t>
+  </si>
+  <si>
+    <t>^_DLrsEztL29</t>
+  </si>
+  <si>
+    <t>zJ=r=DY9ECD@</t>
+  </si>
+  <si>
+    <t>?6ef]j?DGHku</t>
+  </si>
+  <si>
+    <t>0i&gt;uqNIlpoEq</t>
+  </si>
+  <si>
+    <t>wI`vJPz5Zob_</t>
+  </si>
+  <si>
+    <t>K=vXh:;VohcJ</t>
+  </si>
+  <si>
+    <t>&lt;YfDHoww4C7s</t>
+  </si>
+  <si>
+    <t>;[58ZUYWqni4</t>
   </si>
 </sst>
 </file>
@@ -2137,7 +2137,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1"/>
@@ -2208,6 +2208,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2494,8 +2498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8:I71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14062" defaultRowHeight="15"/>
@@ -2507,11 +2511,11 @@
     <col min="5" max="5" width="20.42578125" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" style="9" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" style="9" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1"/>
-    <col min="10" max="10" width="22" style="8" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="8" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="25.42578125" style="8" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2574,28 +2578,28 @@
       <c r="H2" s="11">
         <v>1</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" t="s">
         <v>18</v>
       </c>
       <c r="K2" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" ht="30">
       <c r="A3" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>21</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>22</v>
       </c>
       <c r="E3" s="11">
         <v>6</v>
@@ -2609,11 +2613,11 @@
       <c r="H3" s="11">
         <v>1</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
         <v>23</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="K3" t="s">
         <v>535</v>
@@ -2621,16 +2625,16 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="C4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>26</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>27</v>
       </c>
       <c r="E4" s="11">
         <v>1</v>
@@ -2644,11 +2648,11 @@
       <c r="H4" s="11">
         <v>1</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>28</v>
+      <c r="I4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
       </c>
       <c r="K4" t="s">
         <v>536</v>
@@ -2656,16 +2660,16 @@
     </row>
     <row r="5" spans="1:11" ht="45">
       <c r="A5" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="C5" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>30</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>31</v>
       </c>
       <c r="E5" s="11">
         <v>2</v>
@@ -2679,11 +2683,11 @@
       <c r="H5" s="11">
         <v>1</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>32</v>
+      <c r="I5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
       </c>
       <c r="K5" t="s">
         <v>537</v>
@@ -2691,16 +2695,16 @@
     </row>
     <row r="6" spans="1:11" ht="30">
       <c r="A6" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="C6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>34</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>35</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>15</v>
@@ -2714,11 +2718,11 @@
       <c r="H6" s="11">
         <v>1</v>
       </c>
-      <c r="I6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>36</v>
+      <c r="I6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" t="s">
+        <v>35</v>
       </c>
       <c r="K6" t="s">
         <v>538</v>
@@ -2726,34 +2730,34 @@
     </row>
     <row r="7" spans="1:11" ht="45">
       <c r="A7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="C7" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="D7" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>40</v>
       </c>
       <c r="E7" s="11">
         <v>3</v>
       </c>
       <c r="F7" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="H7" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="I7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" t="s">
         <v>43</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>44</v>
       </c>
       <c r="K7" t="s">
         <v>539</v>
@@ -2761,34 +2765,34 @@
     </row>
     <row r="8" spans="1:11" ht="45">
       <c r="A8" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="C8" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>46</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>47</v>
       </c>
       <c r="E8" s="11">
         <v>7</v>
       </c>
       <c r="F8" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="H8" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>48</v>
+      <c r="I8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" t="s">
+        <v>47</v>
       </c>
       <c r="K8" t="s">
         <v>540</v>
@@ -2796,34 +2800,34 @@
     </row>
     <row r="9" spans="1:11" ht="30">
       <c r="A9" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="C9" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="16" t="s">
         <v>50</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>51</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="H9" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>52</v>
+      <c r="I9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" t="s">
+        <v>51</v>
       </c>
       <c r="K9" t="s">
         <v>541</v>
@@ -2831,34 +2835,34 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="C10" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="16" t="s">
         <v>54</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>55</v>
       </c>
       <c r="E10" s="11">
         <v>1</v>
       </c>
       <c r="F10" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" t="s">
         <v>56</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="K10" t="s">
         <v>542</v>
@@ -2866,34 +2870,34 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="C11" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>59</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>60</v>
       </c>
       <c r="E11" s="11">
         <v>1</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>61</v>
+      <c r="I11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" t="s">
+        <v>60</v>
       </c>
       <c r="K11" t="s">
         <v>543</v>
@@ -2901,34 +2905,34 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="C12" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="D12" s="16" t="s">
         <v>64</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>65</v>
       </c>
       <c r="E12" s="11">
         <v>7</v>
       </c>
       <c r="F12" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="H12" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="I12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" t="s">
         <v>68</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>69</v>
       </c>
       <c r="K12" t="s">
         <v>544</v>
@@ -2936,34 +2940,34 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="C13" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="16" t="s">
         <v>71</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>72</v>
       </c>
       <c r="E13" s="11">
         <v>1</v>
       </c>
       <c r="F13" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="H13" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="H13" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>73</v>
+      <c r="I13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" t="s">
+        <v>72</v>
       </c>
       <c r="K13" t="s">
         <v>545</v>
@@ -2971,34 +2975,34 @@
     </row>
     <row r="14" spans="1:11" ht="60">
       <c r="A14" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="C14" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>75</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>76</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F14" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="H14" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="H14" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>77</v>
+      <c r="I14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" t="s">
+        <v>76</v>
       </c>
       <c r="K14" t="s">
         <v>546</v>
@@ -3006,16 +3010,16 @@
     </row>
     <row r="15" spans="1:11" ht="90">
       <c r="A15" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="C15" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="D15" s="16" t="s">
         <v>80</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>81</v>
       </c>
       <c r="E15" s="11">
         <v>1</v>
@@ -3023,11 +3027,11 @@
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
-      <c r="I15" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>82</v>
+      <c r="I15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" t="s">
+        <v>81</v>
       </c>
       <c r="K15" t="s">
         <v>547</v>
@@ -3035,16 +3039,16 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="C16" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="16" t="s">
         <v>84</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>85</v>
       </c>
       <c r="E16" s="11">
         <v>2</v>
@@ -3052,11 +3056,11 @@
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
-      <c r="I16" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>86</v>
+      <c r="I16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" t="s">
+        <v>85</v>
       </c>
       <c r="K16" t="s">
         <v>548</v>
@@ -3064,16 +3068,16 @@
     </row>
     <row r="17" spans="1:11" ht="75">
       <c r="A17" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="C17" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="16" t="s">
         <v>88</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>89</v>
       </c>
       <c r="E17" s="11">
         <v>7</v>
@@ -3081,11 +3085,11 @@
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
-      <c r="I17" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>90</v>
+      <c r="I17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" t="s">
+        <v>89</v>
       </c>
       <c r="K17" t="s">
         <v>549</v>
@@ -3093,16 +3097,16 @@
     </row>
     <row r="18" spans="1:11" ht="45">
       <c r="A18" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="C18" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="16" t="s">
         <v>92</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>93</v>
       </c>
       <c r="E18" s="11">
         <v>1</v>
@@ -3110,11 +3114,11 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
-      <c r="I18" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>94</v>
+      <c r="I18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" t="s">
+        <v>93</v>
       </c>
       <c r="K18" t="s">
         <v>550</v>
@@ -3122,16 +3126,16 @@
     </row>
     <row r="19" spans="1:11" ht="60">
       <c r="A19" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="C19" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="16" t="s">
         <v>96</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>97</v>
       </c>
       <c r="E19" s="11">
         <v>2</v>
@@ -3139,11 +3143,11 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
-      <c r="I19" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>98</v>
+      <c r="I19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" t="s">
+        <v>97</v>
       </c>
       <c r="K19" t="s">
         <v>551</v>
@@ -3151,16 +3155,16 @@
     </row>
     <row r="20" spans="1:11" ht="45">
       <c r="A20" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="C20" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="16" t="s">
         <v>100</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>101</v>
       </c>
       <c r="E20" s="11">
         <v>1</v>
@@ -3168,11 +3172,11 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
-      <c r="I20" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>102</v>
+      <c r="I20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" t="s">
+        <v>101</v>
       </c>
       <c r="K20" t="s">
         <v>552</v>
@@ -3180,16 +3184,16 @@
     </row>
     <row r="21" spans="1:11" ht="30">
       <c r="A21" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="C21" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="16" t="s">
         <v>104</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>105</v>
       </c>
       <c r="E21" s="11">
         <v>3</v>
@@ -3197,11 +3201,11 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
-      <c r="I21" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>106</v>
+      <c r="I21" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" t="s">
+        <v>105</v>
       </c>
       <c r="K21" t="s">
         <v>553</v>
@@ -3209,16 +3213,16 @@
     </row>
     <row r="22" spans="1:11" ht="30">
       <c r="A22" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="C22" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="16" t="s">
         <v>108</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>109</v>
       </c>
       <c r="E22" s="11">
         <v>1</v>
@@ -3226,11 +3230,11 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
-      <c r="I22" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>110</v>
+      <c r="I22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" t="s">
+        <v>109</v>
       </c>
       <c r="K22" t="s">
         <v>554</v>
@@ -3238,16 +3242,16 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="C23" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="17" t="s">
         <v>112</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>113</v>
       </c>
       <c r="E23" s="11">
         <v>2</v>
@@ -3255,11 +3259,11 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
-      <c r="I23" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>114</v>
+      <c r="I23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" t="s">
+        <v>113</v>
       </c>
       <c r="K23" t="s">
         <v>555</v>
@@ -3267,16 +3271,16 @@
     </row>
     <row r="24" spans="1:11" ht="30">
       <c r="A24" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="C24" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="16" t="s">
         <v>116</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>117</v>
       </c>
       <c r="E24" s="11">
         <v>7</v>
@@ -3284,11 +3288,11 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
-      <c r="I24" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>118</v>
+      <c r="I24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" t="s">
+        <v>117</v>
       </c>
       <c r="K24" t="s">
         <v>556</v>
@@ -3296,16 +3300,16 @@
     </row>
     <row r="25" spans="1:11" ht="45">
       <c r="A25" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="C25" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="D25" s="16" t="s">
         <v>121</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>122</v>
       </c>
       <c r="E25" s="11">
         <v>3</v>
@@ -3313,11 +3317,11 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
-      <c r="I25" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>123</v>
+      <c r="I25" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" t="s">
+        <v>122</v>
       </c>
       <c r="K25" t="s">
         <v>557</v>
@@ -3325,16 +3329,16 @@
     </row>
     <row r="26" spans="1:11" ht="30">
       <c r="A26" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="C26" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" s="16" t="s">
         <v>125</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>126</v>
       </c>
       <c r="E26" s="11">
         <v>7</v>
@@ -3342,11 +3346,11 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
-      <c r="I26" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>127</v>
+      <c r="I26" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J26" t="s">
+        <v>126</v>
       </c>
       <c r="K26" t="s">
         <v>558</v>
@@ -3354,16 +3358,16 @@
     </row>
     <row r="27" spans="1:11" ht="30">
       <c r="A27" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="C27" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27" s="16" t="s">
         <v>129</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>130</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>15</v>
@@ -3371,11 +3375,11 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
-      <c r="I27" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>131</v>
+      <c r="I27" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" t="s">
+        <v>130</v>
       </c>
       <c r="K27" t="s">
         <v>559</v>
@@ -3383,16 +3387,16 @@
     </row>
     <row r="28" spans="1:11" ht="30">
       <c r="A28" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B28" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="C28" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="16" t="s">
         <v>133</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>134</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>15</v>
@@ -3400,11 +3404,11 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
-      <c r="I28" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>135</v>
+      <c r="I28" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" t="s">
+        <v>134</v>
       </c>
       <c r="K28" t="s">
         <v>560</v>
@@ -3412,16 +3416,16 @@
     </row>
     <row r="29" spans="1:11" ht="30">
       <c r="A29" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="B29" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="16" t="s">
+      <c r="D29" s="16" t="s">
         <v>137</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>138</v>
       </c>
       <c r="E29" s="11">
         <v>7</v>
@@ -3429,11 +3433,11 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
-      <c r="I29" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>139</v>
+      <c r="I29" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" t="s">
+        <v>138</v>
       </c>
       <c r="K29" t="s">
         <v>561</v>
@@ -3441,16 +3445,16 @@
     </row>
     <row r="30" spans="1:11" ht="30">
       <c r="A30" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="B30" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="16" t="s">
+      <c r="D30" s="16" t="s">
         <v>141</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>142</v>
       </c>
       <c r="E30" s="11">
         <v>1</v>
@@ -3458,11 +3462,11 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
-      <c r="I30" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J30" s="8" t="s">
-        <v>143</v>
+      <c r="I30" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J30" t="s">
+        <v>142</v>
       </c>
       <c r="K30" t="s">
         <v>562</v>
@@ -3470,16 +3474,16 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B31" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="C31" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D31" s="16" t="s">
         <v>145</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>146</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>15</v>
@@ -3487,11 +3491,11 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
-      <c r="I31" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J31" s="8" t="s">
-        <v>147</v>
+      <c r="I31" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J31" t="s">
+        <v>146</v>
       </c>
       <c r="K31" t="s">
         <v>563</v>
@@ -3499,16 +3503,16 @@
     </row>
     <row r="32" spans="1:11" ht="45">
       <c r="A32" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B32" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="C32" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="D32" s="16" t="s">
         <v>150</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>151</v>
       </c>
       <c r="E32" s="11">
         <v>7</v>
@@ -3516,11 +3520,11 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
-      <c r="I32" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J32" s="8" t="s">
-        <v>152</v>
+      <c r="I32" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J32" t="s">
+        <v>151</v>
       </c>
       <c r="K32" t="s">
         <v>564</v>
@@ -3528,16 +3532,16 @@
     </row>
     <row r="33" spans="1:11" ht="45">
       <c r="A33" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="B33" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="C33" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="D33" s="16" t="s">
         <v>154</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>155</v>
       </c>
       <c r="E33" s="11">
         <v>7</v>
@@ -3545,11 +3549,11 @@
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
-      <c r="I33" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J33" s="8" t="s">
-        <v>156</v>
+      <c r="I33" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J33" t="s">
+        <v>155</v>
       </c>
       <c r="K33" t="s">
         <v>565</v>
@@ -3557,34 +3561,34 @@
     </row>
     <row r="34" spans="1:11" ht="30">
       <c r="A34" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B34" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="C34" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="D34" s="14" t="s">
         <v>159</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>160</v>
       </c>
       <c r="E34" s="15">
         <v>7</v>
       </c>
       <c r="F34" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G34" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="G34" s="15" t="s">
+      <c r="H34" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="H34" s="15" t="s">
+      <c r="I34" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J34" t="s">
         <v>163</v>
-      </c>
-      <c r="I34" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J34" s="8" t="s">
-        <v>164</v>
       </c>
       <c r="K34" t="s">
         <v>566</v>
@@ -3592,34 +3596,34 @@
     </row>
     <row r="35" spans="1:11" ht="30">
       <c r="A35" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B35" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="C35" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="D35" s="16" t="s">
         <v>166</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>167</v>
       </c>
       <c r="E35" s="11">
         <v>3</v>
       </c>
       <c r="F35" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="G35" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="G35" s="11" t="s">
+      <c r="H35" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="H35" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J35" s="8" t="s">
-        <v>168</v>
+      <c r="I35" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" t="s">
+        <v>167</v>
       </c>
       <c r="K35" t="s">
         <v>567</v>
@@ -3627,16 +3631,16 @@
     </row>
     <row r="36" spans="1:11" ht="30">
       <c r="A36" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="B36" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" s="16" t="s">
+      <c r="D36" s="16" t="s">
         <v>170</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>171</v>
       </c>
       <c r="E36" s="11">
         <v>1</v>
@@ -3644,11 +3648,11 @@
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
-      <c r="I36" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J36" s="8" t="s">
-        <v>172</v>
+      <c r="I36" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J36" t="s">
+        <v>171</v>
       </c>
       <c r="K36" t="s">
         <v>568</v>
@@ -3656,16 +3660,16 @@
     </row>
     <row r="37" spans="1:11" ht="30">
       <c r="A37" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B37" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="C37" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="D37" s="16" t="s">
         <v>174</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>175</v>
       </c>
       <c r="E37" s="11">
         <v>7</v>
@@ -3673,11 +3677,11 @@
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
-      <c r="I37" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J37" s="8" t="s">
-        <v>176</v>
+      <c r="I37" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J37" t="s">
+        <v>175</v>
       </c>
       <c r="K37" t="s">
         <v>569</v>
@@ -3685,16 +3689,16 @@
     </row>
     <row r="38" spans="1:11" ht="30">
       <c r="A38" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="B38" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="C38" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="D38" s="16" t="s">
         <v>179</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>180</v>
       </c>
       <c r="E38" s="11">
         <v>2</v>
@@ -3702,11 +3706,11 @@
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
-      <c r="I38" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J38" s="8" t="s">
-        <v>181</v>
+      <c r="I38" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J38" t="s">
+        <v>180</v>
       </c>
       <c r="K38" t="s">
         <v>570</v>
@@ -3714,16 +3718,16 @@
     </row>
     <row r="39" spans="1:11" ht="30">
       <c r="A39" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="B39" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="C39" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="D39" s="16" t="s">
         <v>183</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>184</v>
       </c>
       <c r="E39" s="11">
         <v>7</v>
@@ -3731,11 +3735,11 @@
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
-      <c r="I39" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J39" s="8" t="s">
-        <v>185</v>
+      <c r="I39" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" t="s">
+        <v>184</v>
       </c>
       <c r="K39" t="s">
         <v>571</v>
@@ -3743,16 +3747,16 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="B40" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="16" t="s">
+      <c r="D40" s="16" t="s">
         <v>187</v>
-      </c>
-      <c r="D40" s="16" t="s">
-        <v>188</v>
       </c>
       <c r="E40" s="11">
         <v>7</v>
@@ -3760,11 +3764,11 @@
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
-      <c r="I40" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J40" s="8" t="s">
-        <v>189</v>
+      <c r="I40" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J40" t="s">
+        <v>188</v>
       </c>
       <c r="K40" t="s">
         <v>572</v>
@@ -3772,16 +3776,16 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B41" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="C41" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="D41" s="16" t="s">
         <v>191</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>192</v>
       </c>
       <c r="E41" s="11">
         <v>3</v>
@@ -3789,11 +3793,11 @@
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
-      <c r="I41" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J41" s="8" t="s">
-        <v>193</v>
+      <c r="I41" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41" t="s">
+        <v>192</v>
       </c>
       <c r="K41" t="s">
         <v>573</v>
@@ -3801,16 +3805,16 @@
     </row>
     <row r="42" spans="1:11" ht="30">
       <c r="A42" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="B42" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="16" t="s">
+      <c r="D42" s="16" t="s">
         <v>195</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>196</v>
       </c>
       <c r="E42" s="11">
         <v>7</v>
@@ -3818,11 +3822,11 @@
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
-      <c r="I42" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J42" s="8" t="s">
-        <v>197</v>
+      <c r="I42" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J42" t="s">
+        <v>196</v>
       </c>
       <c r="K42" t="s">
         <v>574</v>
@@ -3830,16 +3834,16 @@
     </row>
     <row r="43" spans="1:11" ht="30">
       <c r="A43" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="B43" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="C43" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="D43" s="16" t="s">
         <v>199</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>200</v>
       </c>
       <c r="E43" s="11">
         <v>2</v>
@@ -3847,11 +3851,11 @@
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
-      <c r="I43" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J43" s="8" t="s">
-        <v>201</v>
+      <c r="I43" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J43" t="s">
+        <v>200</v>
       </c>
       <c r="K43" t="s">
         <v>575</v>
@@ -3859,34 +3863,34 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="B44" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="C44" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="D44" s="14" t="s">
         <v>204</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>205</v>
       </c>
       <c r="E44" s="15">
         <v>7</v>
       </c>
       <c r="F44" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="G44" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="G44" s="15" t="s">
+      <c r="H44" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="H44" s="15" t="s">
+      <c r="I44" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J44" t="s">
         <v>208</v>
-      </c>
-      <c r="I44" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J44" s="8" t="s">
-        <v>209</v>
       </c>
       <c r="K44" t="s">
         <v>576</v>
@@ -3894,34 +3898,34 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="B45" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="C45" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="D45" s="16" t="s">
         <v>211</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="D45" s="16" t="s">
-        <v>212</v>
       </c>
       <c r="E45" s="11">
         <v>1</v>
       </c>
       <c r="F45" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="G45" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="G45" s="11" t="s">
+      <c r="H45" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="H45" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="I45" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J45" s="8" t="s">
-        <v>213</v>
+      <c r="I45" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J45" t="s">
+        <v>212</v>
       </c>
       <c r="K45" t="s">
         <v>577</v>
@@ -3929,34 +3933,34 @@
     </row>
     <row r="46" spans="1:11" ht="30">
       <c r="A46" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="D46" s="16" t="s">
         <v>214</v>
-      </c>
-      <c r="B46" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>215</v>
       </c>
       <c r="E46" s="11">
         <v>3</v>
       </c>
       <c r="F46" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="G46" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="G46" s="11" t="s">
+      <c r="H46" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="H46" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="I46" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J46" s="8" t="s">
-        <v>216</v>
+      <c r="I46" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46" t="s">
+        <v>215</v>
       </c>
       <c r="K46" t="s">
         <v>578</v>
@@ -3964,34 +3968,34 @@
     </row>
     <row r="47" spans="1:11" ht="30">
       <c r="A47" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C47" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="B47" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="C47" s="14" t="s">
+      <c r="D47" s="14" t="s">
         <v>218</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>219</v>
       </c>
       <c r="E47" s="15">
         <v>7</v>
       </c>
       <c r="F47" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="G47" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="G47" s="15" t="s">
+      <c r="H47" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="H47" s="15" t="s">
+      <c r="I47" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47" t="s">
         <v>222</v>
-      </c>
-      <c r="I47" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J47" s="8" t="s">
-        <v>223</v>
       </c>
       <c r="K47" t="s">
         <v>579</v>
@@ -3999,69 +4003,69 @@
     </row>
     <row r="48" spans="1:11" ht="30">
       <c r="A48" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="B48" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="C48" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="D48" s="16" t="s">
         <v>225</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="D48" s="16" t="s">
-        <v>226</v>
       </c>
       <c r="E48" s="11">
         <v>1</v>
       </c>
       <c r="F48" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="G48" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="G48" s="11" t="s">
+      <c r="H48" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="H48" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="I48" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J48" s="8" t="s">
-        <v>227</v>
+      <c r="I48" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48" t="s">
+        <v>226</v>
       </c>
       <c r="K48" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="30">
+    <row r="49" spans="1:11">
       <c r="A49" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="B49" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="C49" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="D49" s="14" t="s">
         <v>230</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>231</v>
       </c>
       <c r="E49" s="15">
         <v>7</v>
       </c>
       <c r="F49" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="G49" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="G49" s="15" t="s">
+      <c r="H49" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="H49" s="15" t="s">
+      <c r="I49" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J49" t="s">
         <v>234</v>
-      </c>
-      <c r="I49" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J49" s="8" t="s">
-        <v>235</v>
       </c>
       <c r="K49" t="s">
         <v>581</v>
@@ -4069,34 +4073,34 @@
     </row>
     <row r="50" spans="1:11" ht="60">
       <c r="A50" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="B50" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="C50" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="D50" s="16" t="s">
         <v>238</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>239</v>
       </c>
       <c r="E50" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F50" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="G50" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="G50" s="11" t="s">
+      <c r="H50" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="H50" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="I50" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J50" s="8" t="s">
-        <v>240</v>
+      <c r="I50" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J50" t="s">
+        <v>239</v>
       </c>
       <c r="K50" t="s">
         <v>582</v>
@@ -4104,69 +4108,69 @@
     </row>
     <row r="51" spans="1:11" ht="60">
       <c r="A51" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="B51" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="C51" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="D51" s="14" t="s">
         <v>243</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>244</v>
       </c>
       <c r="E51" s="15">
         <v>7</v>
       </c>
       <c r="F51" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="G51" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="G51" s="15" t="s">
+      <c r="H51" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="H51" s="15" t="s">
+      <c r="I51" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J51" t="s">
         <v>247</v>
-      </c>
-      <c r="I51" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J51" s="8" t="s">
-        <v>248</v>
       </c>
       <c r="K51" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="45">
+    <row r="52" spans="1:11" ht="60">
       <c r="A52" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="B52" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="C52" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="D52" s="16" t="s">
         <v>250</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="D52" s="16" t="s">
-        <v>251</v>
       </c>
       <c r="E52" s="11">
         <v>2</v>
       </c>
       <c r="F52" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="G52" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="G52" s="11" t="s">
+      <c r="H52" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="H52" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="I52" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J52" s="8" t="s">
-        <v>252</v>
+      <c r="I52" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J52" t="s">
+        <v>251</v>
       </c>
       <c r="K52" t="s">
         <v>584</v>
@@ -4174,34 +4178,34 @@
     </row>
     <row r="53" spans="1:11" ht="105">
       <c r="A53" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="B53" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="C53" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="D53" s="14" t="s">
         <v>255</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>256</v>
       </c>
       <c r="E53" s="15">
         <v>7</v>
       </c>
       <c r="F53" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="G53" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="G53" s="15" t="s">
+      <c r="H53" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="H53" s="15" t="s">
+      <c r="I53" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J53" t="s">
         <v>259</v>
-      </c>
-      <c r="I53" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J53" s="8" t="s">
-        <v>260</v>
       </c>
       <c r="K53" t="s">
         <v>585</v>
@@ -4209,34 +4213,34 @@
     </row>
     <row r="54" spans="1:11" ht="30">
       <c r="A54" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="B54" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="C54" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="D54" s="14" t="s">
         <v>263</v>
-      </c>
-      <c r="D54" s="14" t="s">
-        <v>264</v>
       </c>
       <c r="E54" s="15">
         <v>7</v>
       </c>
       <c r="F54" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="G54" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="G54" s="15" t="s">
+      <c r="H54" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="H54" s="15" t="s">
+      <c r="I54" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J54" t="s">
         <v>267</v>
-      </c>
-      <c r="I54" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J54" s="8" t="s">
-        <v>268</v>
       </c>
       <c r="K54" t="s">
         <v>586</v>
@@ -4244,69 +4248,69 @@
     </row>
     <row r="55" spans="1:11" ht="30">
       <c r="A55" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="B55" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="C55" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="D55" s="16" t="s">
         <v>270</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="D55" s="16" t="s">
-        <v>271</v>
       </c>
       <c r="E55" s="11">
         <v>2</v>
       </c>
       <c r="F55" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="G55" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="G55" s="11" t="s">
+      <c r="H55" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="H55" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="I55" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J55" s="8" t="s">
-        <v>272</v>
+      <c r="I55" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J55" t="s">
+        <v>271</v>
       </c>
       <c r="K55" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="25.5">
+    <row r="56" spans="1:11" ht="26.25">
       <c r="A56" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="D56" s="19" t="s">
         <v>273</v>
-      </c>
-      <c r="B56" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="C56" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="D56" s="19" t="s">
-        <v>274</v>
       </c>
       <c r="E56" s="12">
         <v>2</v>
       </c>
       <c r="F56" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="G56" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="G56" s="12" t="s">
+      <c r="H56" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="H56" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="I56" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J56" s="8" t="s">
-        <v>275</v>
+      <c r="I56" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J56" t="s">
+        <v>274</v>
       </c>
       <c r="K56" t="s">
         <v>588</v>
@@ -4314,34 +4318,34 @@
     </row>
     <row r="57" spans="1:11" ht="30">
       <c r="A57" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="B57" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="C57" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="D57" s="14" t="s">
         <v>278</v>
-      </c>
-      <c r="D57" s="14" t="s">
-        <v>279</v>
       </c>
       <c r="E57" s="15" t="s">
         <v>15</v>
       </c>
       <c r="F57" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="H57" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J57" t="s">
         <v>280</v>
-      </c>
-      <c r="G57" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H57" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="I57" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J57" s="8" t="s">
-        <v>281</v>
       </c>
       <c r="K57" t="s">
         <v>589</v>
@@ -4349,34 +4353,34 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="B58" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="B58" s="16" t="s">
+      <c r="C58" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="D58" s="16" t="s">
         <v>283</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="D58" s="16" t="s">
-        <v>284</v>
       </c>
       <c r="E58" s="11">
         <v>7</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G58" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="H58" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="H58" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="I58" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J58" s="8" t="s">
-        <v>285</v>
+      <c r="I58" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J58" t="s">
+        <v>284</v>
       </c>
       <c r="K58" t="s">
         <v>590</v>
@@ -4384,34 +4388,34 @@
     </row>
     <row r="59" spans="1:11" ht="30">
       <c r="A59" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="B59" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="B59" s="16" t="s">
+      <c r="C59" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="D59" s="16" t="s">
         <v>287</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="D59" s="16" t="s">
-        <v>288</v>
       </c>
       <c r="E59" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G59" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="H59" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="H59" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="I59" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J59" s="8" t="s">
-        <v>289</v>
+      <c r="I59" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J59" t="s">
+        <v>288</v>
       </c>
       <c r="K59" t="s">
         <v>591</v>
@@ -4419,34 +4423,34 @@
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="B60" s="19" t="s">
         <v>290</v>
       </c>
-      <c r="B60" s="19" t="s">
+      <c r="C60" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="D60" s="19" t="s">
         <v>291</v>
-      </c>
-      <c r="C60" s="19" t="s">
-        <v>278</v>
-      </c>
-      <c r="D60" s="19" t="s">
-        <v>292</v>
       </c>
       <c r="E60" s="12" t="s">
         <v>15</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G60" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="H60" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="H60" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="I60" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J60" s="8" t="s">
-        <v>293</v>
+      <c r="I60" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J60" t="s">
+        <v>292</v>
       </c>
       <c r="K60" t="s">
         <v>592</v>
@@ -4454,34 +4458,34 @@
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="B61" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="C61" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="C61" s="14" t="s">
+      <c r="D61" s="14" t="s">
         <v>296</v>
-      </c>
-      <c r="D61" s="14" t="s">
-        <v>297</v>
       </c>
       <c r="E61" s="15">
         <v>7</v>
       </c>
       <c r="F61" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="G61" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="G61" s="15" t="s">
+      <c r="H61" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="H61" s="15" t="s">
+      <c r="I61" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J61" t="s">
         <v>300</v>
-      </c>
-      <c r="I61" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J61" s="8" t="s">
-        <v>301</v>
       </c>
       <c r="K61" t="s">
         <v>593</v>
@@ -4489,16 +4493,16 @@
     </row>
     <row r="62" spans="1:11" ht="60">
       <c r="A62" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="B62" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="C62" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="C62" s="14" t="s">
+      <c r="D62" s="14" t="s">
         <v>304</v>
-      </c>
-      <c r="D62" s="14" t="s">
-        <v>305</v>
       </c>
       <c r="E62" s="15">
         <v>3</v>
@@ -4507,16 +4511,16 @@
         <v>2</v>
       </c>
       <c r="G62" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="H62" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="H62" s="15" t="s">
+      <c r="I62" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J62" t="s">
         <v>307</v>
-      </c>
-      <c r="I62" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J62" s="8" t="s">
-        <v>308</v>
       </c>
       <c r="K62" t="s">
         <v>594</v>
@@ -4524,16 +4528,16 @@
     </row>
     <row r="63" spans="1:11" ht="45">
       <c r="A63" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="B63" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="C63" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="D63" s="16" t="s">
         <v>310</v>
-      </c>
-      <c r="C63" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="D63" s="16" t="s">
-        <v>311</v>
       </c>
       <c r="E63" s="11">
         <v>1</v>
@@ -4542,16 +4546,16 @@
         <v>2</v>
       </c>
       <c r="G63" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="H63" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="H63" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="I63" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J63" s="8" t="s">
-        <v>312</v>
+      <c r="I63" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J63" t="s">
+        <v>311</v>
       </c>
       <c r="K63" t="s">
         <v>595</v>
@@ -4559,16 +4563,16 @@
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="D64" s="16" t="s">
         <v>313</v>
-      </c>
-      <c r="B64" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C64" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="D64" s="16" t="s">
-        <v>314</v>
       </c>
       <c r="E64" s="11">
         <v>1</v>
@@ -4577,16 +4581,16 @@
         <v>2</v>
       </c>
       <c r="G64" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="H64" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="H64" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="I64" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J64" s="8" t="s">
-        <v>315</v>
+      <c r="I64" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J64" t="s">
+        <v>314</v>
       </c>
       <c r="K64" t="s">
         <v>596</v>
@@ -4594,16 +4598,16 @@
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="B65" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="B65" s="16" t="s">
+      <c r="C65" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="D65" s="16" t="s">
         <v>317</v>
-      </c>
-      <c r="C65" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="D65" s="16" t="s">
-        <v>318</v>
       </c>
       <c r="E65" s="11">
         <v>1</v>
@@ -4612,16 +4616,16 @@
         <v>2</v>
       </c>
       <c r="G65" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="H65" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="H65" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="I65" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J65" s="8" t="s">
-        <v>319</v>
+      <c r="I65" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J65" t="s">
+        <v>318</v>
       </c>
       <c r="K65" t="s">
         <v>597</v>
@@ -4629,16 +4633,16 @@
     </row>
     <row r="66" spans="1:11" ht="45">
       <c r="A66" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="B66" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="B66" s="16" t="s">
+      <c r="C66" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="D66" s="16" t="s">
         <v>321</v>
-      </c>
-      <c r="C66" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="D66" s="16" t="s">
-        <v>322</v>
       </c>
       <c r="E66" s="11">
         <v>1</v>
@@ -4647,16 +4651,16 @@
         <v>2</v>
       </c>
       <c r="G66" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="H66" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="H66" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="I66" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J66" s="8" t="s">
-        <v>323</v>
+      <c r="I66" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J66" t="s">
+        <v>322</v>
       </c>
       <c r="K66" t="s">
         <v>598</v>
@@ -4664,34 +4668,34 @@
     </row>
     <row r="67" spans="1:11" ht="30">
       <c r="A67" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C67" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="B67" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C67" s="14" t="s">
+      <c r="D67" s="14" t="s">
         <v>325</v>
-      </c>
-      <c r="D67" s="14" t="s">
-        <v>326</v>
       </c>
       <c r="E67" s="15">
         <v>2</v>
       </c>
       <c r="F67" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="G67" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="G67" s="15" t="s">
+      <c r="H67" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="H67" s="15" t="s">
+      <c r="I67" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J67" t="s">
         <v>329</v>
-      </c>
-      <c r="I67" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J67" s="8" t="s">
-        <v>330</v>
       </c>
       <c r="K67" t="s">
         <v>599</v>
@@ -4699,16 +4703,16 @@
     </row>
     <row r="68" spans="1:11" ht="30">
       <c r="A68" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="B68" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="C68" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="D68" s="16" t="s">
         <v>333</v>
-      </c>
-      <c r="D68" s="16" t="s">
-        <v>334</v>
       </c>
       <c r="E68" s="11">
         <v>1</v>
@@ -4717,16 +4721,16 @@
         <v>1</v>
       </c>
       <c r="G68" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="H68" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="H68" s="11" t="s">
+      <c r="I68" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J68" t="s">
         <v>336</v>
-      </c>
-      <c r="I68" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J68" s="8" t="s">
-        <v>337</v>
       </c>
       <c r="K68" t="s">
         <v>600</v>
@@ -4734,16 +4738,16 @@
     </row>
     <row r="69" spans="1:11" ht="30">
       <c r="A69" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C69" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="B69" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C69" s="14" t="s">
+      <c r="D69" s="14" t="s">
         <v>339</v>
-      </c>
-      <c r="D69" s="14" t="s">
-        <v>340</v>
       </c>
       <c r="E69" s="15">
         <v>7</v>
@@ -4752,16 +4756,16 @@
         <v>1</v>
       </c>
       <c r="G69" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="H69" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="H69" s="15" t="s">
-        <v>336</v>
-      </c>
-      <c r="I69" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J69" s="8" t="s">
-        <v>341</v>
+      <c r="I69" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J69" t="s">
+        <v>340</v>
       </c>
       <c r="K69" t="s">
         <v>601</v>
@@ -4769,16 +4773,16 @@
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C70" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="B70" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C70" s="16" t="s">
+      <c r="D70" s="16" t="s">
         <v>343</v>
-      </c>
-      <c r="D70" s="16" t="s">
-        <v>344</v>
       </c>
       <c r="E70" s="11">
         <v>7</v>
@@ -4786,11 +4790,11 @@
       <c r="F70" s="11"/>
       <c r="G70" s="11"/>
       <c r="H70" s="11"/>
-      <c r="I70" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J70" s="8" t="s">
-        <v>345</v>
+      <c r="I70" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J70" t="s">
+        <v>344</v>
       </c>
       <c r="K70" t="s">
         <v>602</v>
@@ -4798,34 +4802,34 @@
     </row>
     <row r="71" spans="1:11" ht="45">
       <c r="A71" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="B71" s="14" t="s">
         <v>346</v>
       </c>
-      <c r="B71" s="14" t="s">
+      <c r="C71" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="C71" s="14" t="s">
+      <c r="D71" s="14" t="s">
         <v>348</v>
-      </c>
-      <c r="D71" s="14" t="s">
-        <v>349</v>
       </c>
       <c r="E71" s="15">
         <v>7</v>
       </c>
       <c r="F71" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G71" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="H71" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I71" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J71" t="s">
         <v>350</v>
-      </c>
-      <c r="H71" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I71" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J71" s="8" t="s">
-        <v>351</v>
       </c>
       <c r="K71" t="s">
         <v>603</v>
@@ -4833,6 +4837,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <extLst>
     <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <g2:dataValidations xmlns:g2="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" count="2">
@@ -4840,13 +4845,13 @@
           <g2:formula1>
             <g3:f xmlns:g3="http://schemas.microsoft.com/office/excel/2006/main">'Listas y leyendas'!$F$2:$F$9</g3:f>
           </g2:formula1>
-          <g3:sqref xmlns:g3="http://schemas.microsoft.com/office/excel/2006/main">E72:E1048576 C2:C71</g3:sqref>
+          <g3:sqref xmlns:g3="http://schemas.microsoft.com/office/excel/2006/main">E72:E1048576</g3:sqref>
         </g2:dataValidation>
         <g2:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <g2:formula1>
             <g3:f xmlns:g3="http://schemas.microsoft.com/office/excel/2006/main">'Listas y leyendas'!$O$2:$O$10</g3:f>
           </g2:formula1>
-          <g3:sqref xmlns:g3="http://schemas.microsoft.com/office/excel/2006/main">H72:I1048576</g3:sqref>
+          <g3:sqref xmlns:g3="http://schemas.microsoft.com/office/excel/2006/main">H72:H1048576</g3:sqref>
         </g2:dataValidation>
       </g2:dataValidations>
     </ext>
@@ -4878,31 +4883,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="22" t="s">
         <v>355</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="23" t="s">
         <v>356</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="22" t="s">
         <v>357</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="H1" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="25.5">
@@ -4910,649 +4915,724 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C2" t="s">
         <v>361</v>
-      </c>
-      <c r="C2" t="s">
-        <v>362</v>
       </c>
       <c r="D2">
         <v>5</v>
       </c>
       <c r="E2" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="F2" s="24" t="s">
         <v>363</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="G2" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="H2" t="s">
         <v>364</v>
       </c>
-      <c r="G2" s="22" t="s">
-        <v>363</v>
-      </c>
-      <c r="H2" t="s">
-        <v>365</v>
+      <c r="I2" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="195">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3" t="s">
         <v>366</v>
-      </c>
-      <c r="C3" t="s">
-        <v>367</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F3" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="H3" t="s">
         <v>368</v>
       </c>
-      <c r="G3" s="22" t="s">
-        <v>363</v>
-      </c>
-      <c r="H3" t="s">
-        <v>369</v>
+      <c r="I3" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="180">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="C4" t="s">
         <v>370</v>
-      </c>
-      <c r="C4" t="s">
-        <v>371</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F4" s="24" t="s">
+        <v>371</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="H4" t="s">
         <v>372</v>
       </c>
-      <c r="G4" s="22" t="s">
-        <v>363</v>
-      </c>
-      <c r="H4" t="s">
-        <v>373</v>
+      <c r="I4" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="270">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="C5" t="s">
         <v>374</v>
-      </c>
-      <c r="C5" t="s">
-        <v>375</v>
       </c>
       <c r="D5">
         <v>6</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F5" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="H5" t="s">
         <v>376</v>
       </c>
-      <c r="G5" s="22" t="s">
-        <v>363</v>
-      </c>
-      <c r="H5" t="s">
-        <v>377</v>
+      <c r="I5" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="165">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B6" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="C6" t="s">
         <v>378</v>
-      </c>
-      <c r="C6" t="s">
-        <v>379</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F6" s="24" t="s">
+        <v>379</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="H6" t="s">
         <v>380</v>
       </c>
-      <c r="G6" s="22" t="s">
-        <v>363</v>
-      </c>
-      <c r="H6" t="s">
-        <v>381</v>
+      <c r="I6" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="120">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B7" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="C7" t="s">
         <v>382</v>
-      </c>
-      <c r="C7" t="s">
-        <v>383</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F7" s="24" t="s">
+        <v>383</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="H7" t="s">
         <v>384</v>
       </c>
-      <c r="G7" s="22" t="s">
-        <v>363</v>
-      </c>
-      <c r="H7" t="s">
-        <v>385</v>
+      <c r="I7" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="51.75">
       <c r="A8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B8" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="C8" t="s">
         <v>386</v>
-      </c>
-      <c r="C8" t="s">
-        <v>387</v>
       </c>
       <c r="D8">
         <v>5</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F8" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="H8" t="s">
         <v>388</v>
       </c>
-      <c r="G8" s="22" t="s">
-        <v>363</v>
-      </c>
-      <c r="H8" t="s">
-        <v>389</v>
+      <c r="I8" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="102.75">
       <c r="A9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B9" s="27" t="s">
+        <v>389</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>390</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>391</v>
       </c>
       <c r="D9">
         <v>6</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F9" s="24" t="s">
+        <v>391</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="H9" t="s">
         <v>392</v>
       </c>
-      <c r="G9" s="22" t="s">
-        <v>363</v>
-      </c>
-      <c r="H9" t="s">
-        <v>393</v>
+      <c r="I9" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="315">
       <c r="A10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B10" s="20" t="s">
+        <v>393</v>
+      </c>
+      <c r="C10" s="21" t="s">
         <v>394</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>395</v>
       </c>
       <c r="D10">
         <v>6</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F10" s="24" t="s">
+        <v>395</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="H10" t="s">
         <v>396</v>
       </c>
-      <c r="G10" s="22" t="s">
-        <v>363</v>
-      </c>
-      <c r="H10" t="s">
-        <v>397</v>
+      <c r="I10" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="405">
       <c r="A11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B11" s="20" t="s">
+        <v>397</v>
+      </c>
+      <c r="C11" s="21" t="s">
         <v>398</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>399</v>
       </c>
       <c r="D11">
         <v>6</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F11" s="24" t="s">
+        <v>399</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="H11" t="s">
         <v>400</v>
       </c>
-      <c r="G11" s="22" t="s">
-        <v>363</v>
-      </c>
-      <c r="H11" t="s">
-        <v>401</v>
+      <c r="I11" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="90">
       <c r="A12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B12" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="C12" s="21" t="s">
         <v>402</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>403</v>
       </c>
       <c r="D12">
         <v>4</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F12" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="H12" t="s">
         <v>404</v>
       </c>
-      <c r="G12" s="22" t="s">
-        <v>363</v>
-      </c>
-      <c r="H12" t="s">
-        <v>405</v>
+      <c r="I12" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="102.75">
       <c r="A13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B13" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="C13" s="21" t="s">
         <v>406</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>407</v>
       </c>
       <c r="D13">
         <v>5</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F13" s="24" t="s">
+        <v>407</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="H13" t="s">
         <v>408</v>
       </c>
-      <c r="G13" s="22" t="s">
-        <v>363</v>
-      </c>
-      <c r="H13" t="s">
-        <v>409</v>
+      <c r="I13" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="345">
       <c r="A14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B14" s="20" t="s">
+        <v>409</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>410</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>411</v>
       </c>
       <c r="D14">
         <v>6</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F14" s="24" t="s">
+        <v>411</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="H14" t="s">
         <v>412</v>
       </c>
-      <c r="G14" s="22" t="s">
-        <v>363</v>
-      </c>
-      <c r="H14" t="s">
-        <v>413</v>
+      <c r="I14" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="150">
       <c r="A15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B15" s="20" t="s">
+        <v>413</v>
+      </c>
+      <c r="C15" s="21" t="s">
         <v>414</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>415</v>
       </c>
       <c r="D15">
         <v>6</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F15" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="H15" t="s">
         <v>416</v>
       </c>
-      <c r="G15" s="22" t="s">
-        <v>363</v>
-      </c>
-      <c r="H15" t="s">
-        <v>417</v>
+      <c r="I15" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="77.25">
       <c r="A16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B16" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>418</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>419</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F16" s="24" t="s">
+        <v>419</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="H16" t="s">
         <v>420</v>
       </c>
-      <c r="G16" s="22" t="s">
-        <v>363</v>
-      </c>
-      <c r="H16" t="s">
-        <v>421</v>
+      <c r="I16" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="75">
       <c r="A17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B17" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="C17" t="s">
         <v>422</v>
-      </c>
-      <c r="C17" t="s">
-        <v>423</v>
       </c>
       <c r="D17">
         <v>5</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F17" s="24" t="s">
+        <v>423</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="H17" t="s">
         <v>424</v>
       </c>
-      <c r="G17" s="22" t="s">
-        <v>363</v>
-      </c>
-      <c r="H17" t="s">
-        <v>425</v>
+      <c r="I17" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="375">
       <c r="A18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B18" s="20" t="s">
+        <v>425</v>
+      </c>
+      <c r="C18" s="21" t="s">
         <v>426</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>427</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F18" s="24" t="s">
+        <v>427</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="H18" t="s">
         <v>428</v>
       </c>
-      <c r="G18" s="22" t="s">
-        <v>363</v>
-      </c>
-      <c r="H18" t="s">
-        <v>429</v>
+      <c r="I18" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="102.75">
       <c r="A19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B19" s="21" t="s">
+        <v>429</v>
+      </c>
+      <c r="C19" s="21" t="s">
         <v>430</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>431</v>
       </c>
       <c r="D19">
         <v>5</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F19" s="24" t="s">
+        <v>431</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="H19" t="s">
         <v>432</v>
       </c>
-      <c r="G19" s="22" t="s">
-        <v>363</v>
-      </c>
-      <c r="H19" t="s">
-        <v>433</v>
+      <c r="I19" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="51" customHeight="1">
       <c r="A20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B20" s="29" t="s">
+        <v>433</v>
+      </c>
+      <c r="C20" s="21" t="s">
         <v>434</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>435</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F20" s="24" t="s">
+        <v>435</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="H20" t="s">
         <v>436</v>
       </c>
-      <c r="G20" s="22" t="s">
-        <v>363</v>
-      </c>
-      <c r="H20" t="s">
-        <v>437</v>
+      <c r="I20" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="115.5">
       <c r="A21" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B21" s="21" t="s">
+        <v>437</v>
+      </c>
+      <c r="C21" s="21" t="s">
         <v>438</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>439</v>
       </c>
       <c r="D21">
         <v>5</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F21" s="24" t="s">
+        <v>439</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="H21" t="s">
         <v>440</v>
       </c>
-      <c r="G21" s="22" t="s">
-        <v>363</v>
-      </c>
-      <c r="H21" t="s">
-        <v>441</v>
+      <c r="I21" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="102.75">
       <c r="A22" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B22" s="21" t="s">
+        <v>441</v>
+      </c>
+      <c r="C22" s="21" t="s">
         <v>442</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>443</v>
       </c>
       <c r="D22">
         <v>4</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F22" s="24" t="s">
+        <v>443</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="H22" t="s">
         <v>444</v>
       </c>
-      <c r="G22" s="22" t="s">
-        <v>363</v>
-      </c>
-      <c r="H22" t="s">
-        <v>445</v>
+      <c r="I22" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="115.5">
       <c r="A23" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B23" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="C23" s="21" t="s">
         <v>446</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>447</v>
       </c>
       <c r="D23">
         <v>7</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F23" s="24" t="s">
+        <v>447</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="H23" t="s">
         <v>448</v>
       </c>
-      <c r="G23" s="22" t="s">
-        <v>363</v>
-      </c>
-      <c r="H23" t="s">
-        <v>449</v>
+      <c r="I23" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="64.5">
       <c r="A24" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B24" s="21" t="s">
+        <v>449</v>
+      </c>
+      <c r="C24" s="21" t="s">
         <v>450</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>451</v>
       </c>
       <c r="D24">
         <v>18</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F24" s="24" t="s">
+        <v>451</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="H24" t="s">
         <v>452</v>
       </c>
-      <c r="G24" s="22" t="s">
-        <v>363</v>
-      </c>
-      <c r="H24" t="s">
-        <v>453</v>
+      <c r="I24" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="38.25">
       <c r="A25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D25">
         <v>6</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F25" s="24" t="s">
+        <v>454</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="H25" t="s">
         <v>455</v>
       </c>
-      <c r="G25" s="22" t="s">
-        <v>363</v>
-      </c>
-      <c r="H25" t="s">
-        <v>456</v>
+      <c r="I25" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="128.25">
       <c r="A26" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B26" s="27" t="s">
+        <v>456</v>
+      </c>
+      <c r="C26" s="21" t="s">
         <v>457</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>458</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F26" s="24" t="s">
+        <v>458</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="H26" t="s">
         <v>459</v>
       </c>
-      <c r="G26" s="22" t="s">
-        <v>363</v>
-      </c>
-      <c r="H26" t="s">
-        <v>460</v>
+      <c r="I26" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -5612,43 +5692,43 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75">
       <c r="A1" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>461</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>462</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75">
       <c r="A2" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -5656,27 +5736,27 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F2" s="2">
         <v>0</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I2" s="2">
         <v>0</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L2" s="2">
         <v>0</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
@@ -5684,7 +5764,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75">
       <c r="A3" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -5692,27 +5772,27 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F3" s="2">
         <v>1</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L3" s="2">
         <v>1</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="O3" s="2">
         <v>1</v>
@@ -5720,7 +5800,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75">
       <c r="A4" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
@@ -5728,27 +5808,27 @@
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F4" s="2">
         <v>2</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I4" s="2">
         <v>2</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L4" s="2">
         <v>2</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="O4" s="2">
         <v>2</v>
@@ -5756,7 +5836,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75">
       <c r="A5" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B5" s="2">
         <v>3</v>
@@ -5764,27 +5844,27 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F5" s="2">
         <v>3</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I5" s="2">
         <v>3</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="L5" s="2">
         <v>3</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="O5" s="2">
         <v>3</v>
@@ -5792,7 +5872,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75">
       <c r="A6" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B6" s="2">
         <v>4</v>
@@ -5800,27 +5880,27 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F6" s="2">
         <v>4</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I6" s="2">
         <v>4</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="L6" s="2">
         <v>4</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="O6" s="2">
         <v>4</v>
@@ -5828,7 +5908,7 @@
     </row>
     <row r="7" spans="1:15" ht="15.75">
       <c r="A7" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B7" s="2">
         <v>5</v>
@@ -5836,27 +5916,27 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F7" s="2">
         <v>5</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I7" s="2">
         <v>5</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L7" s="2">
         <v>5</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="O7" s="2">
         <v>5</v>
@@ -5864,7 +5944,7 @@
     </row>
     <row r="8" spans="1:15" ht="15.75">
       <c r="A8" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B8" s="2">
         <v>6</v>
@@ -5872,27 +5952,27 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F8" s="2">
         <v>6</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I8" s="2">
         <v>6</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="L8" s="2">
         <v>6</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="O8" s="2">
         <v>6</v>
@@ -5900,7 +5980,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75">
       <c r="A9" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B9" s="2">
         <v>7</v>
@@ -5908,27 +5988,27 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F9" s="2">
         <v>7</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="I9" s="2">
         <v>7</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="L9" s="2">
         <v>7</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="O9" s="2">
         <v>7</v>
@@ -5936,7 +6016,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75">
       <c r="A10" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B10" s="2">
         <v>8</v>
@@ -5947,20 +6027,20 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I10" s="2">
         <v>8</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L10" s="2">
         <v>8</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="O10" s="2">
         <v>8</v>
@@ -5968,7 +6048,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75">
       <c r="A11" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B11" s="2">
         <v>9</v>
@@ -5979,14 +6059,14 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I11" s="2">
         <v>9</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="L11" s="2">
         <v>9</v>
@@ -5994,7 +6074,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.75">
       <c r="A12" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B12" s="2">
         <v>10</v>
@@ -6005,14 +6085,14 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="I12" s="2">
         <v>10</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="L12" s="2">
         <v>10</v>
@@ -6020,7 +6100,7 @@
     </row>
     <row r="13" spans="1:15" ht="15.75">
       <c r="A13" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B13" s="2">
         <v>11</v>
@@ -6031,14 +6111,14 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I13" s="2">
         <v>11</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="L13" s="2">
         <v>11</v>
@@ -6046,7 +6126,7 @@
     </row>
     <row r="14" spans="1:15" ht="15.75">
       <c r="A14" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B14" s="2">
         <v>12</v>
@@ -6057,14 +6137,14 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I14" s="2">
         <v>12</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="L14" s="2">
         <v>12</v>
@@ -6072,7 +6152,7 @@
     </row>
     <row r="15" spans="1:15" ht="15.75">
       <c r="A15" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B15" s="2">
         <v>13</v>
@@ -6083,14 +6163,14 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I15" s="2">
         <v>13</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="L15" s="2">
         <v>13</v>
@@ -6098,7 +6178,7 @@
     </row>
     <row r="16" spans="1:15" ht="15.75">
       <c r="A16" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B16" s="2">
         <v>14</v>
@@ -6109,14 +6189,14 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I16" s="2">
         <v>14</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L16" s="2">
         <v>14</v>
@@ -6124,7 +6204,7 @@
     </row>
     <row r="17" spans="1:15" ht="15.75">
       <c r="A17" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B17" s="2">
         <v>15</v>
@@ -6135,7 +6215,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I17" s="2">
         <v>15</v>
@@ -6146,7 +6226,7 @@
     </row>
     <row r="18" spans="1:15" ht="15.75">
       <c r="A18" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B18" s="2">
         <v>16</v>
@@ -6164,7 +6244,7 @@
     </row>
     <row r="19" spans="1:15" ht="15.75">
       <c r="A19" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B19" s="2">
         <v>17</v>
@@ -6182,7 +6262,7 @@
     </row>
     <row r="20" spans="1:15" ht="15.75">
       <c r="A20" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B20" s="2">
         <v>18</v>
@@ -6200,7 +6280,7 @@
     </row>
     <row r="21" spans="1:15" ht="15.75">
       <c r="A21" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B21" s="2">
         <v>19</v>

--- a/MyProject2/Content/Excels/Socios.xlsx
+++ b/MyProject2/Content/Excels/Socios.xlsx
@@ -1,27 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23911"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23921"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEFB28E2-D20F-4C55-9680-D2CAC9012687}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registro de usuarios" sheetId="1" r:id="rId1"/>
     <sheet name="Registro de empresas" sheetId="2" r:id="rId2"/>
-    <sheet name="Listas y leyendas" sheetId="3" r:id="rId3"/>
+    <sheet name="Registro a eventos" sheetId="4" r:id="rId3"/>
+    <sheet name="Listas y leyendas" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028" concurrentCalc="0"/>
+  <calcPr calcId="191028" calcCompleted="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="539">
   <si>
     <t>Nomre y apellidos</t>
   </si>
@@ -1210,7 +1223,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">ALTER TECHNOLOGY</t>
+      <t>ALTER TECHNOLOGY</t>
     </r>
     <r>
       <rPr>
@@ -1219,7 +1232,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> provide a single point of contact for all high reliability electronic component requirements, covering testing, engineering, procurement, storage, quality control, certification and consultancy. They bring services both for new-build equipment and also for managing component obsolescence issues in operational equipment. They have also extended their component capability into specialized equipment testing and EMC certification. The company in many markets including, but not limited to, Aerospace, Security, Transport, Emergency Services, Health &amp; Safety and Automotive.</t>
+      <t> provide a single point of contact for all high reliability electronic component requirements, covering testing, engineering, procurement, storage, quality control, certification and consultancy. They bring services both for new-build equipment and also for managing component obsolescence issues in operational equipment. They have also extended their component capability into specialized equipment testing and EMC certification. The company in many markets including, but not limited to, Aerospace, Security, Transport, Emergency Services, Health &amp; Safety and Automotive.</t>
     </r>
   </si>
   <si>
@@ -1274,7 +1287,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">AOTECH</t>
+      <t>AOTECH</t>
     </r>
     <r>
       <rPr>
@@ -1283,7 +1296,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">is a spin-off company from the University of the Basque Country whose mission is to apply customized photonic solutions to all kind of industrial processes. Currently, the two main areas of activity are aeronautics and food industry. In aeronautics, they are developing a system to monitor structural health monitoring of blades in turbines and compressors. Whereas in their second area, food industry, they are going to apply NIR spectroscopy sensors to different processes. AOTECH plans to expand this activities to other sectors such as energy, automotive, metallurgy chemistry or environment.</t>
+      <t>is a spin-off company from the University of the Basque Country whose mission is to apply customized photonic solutions to all kind of industrial processes. Currently, the two main areas of activity are aeronautics and food industry. In aeronautics, they are developing a system to monitor structural health monitoring of blades in turbines and compressors. Whereas in their second area, food industry, they are going to apply NIR spectroscopy sensors to different processes. AOTECH plans to expand this activities to other sectors such as energy, automotive, metallurgy chemistry or environment.</t>
     </r>
   </si>
   <si>
@@ -1297,7 +1310,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Aragon Photonics Labs.</t>
+      <t>Aragon Photonics Labs.</t>
     </r>
     <r>
       <rPr>
@@ -1306,7 +1319,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">is a manufacturer of advanced optical test &amp; measurement instrumentation and fiber optic distributed sensing equipment based on proprietary patents. With more than 10 years experience and operating in more than 20 countries, Aragon Photonics provides test &amp; measurement products to photonic R&amp;D centers, optical telecom component manufacturers and telecom operators (optical spectrum analysis, passive component characterization, polarization analysis and phase measurement) and distributed acoustic sensing turnkey solutions for transport, energy and security infrastructures.</t>
+      <t>is a manufacturer of advanced optical test &amp; measurement instrumentation and fiber optic distributed sensing equipment based on proprietary patents. With more than 10 years experience and operating in more than 20 countries, Aragon Photonics provides test &amp; measurement products to photonic R&amp;D centers, optical telecom component manufacturers and telecom operators (optical spectrum analysis, passive component characterization, polarization analysis and phase measurement) and distributed acoustic sensing turnkey solutions for transport, energy and security infrastructures.</t>
     </r>
   </si>
   <si>
@@ -1406,7 +1419,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">ICFO</t>
+      <t>ICFO</t>
     </r>
     <r>
       <rPr>
@@ -1415,7 +1428,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">is a research centre devoted to the science and technologies of light with fundamental and applied research programs that address standing issues such as health, renewable energies, information technologies, security and industrial processes, among others.  The centre hosts 400 professionals including researchers and PhD students, and collaborates with a wide range of companies around the world.  In particular, ICFO’s Corporate Liaison Program includes more than 25 national and international industries and corporations. Likewise, the institute actively promotes the creation of spin-off companies by ICFO researchers.</t>
+      <t>is a research centre devoted to the science and technologies of light with fundamental and applied research programs that address standing issues such as health, renewable energies, information technologies, security and industrial processes, among others.  The centre hosts 400 professionals including researchers and PhD students, and collaborates with a wide range of companies around the world.  In particular, ICFO’s Corporate Liaison Program includes more than 25 national and international industries and corporations. Likewise, the institute actively promotes the creation of spin-off companies by ICFO researchers.</t>
     </r>
   </si>
   <si>
@@ -1486,7 +1499,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Tekniker</t>
+      <t>Tekniker</t>
     </r>
     <r>
       <rPr>
@@ -1495,7 +1508,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">is an independent research organization, whose main working focus is to improve manufacturing technologies, that includes all the situations that characterises a product life cycle, from conception and design, until the end of working life. Automotive parts, machine tools, mechanical capital goods, aerospace, chemical and petroleum products and industrial and consumer electronics are the most relevant sectors served by Tekniker.Tekniker likes to define itself as a Mechatronics, Manufacturing Technologies and Microtechnologies centre. It mainly specialises in: designing consumer and industrial products, solving problems relating to friction, wear and lubrication, incorporating information technologies and communications in the plant, high precision, miniaturisation and micro/nanotechnologies.</t>
+      <t>is an independent research organization, whose main working focus is to improve manufacturing technologies, that includes all the situations that characterises a product life cycle, from conception and design, until the end of working life. Automotive parts, machine tools, mechanical capital goods, aerospace, chemical and petroleum products and industrial and consumer electronics are the most relevant sectors served by Tekniker.Tekniker likes to define itself as a Mechatronics, Manufacturing Technologies and Microtechnologies centre. It mainly specialises in: designing consumer and industrial products, solving problems relating to friction, wear and lubrication, incorporating information technologies and communications in the plant, high precision, miniaturisation and micro/nanotechnologies.</t>
     </r>
   </si>
   <si>
@@ -1508,6 +1521,24 @@
     <t>https://www.secpho.org/wp-content/uploads/2013/10/logo-tekniker-ajustado-okok-250x100.jpg</t>
   </si>
   <si>
+    <t>Usuario</t>
+  </si>
+  <si>
+    <t>Descuento</t>
+  </si>
+  <si>
+    <t>user1</t>
+  </si>
+  <si>
+    <t>user2</t>
+  </si>
+  <si>
+    <t>user3</t>
+  </si>
+  <si>
+    <t>user4</t>
+  </si>
+  <si>
     <t>Tipos de empresas</t>
   </si>
   <si>
@@ -1725,225 +1756,12 @@
   </si>
   <si>
     <t>Administración pública</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>8eUBY7AUET_P</t>
-  </si>
-  <si>
-    <t>z8nsyh^&gt;lxpI</t>
-  </si>
-  <si>
-    <t>eVJ7fTNqr3bW</t>
-  </si>
-  <si>
-    <t>_[OSGev30mXI</t>
-  </si>
-  <si>
-    <t>=a=nt5oEejw3</t>
-  </si>
-  <si>
-    <t>S^5Xz;qIalfr</t>
-  </si>
-  <si>
-    <t>PoL=oxEvOGxi</t>
-  </si>
-  <si>
-    <t>WV3ymqMoi[?h</t>
-  </si>
-  <si>
-    <t>d\xZVLj:^_&gt;K</t>
-  </si>
-  <si>
-    <t>D0ZksFRpa@l9</t>
-  </si>
-  <si>
-    <t>X;C&lt;IoEa5@3D</t>
-  </si>
-  <si>
-    <t>YWu`tQDyaXKs</t>
-  </si>
-  <si>
-    <t>oO3pxk?jJaH9</t>
-  </si>
-  <si>
-    <t>1ep&lt;Aw&gt;UPStq</t>
-  </si>
-  <si>
-    <t>Ab=vWYMK&gt;0^m</t>
-  </si>
-  <si>
-    <t>8mzm^YK@MD0V</t>
-  </si>
-  <si>
-    <t>95^VAx[AS49b</t>
-  </si>
-  <si>
-    <t>&gt;49CoLxMd]bK</t>
-  </si>
-  <si>
-    <t>b4Z\;KFifGmH</t>
-  </si>
-  <si>
-    <t>\c5E@hvu2m\h</t>
-  </si>
-  <si>
-    <t>cN&gt;dD=FFXwt2</t>
-  </si>
-  <si>
-    <t>W_@4eZLDJ?&lt;]</t>
-  </si>
-  <si>
-    <t>H46EwKK1S1FZ</t>
-  </si>
-  <si>
-    <t>0KZg\=sj4PgX</t>
-  </si>
-  <si>
-    <t>no7Ly_d`?Uyb</t>
-  </si>
-  <si>
-    <t>IwyFoXkzYgvm</t>
-  </si>
-  <si>
-    <t>_20Np2RUeht@</t>
-  </si>
-  <si>
-    <t>6y_:E3=`qiG`</t>
-  </si>
-  <si>
-    <t>H_&lt;zbiPX[0oH</t>
-  </si>
-  <si>
-    <t>HNv6qmr`l;uX</t>
-  </si>
-  <si>
-    <t>xqH@dV1\N3xi</t>
-  </si>
-  <si>
-    <t>qX\3Ev?KF&gt;tj</t>
-  </si>
-  <si>
-    <t>bE=Mr_5c[NKq</t>
-  </si>
-  <si>
-    <t>JsL&lt;Ly4&lt;wB4\</t>
-  </si>
-  <si>
-    <t>Pv&gt;a45@]MADL</t>
-  </si>
-  <si>
-    <t>2hM;?ISngPXq</t>
-  </si>
-  <si>
-    <t>akMUsG\MfEmG</t>
-  </si>
-  <si>
-    <t>6?7?LO\Qoc]k</t>
-  </si>
-  <si>
-    <t>wlccB=72FO6e</t>
-  </si>
-  <si>
-    <t>K[1e^kL^]nOe</t>
-  </si>
-  <si>
-    <t>fXqZyJC=lxKZ</t>
-  </si>
-  <si>
-    <t>YF81V[Q=M6]g</t>
-  </si>
-  <si>
-    <t>X&gt;F[5et`Km9\</t>
-  </si>
-  <si>
-    <t>eXXH[S=GxIi&lt;</t>
-  </si>
-  <si>
-    <t>5fmnK7MeuvDR</t>
-  </si>
-  <si>
-    <t>&gt;YoMIZ6ZWZ8k</t>
-  </si>
-  <si>
-    <t>F7dwv1_7;FuF</t>
-  </si>
-  <si>
-    <t>0Mw8xE2QPm5T</t>
-  </si>
-  <si>
-    <t>W_=HLj\aO:cM</t>
-  </si>
-  <si>
-    <t>Qfu9M&gt;MPRjXA</t>
-  </si>
-  <si>
-    <t>n@F7DgDE_oXC</t>
-  </si>
-  <si>
-    <t>rA3\`tForLUq</t>
-  </si>
-  <si>
-    <t>UYBtTR@Z[eMC</t>
-  </si>
-  <si>
-    <t>vH[TM]e1bdDf</t>
-  </si>
-  <si>
-    <t>Z3`96uyn7fQc</t>
-  </si>
-  <si>
-    <t>6jRL:6QcpCzY</t>
-  </si>
-  <si>
-    <t>EEHz1hanRiq]</t>
-  </si>
-  <si>
-    <t>?8X^hN:XUggA</t>
-  </si>
-  <si>
-    <t>OwcU2Dw;jsA6</t>
-  </si>
-  <si>
-    <t>UtGui3\DnG=i</t>
-  </si>
-  <si>
-    <t>tYoRi3lU?DnB</t>
-  </si>
-  <si>
-    <t>]XimGJEbCD12</t>
-  </si>
-  <si>
-    <t>^_DLrsEztL29</t>
-  </si>
-  <si>
-    <t>zJ=r=DY9ECD@</t>
-  </si>
-  <si>
-    <t>?6ef]j?DGHku</t>
-  </si>
-  <si>
-    <t>0i&gt;uqNIlpoEq</t>
-  </si>
-  <si>
-    <t>wI`vJPz5Zob_</t>
-  </si>
-  <si>
-    <t>K=vXh:;VohcJ</t>
-  </si>
-  <si>
-    <t>&lt;YfDHoww4C7s</t>
-  </si>
-  <si>
-    <t>;[58ZUYWqni4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14">
     <font>
       <sz val="11"/>
@@ -2137,45 +1955,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" applyFill="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" applyFill="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="2" applyFill="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyFill="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFill="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFill="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFill="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFill="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFill="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFill="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFill="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFill="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFill="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFill="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2185,7 +2003,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFill="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2209,25 +2027,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
-      <protection locked="0" hidden="0"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
+    <cellStyle name="Bueno" xfId="3" builtinId="26"/>
+    <cellStyle name="Hipervínculo" xfId="5" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Incorrecto" xfId="6" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Hyperlink" xfId="1"/>
     <cellStyle name="Salida" xfId="2" builtinId="21"/>
-    <cellStyle name="Bueno" xfId="3" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
-    <cellStyle name="Hipervínculo" xfId="5" builtinId="8"/>
-    <cellStyle name="Incorrecto" xfId="6" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2495,14 +2319,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14062" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
@@ -2584,9 +2408,6 @@
       <c r="J2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" t="s">
-        <v>534</v>
-      </c>
     </row>
     <row r="3" spans="1:11" ht="30">
       <c r="A3" s="13" t="s">
@@ -2619,9 +2440,6 @@
       <c r="J3" t="s">
         <v>23</v>
       </c>
-      <c r="K3" t="s">
-        <v>535</v>
-      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="13" t="s">
@@ -2654,9 +2472,6 @@
       <c r="J4" t="s">
         <v>27</v>
       </c>
-      <c r="K4" t="s">
-        <v>536</v>
-      </c>
     </row>
     <row r="5" spans="1:11" ht="45">
       <c r="A5" s="13" t="s">
@@ -2689,9 +2504,6 @@
       <c r="J5" t="s">
         <v>31</v>
       </c>
-      <c r="K5" t="s">
-        <v>537</v>
-      </c>
     </row>
     <row r="6" spans="1:11" ht="30">
       <c r="A6" s="13" t="s">
@@ -2724,9 +2536,6 @@
       <c r="J6" t="s">
         <v>35</v>
       </c>
-      <c r="K6" t="s">
-        <v>538</v>
-      </c>
     </row>
     <row r="7" spans="1:11" ht="45">
       <c r="A7" s="13" t="s">
@@ -2759,9 +2568,6 @@
       <c r="J7" t="s">
         <v>43</v>
       </c>
-      <c r="K7" t="s">
-        <v>539</v>
-      </c>
     </row>
     <row r="8" spans="1:11" ht="45">
       <c r="A8" s="13" t="s">
@@ -2794,9 +2600,6 @@
       <c r="J8" t="s">
         <v>47</v>
       </c>
-      <c r="K8" t="s">
-        <v>540</v>
-      </c>
     </row>
     <row r="9" spans="1:11" ht="30">
       <c r="A9" s="13" t="s">
@@ -2829,9 +2632,6 @@
       <c r="J9" t="s">
         <v>51</v>
       </c>
-      <c r="K9" t="s">
-        <v>541</v>
-      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="13" t="s">
@@ -2864,9 +2664,6 @@
       <c r="J10" t="s">
         <v>56</v>
       </c>
-      <c r="K10" t="s">
-        <v>542</v>
-      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="13" t="s">
@@ -2899,9 +2696,6 @@
       <c r="J11" t="s">
         <v>60</v>
       </c>
-      <c r="K11" t="s">
-        <v>543</v>
-      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="13" t="s">
@@ -2934,9 +2728,6 @@
       <c r="J12" t="s">
         <v>68</v>
       </c>
-      <c r="K12" t="s">
-        <v>544</v>
-      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="13" t="s">
@@ -2969,9 +2760,6 @@
       <c r="J13" t="s">
         <v>72</v>
       </c>
-      <c r="K13" t="s">
-        <v>545</v>
-      </c>
     </row>
     <row r="14" spans="1:11" ht="60">
       <c r="A14" s="13" t="s">
@@ -3003,9 +2791,6 @@
       </c>
       <c r="J14" t="s">
         <v>76</v>
-      </c>
-      <c r="K14" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="90">
@@ -3033,9 +2818,6 @@
       <c r="J15" t="s">
         <v>81</v>
       </c>
-      <c r="K15" t="s">
-        <v>547</v>
-      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="13" t="s">
@@ -3062,11 +2844,8 @@
       <c r="J16" t="s">
         <v>85</v>
       </c>
-      <c r="K16" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="75">
+    </row>
+    <row r="17" spans="1:10" ht="75">
       <c r="A17" s="13" t="s">
         <v>86</v>
       </c>
@@ -3091,11 +2870,8 @@
       <c r="J17" t="s">
         <v>89</v>
       </c>
-      <c r="K17" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="45">
+    </row>
+    <row r="18" spans="1:10" ht="45">
       <c r="A18" s="13" t="s">
         <v>90</v>
       </c>
@@ -3120,11 +2896,8 @@
       <c r="J18" t="s">
         <v>93</v>
       </c>
-      <c r="K18" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="60">
+    </row>
+    <row r="19" spans="1:10" ht="60">
       <c r="A19" s="13" t="s">
         <v>94</v>
       </c>
@@ -3149,11 +2922,8 @@
       <c r="J19" t="s">
         <v>97</v>
       </c>
-      <c r="K19" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="45">
+    </row>
+    <row r="20" spans="1:10" ht="45">
       <c r="A20" s="13" t="s">
         <v>98</v>
       </c>
@@ -3178,11 +2948,8 @@
       <c r="J20" t="s">
         <v>101</v>
       </c>
-      <c r="K20" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="30">
+    </row>
+    <row r="21" spans="1:10" ht="30">
       <c r="A21" s="13" t="s">
         <v>102</v>
       </c>
@@ -3207,11 +2974,8 @@
       <c r="J21" t="s">
         <v>105</v>
       </c>
-      <c r="K21" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="30">
+    </row>
+    <row r="22" spans="1:10" ht="30">
       <c r="A22" s="13" t="s">
         <v>106</v>
       </c>
@@ -3236,11 +3000,8 @@
       <c r="J22" t="s">
         <v>109</v>
       </c>
-      <c r="K22" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="13" t="s">
         <v>110</v>
       </c>
@@ -3265,11 +3026,8 @@
       <c r="J23" t="s">
         <v>113</v>
       </c>
-      <c r="K23" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="30">
+    </row>
+    <row r="24" spans="1:10" ht="30">
       <c r="A24" s="13" t="s">
         <v>114</v>
       </c>
@@ -3294,11 +3052,8 @@
       <c r="J24" t="s">
         <v>117</v>
       </c>
-      <c r="K24" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="45">
+    </row>
+    <row r="25" spans="1:10" ht="45">
       <c r="A25" s="13" t="s">
         <v>118</v>
       </c>
@@ -3323,11 +3078,8 @@
       <c r="J25" t="s">
         <v>122</v>
       </c>
-      <c r="K25" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="30">
+    </row>
+    <row r="26" spans="1:10" ht="30">
       <c r="A26" s="13" t="s">
         <v>123</v>
       </c>
@@ -3352,11 +3104,8 @@
       <c r="J26" t="s">
         <v>126</v>
       </c>
-      <c r="K26" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="30">
+    </row>
+    <row r="27" spans="1:10" ht="30">
       <c r="A27" s="13" t="s">
         <v>127</v>
       </c>
@@ -3381,11 +3130,8 @@
       <c r="J27" t="s">
         <v>130</v>
       </c>
-      <c r="K27" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="30">
+    </row>
+    <row r="28" spans="1:10" ht="30">
       <c r="A28" s="13" t="s">
         <v>131</v>
       </c>
@@ -3410,11 +3156,8 @@
       <c r="J28" t="s">
         <v>134</v>
       </c>
-      <c r="K28" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="30">
+    </row>
+    <row r="29" spans="1:10" ht="30">
       <c r="A29" s="13" t="s">
         <v>135</v>
       </c>
@@ -3439,11 +3182,8 @@
       <c r="J29" t="s">
         <v>138</v>
       </c>
-      <c r="K29" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="30">
+    </row>
+    <row r="30" spans="1:10" ht="30">
       <c r="A30" s="13" t="s">
         <v>139</v>
       </c>
@@ -3468,11 +3208,8 @@
       <c r="J30" t="s">
         <v>142</v>
       </c>
-      <c r="K30" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="13" t="s">
         <v>143</v>
       </c>
@@ -3497,11 +3234,8 @@
       <c r="J31" t="s">
         <v>146</v>
       </c>
-      <c r="K31" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="45">
+    </row>
+    <row r="32" spans="1:10" ht="45">
       <c r="A32" s="13" t="s">
         <v>147</v>
       </c>
@@ -3526,11 +3260,8 @@
       <c r="J32" t="s">
         <v>151</v>
       </c>
-      <c r="K32" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="45">
+    </row>
+    <row r="33" spans="1:10" ht="45">
       <c r="A33" s="13" t="s">
         <v>152</v>
       </c>
@@ -3555,11 +3286,8 @@
       <c r="J33" t="s">
         <v>155</v>
       </c>
-      <c r="K33" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="30">
+    </row>
+    <row r="34" spans="1:10" ht="30">
       <c r="A34" s="13" t="s">
         <v>156</v>
       </c>
@@ -3590,11 +3318,8 @@
       <c r="J34" t="s">
         <v>163</v>
       </c>
-      <c r="K34" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="30">
+    </row>
+    <row r="35" spans="1:10" ht="30">
       <c r="A35" s="13" t="s">
         <v>164</v>
       </c>
@@ -3625,11 +3350,8 @@
       <c r="J35" t="s">
         <v>167</v>
       </c>
-      <c r="K35" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="30">
+    </row>
+    <row r="36" spans="1:10" ht="30">
       <c r="A36" s="13" t="s">
         <v>168</v>
       </c>
@@ -3654,11 +3376,8 @@
       <c r="J36" t="s">
         <v>171</v>
       </c>
-      <c r="K36" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="30">
+    </row>
+    <row r="37" spans="1:10" ht="30">
       <c r="A37" s="13" t="s">
         <v>172</v>
       </c>
@@ -3683,11 +3402,8 @@
       <c r="J37" t="s">
         <v>175</v>
       </c>
-      <c r="K37" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="30">
+    </row>
+    <row r="38" spans="1:10" ht="30">
       <c r="A38" s="13" t="s">
         <v>176</v>
       </c>
@@ -3712,11 +3428,8 @@
       <c r="J38" t="s">
         <v>180</v>
       </c>
-      <c r="K38" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="30">
+    </row>
+    <row r="39" spans="1:10" ht="30">
       <c r="A39" s="13" t="s">
         <v>181</v>
       </c>
@@ -3741,11 +3454,8 @@
       <c r="J39" t="s">
         <v>184</v>
       </c>
-      <c r="K39" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="13" t="s">
         <v>185</v>
       </c>
@@ -3770,11 +3480,8 @@
       <c r="J40" t="s">
         <v>188</v>
       </c>
-      <c r="K40" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="13" t="s">
         <v>189</v>
       </c>
@@ -3799,11 +3506,8 @@
       <c r="J41" t="s">
         <v>192</v>
       </c>
-      <c r="K41" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="30">
+    </row>
+    <row r="42" spans="1:10" ht="30">
       <c r="A42" s="13" t="s">
         <v>193</v>
       </c>
@@ -3828,11 +3532,8 @@
       <c r="J42" t="s">
         <v>196</v>
       </c>
-      <c r="K42" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="30">
+    </row>
+    <row r="43" spans="1:10" ht="30">
       <c r="A43" s="13" t="s">
         <v>197</v>
       </c>
@@ -3857,11 +3558,8 @@
       <c r="J43" t="s">
         <v>200</v>
       </c>
-      <c r="K43" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="13" t="s">
         <v>201</v>
       </c>
@@ -3892,11 +3590,8 @@
       <c r="J44" t="s">
         <v>208</v>
       </c>
-      <c r="K44" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="13" t="s">
         <v>209</v>
       </c>
@@ -3927,11 +3622,8 @@
       <c r="J45" t="s">
         <v>212</v>
       </c>
-      <c r="K45" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="30">
+    </row>
+    <row r="46" spans="1:10" ht="30">
       <c r="A46" s="13" t="s">
         <v>213</v>
       </c>
@@ -3962,11 +3654,8 @@
       <c r="J46" t="s">
         <v>215</v>
       </c>
-      <c r="K46" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="30">
+    </row>
+    <row r="47" spans="1:10" ht="30">
       <c r="A47" s="13" t="s">
         <v>216</v>
       </c>
@@ -3997,11 +3686,8 @@
       <c r="J47" t="s">
         <v>222</v>
       </c>
-      <c r="K47" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="30">
+    </row>
+    <row r="48" spans="1:10" ht="30">
       <c r="A48" s="13" t="s">
         <v>223</v>
       </c>
@@ -4032,11 +3718,8 @@
       <c r="J48" t="s">
         <v>226</v>
       </c>
-      <c r="K48" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="13" t="s">
         <v>227</v>
       </c>
@@ -4067,11 +3750,8 @@
       <c r="J49" t="s">
         <v>234</v>
       </c>
-      <c r="K49" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="60">
+    </row>
+    <row r="50" spans="1:10" ht="60">
       <c r="A50" s="13" t="s">
         <v>235</v>
       </c>
@@ -4102,11 +3782,8 @@
       <c r="J50" t="s">
         <v>239</v>
       </c>
-      <c r="K50" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="60">
+    </row>
+    <row r="51" spans="1:10" ht="60">
       <c r="A51" s="13" t="s">
         <v>240</v>
       </c>
@@ -4137,11 +3814,8 @@
       <c r="J51" t="s">
         <v>247</v>
       </c>
-      <c r="K51" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="60">
+    </row>
+    <row r="52" spans="1:10" ht="60">
       <c r="A52" s="13" t="s">
         <v>248</v>
       </c>
@@ -4172,11 +3846,8 @@
       <c r="J52" t="s">
         <v>251</v>
       </c>
-      <c r="K52" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="105">
+    </row>
+    <row r="53" spans="1:10" ht="105">
       <c r="A53" s="13" t="s">
         <v>252</v>
       </c>
@@ -4207,11 +3878,8 @@
       <c r="J53" t="s">
         <v>259</v>
       </c>
-      <c r="K53" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="30">
+    </row>
+    <row r="54" spans="1:10" ht="30">
       <c r="A54" s="13" t="s">
         <v>260</v>
       </c>
@@ -4242,11 +3910,8 @@
       <c r="J54" t="s">
         <v>267</v>
       </c>
-      <c r="K54" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="30">
+    </row>
+    <row r="55" spans="1:10" ht="30">
       <c r="A55" s="13" t="s">
         <v>268</v>
       </c>
@@ -4277,11 +3942,8 @@
       <c r="J55" t="s">
         <v>271</v>
       </c>
-      <c r="K55" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="26.25">
+    </row>
+    <row r="56" spans="1:10" ht="26.25">
       <c r="A56" s="13" t="s">
         <v>272</v>
       </c>
@@ -4312,11 +3974,8 @@
       <c r="J56" t="s">
         <v>274</v>
       </c>
-      <c r="K56" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="30">
+    </row>
+    <row r="57" spans="1:10" ht="30">
       <c r="A57" s="13" t="s">
         <v>275</v>
       </c>
@@ -4347,11 +4006,8 @@
       <c r="J57" t="s">
         <v>280</v>
       </c>
-      <c r="K57" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="13" t="s">
         <v>281</v>
       </c>
@@ -4382,11 +4038,8 @@
       <c r="J58" t="s">
         <v>284</v>
       </c>
-      <c r="K58" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="30">
+    </row>
+    <row r="59" spans="1:10" ht="30">
       <c r="A59" s="13" t="s">
         <v>285</v>
       </c>
@@ -4417,11 +4070,8 @@
       <c r="J59" t="s">
         <v>288</v>
       </c>
-      <c r="K59" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="13" t="s">
         <v>289</v>
       </c>
@@ -4452,11 +4102,8 @@
       <c r="J60" t="s">
         <v>292</v>
       </c>
-      <c r="K60" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="13" t="s">
         <v>293</v>
       </c>
@@ -4487,11 +4134,8 @@
       <c r="J61" t="s">
         <v>300</v>
       </c>
-      <c r="K61" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="60">
+    </row>
+    <row r="62" spans="1:10" ht="60">
       <c r="A62" s="13" t="s">
         <v>301</v>
       </c>
@@ -4522,11 +4166,8 @@
       <c r="J62" t="s">
         <v>307</v>
       </c>
-      <c r="K62" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="45">
+    </row>
+    <row r="63" spans="1:10" ht="45">
       <c r="A63" s="13" t="s">
         <v>308</v>
       </c>
@@ -4557,11 +4198,8 @@
       <c r="J63" t="s">
         <v>311</v>
       </c>
-      <c r="K63" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="13" t="s">
         <v>312</v>
       </c>
@@ -4592,11 +4230,8 @@
       <c r="J64" t="s">
         <v>314</v>
       </c>
-      <c r="K64" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="13" t="s">
         <v>315</v>
       </c>
@@ -4627,11 +4262,8 @@
       <c r="J65" t="s">
         <v>318</v>
       </c>
-      <c r="K65" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="45">
+    </row>
+    <row r="66" spans="1:10" ht="45">
       <c r="A66" s="13" t="s">
         <v>319</v>
       </c>
@@ -4662,11 +4294,8 @@
       <c r="J66" t="s">
         <v>322</v>
       </c>
-      <c r="K66" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="30">
+    </row>
+    <row r="67" spans="1:10" ht="30">
       <c r="A67" s="13" t="s">
         <v>323</v>
       </c>
@@ -4697,11 +4326,8 @@
       <c r="J67" t="s">
         <v>329</v>
       </c>
-      <c r="K67" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="30">
+    </row>
+    <row r="68" spans="1:10" ht="30">
       <c r="A68" s="13" t="s">
         <v>330</v>
       </c>
@@ -4732,11 +4358,8 @@
       <c r="J68" t="s">
         <v>336</v>
       </c>
-      <c r="K68" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="30">
+    </row>
+    <row r="69" spans="1:10" ht="30">
       <c r="A69" s="13" t="s">
         <v>337</v>
       </c>
@@ -4767,11 +4390,8 @@
       <c r="J69" t="s">
         <v>340</v>
       </c>
-      <c r="K69" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="13" t="s">
         <v>341</v>
       </c>
@@ -4796,11 +4416,8 @@
       <c r="J70" t="s">
         <v>344</v>
       </c>
-      <c r="K70" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="45">
+    </row>
+    <row r="71" spans="1:10" ht="45">
       <c r="A71" s="13" t="s">
         <v>345</v>
       </c>
@@ -4830,44 +4447,41 @@
       </c>
       <c r="J71" t="s">
         <v>350</v>
-      </c>
-      <c r="K71" t="s">
-        <v>603</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <extLst>
-    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <g2:dataValidations xmlns:g2="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" count="2">
-        <g2:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
-          <g2:formula1>
-            <g3:f xmlns:g3="http://schemas.microsoft.com/office/excel/2006/main">'Listas y leyendas'!$F$2:$F$9</g3:f>
-          </g2:formula1>
-          <g3:sqref xmlns:g3="http://schemas.microsoft.com/office/excel/2006/main">E72:E1048576</g3:sqref>
-        </g2:dataValidation>
-        <g2:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
-          <g2:formula1>
-            <g3:f xmlns:g3="http://schemas.microsoft.com/office/excel/2006/main">'Listas y leyendas'!$O$2:$O$10</g3:f>
-          </g2:formula1>
-          <g3:sqref xmlns:g3="http://schemas.microsoft.com/office/excel/2006/main">H72:H1048576</g3:sqref>
-        </g2:dataValidation>
-      </g2:dataValidations>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+          <x14:formula1>
+            <xm:f>'Listas y leyendas'!$F$2:$F$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>E72:E1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+          <x14:formula1>
+            <xm:f>'Listas y leyendas'!$O$2:$O$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>H72:H1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
     </ext>
   </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14062" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="2" max="2" width="76.5703125" customWidth="1"/>
@@ -4935,9 +4549,6 @@
       <c r="H2" t="s">
         <v>364</v>
       </c>
-      <c r="I2" t="s">
-        <v>533</v>
-      </c>
     </row>
     <row r="3" spans="1:9" ht="195">
       <c r="A3" t="s">
@@ -4964,9 +4575,6 @@
       <c r="H3" t="s">
         <v>368</v>
       </c>
-      <c r="I3" t="s">
-        <v>533</v>
-      </c>
     </row>
     <row r="4" spans="1:9" ht="180">
       <c r="A4" t="s">
@@ -4993,9 +4601,6 @@
       <c r="H4" t="s">
         <v>372</v>
       </c>
-      <c r="I4" t="s">
-        <v>533</v>
-      </c>
     </row>
     <row r="5" spans="1:9" ht="270">
       <c r="A5" t="s">
@@ -5022,9 +4627,6 @@
       <c r="H5" t="s">
         <v>376</v>
       </c>
-      <c r="I5" t="s">
-        <v>533</v>
-      </c>
     </row>
     <row r="6" spans="1:9" ht="165">
       <c r="A6" t="s">
@@ -5051,9 +4653,6 @@
       <c r="H6" t="s">
         <v>380</v>
       </c>
-      <c r="I6" t="s">
-        <v>533</v>
-      </c>
     </row>
     <row r="7" spans="1:9" ht="120">
       <c r="A7" t="s">
@@ -5080,9 +4679,6 @@
       <c r="H7" t="s">
         <v>384</v>
       </c>
-      <c r="I7" t="s">
-        <v>533</v>
-      </c>
     </row>
     <row r="8" spans="1:9" ht="51.75">
       <c r="A8" t="s">
@@ -5109,9 +4705,6 @@
       <c r="H8" t="s">
         <v>388</v>
       </c>
-      <c r="I8" t="s">
-        <v>533</v>
-      </c>
     </row>
     <row r="9" spans="1:9" ht="102.75">
       <c r="A9" t="s">
@@ -5138,9 +4731,6 @@
       <c r="H9" t="s">
         <v>392</v>
       </c>
-      <c r="I9" t="s">
-        <v>533</v>
-      </c>
     </row>
     <row r="10" spans="1:9" ht="315">
       <c r="A10" t="s">
@@ -5167,9 +4757,6 @@
       <c r="H10" t="s">
         <v>396</v>
       </c>
-      <c r="I10" t="s">
-        <v>533</v>
-      </c>
     </row>
     <row r="11" spans="1:9" ht="405">
       <c r="A11" t="s">
@@ -5196,9 +4783,6 @@
       <c r="H11" t="s">
         <v>400</v>
       </c>
-      <c r="I11" t="s">
-        <v>533</v>
-      </c>
     </row>
     <row r="12" spans="1:9" ht="90">
       <c r="A12" t="s">
@@ -5225,9 +4809,6 @@
       <c r="H12" t="s">
         <v>404</v>
       </c>
-      <c r="I12" t="s">
-        <v>533</v>
-      </c>
     </row>
     <row r="13" spans="1:9" ht="102.75">
       <c r="A13" t="s">
@@ -5254,9 +4835,6 @@
       <c r="H13" t="s">
         <v>408</v>
       </c>
-      <c r="I13" t="s">
-        <v>533</v>
-      </c>
     </row>
     <row r="14" spans="1:9" ht="345">
       <c r="A14" t="s">
@@ -5283,9 +4861,6 @@
       <c r="H14" t="s">
         <v>412</v>
       </c>
-      <c r="I14" t="s">
-        <v>533</v>
-      </c>
     </row>
     <row r="15" spans="1:9" ht="150">
       <c r="A15" t="s">
@@ -5312,9 +4887,6 @@
       <c r="H15" t="s">
         <v>416</v>
       </c>
-      <c r="I15" t="s">
-        <v>533</v>
-      </c>
     </row>
     <row r="16" spans="1:9" ht="77.25">
       <c r="A16" t="s">
@@ -5341,11 +4913,8 @@
       <c r="H16" t="s">
         <v>420</v>
       </c>
-      <c r="I16" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="75">
+    </row>
+    <row r="17" spans="1:8" ht="75">
       <c r="A17" t="s">
         <v>242</v>
       </c>
@@ -5370,11 +4939,8 @@
       <c r="H17" t="s">
         <v>424</v>
       </c>
-      <c r="I17" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="375">
+    </row>
+    <row r="18" spans="1:8" ht="375">
       <c r="A18" t="s">
         <v>254</v>
       </c>
@@ -5399,11 +4965,8 @@
       <c r="H18" t="s">
         <v>428</v>
       </c>
-      <c r="I18" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="102.75">
+    </row>
+    <row r="19" spans="1:8" ht="102.75">
       <c r="A19" t="s">
         <v>262</v>
       </c>
@@ -5428,11 +4991,8 @@
       <c r="H19" t="s">
         <v>432</v>
       </c>
-      <c r="I19" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="51" customHeight="1">
+    </row>
+    <row r="20" spans="1:8" ht="51" customHeight="1">
       <c r="A20" t="s">
         <v>277</v>
       </c>
@@ -5457,11 +5017,8 @@
       <c r="H20" t="s">
         <v>436</v>
       </c>
-      <c r="I20" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="115.5">
+    </row>
+    <row r="21" spans="1:8" ht="115.5">
       <c r="A21" t="s">
         <v>295</v>
       </c>
@@ -5486,11 +5043,8 @@
       <c r="H21" t="s">
         <v>440</v>
       </c>
-      <c r="I21" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="102.75">
+    </row>
+    <row r="22" spans="1:8" ht="102.75">
       <c r="A22" t="s">
         <v>303</v>
       </c>
@@ -5515,11 +5069,8 @@
       <c r="H22" t="s">
         <v>444</v>
       </c>
-      <c r="I22" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="115.5">
+    </row>
+    <row r="23" spans="1:8" ht="115.5">
       <c r="A23" t="s">
         <v>324</v>
       </c>
@@ -5544,11 +5095,8 @@
       <c r="H23" t="s">
         <v>448</v>
       </c>
-      <c r="I23" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="64.5">
+    </row>
+    <row r="24" spans="1:8" ht="64.5">
       <c r="A24" t="s">
         <v>338</v>
       </c>
@@ -5573,11 +5121,8 @@
       <c r="H24" t="s">
         <v>452</v>
       </c>
-      <c r="I24" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="38.25">
+    </row>
+    <row r="25" spans="1:8" ht="38.25">
       <c r="A25" t="s">
         <v>342</v>
       </c>
@@ -5602,11 +5147,8 @@
       <c r="H25" t="s">
         <v>455</v>
       </c>
-      <c r="I25" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="128.25">
+    </row>
+    <row r="26" spans="1:8" ht="128.25">
       <c r="A26" t="s">
         <v>347</v>
       </c>
@@ -5631,57 +5173,113 @@
       <c r="H26" t="s">
         <v>459</v>
       </c>
-      <c r="I26" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+    </row>
+    <row r="27" spans="1:8">
       <c r="B27" s="20"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:8">
       <c r="B28" s="21"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:8">
       <c r="B29" s="21"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:8">
       <c r="B30" s="20"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:8">
       <c r="B31" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
-    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <g2:dataValidations xmlns:g2="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" count="2">
-        <g2:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
-          <g2:formula1>
-            <g3:f xmlns:g3="http://schemas.microsoft.com/office/excel/2006/main">'Listas y leyendas'!$F$2:$F$9</g3:f>
-          </g2:formula1>
-          <g3:sqref xmlns:g3="http://schemas.microsoft.com/office/excel/2006/main">A2</g3:sqref>
-        </g2:dataValidation>
-        <g2:dataValidation allowBlank="1" error="Seleccione un valor de la lista" errorTitle="Entrada inválida" prompt="Seleccione un tipo de empresa" promptTitle="Tipo de empresa" showErrorMessage="1" showInputMessage="1" type="list">
-          <g2:formula1>
-            <g3:f xmlns:g3="http://schemas.microsoft.com/office/excel/2006/main">'Listas y leyendas'!$B$2:$B$21</g3:f>
-          </g2:formula1>
-          <g3:sqref xmlns:g3="http://schemas.microsoft.com/office/excel/2006/main">D2:D1048576</g3:sqref>
-        </g2:dataValidation>
-      </g2:dataValidations>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+          <x14:formula1>
+            <xm:f>'Listas y leyendas'!$F$2:$F$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Entrada inválida" error="Seleccione un valor de la lista" promptTitle="Tipo de empresa" prompt="Seleccione un tipo de empresa" xr:uid="{00000000-0002-0000-0100-000001000000}">
+          <x14:formula1>
+            <xm:f>'Listas y leyendas'!$B$2:$B$21</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
     </ext>
   </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C876676D-DD75-4785-895D-73121CF7C510}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19" style="8" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="32" t="s">
+        <v>460</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="B2" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="B4" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="B5" s="9">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14062" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="39.5703125" customWidth="1"/>
     <col min="5" max="5" width="30.85546875" customWidth="1"/>
@@ -5692,43 +5290,43 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75">
       <c r="A1" s="3" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="6" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="7" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75">
       <c r="A2" s="2" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -5736,27 +5334,27 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="2" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="F2" s="2">
         <v>0</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="2" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="I2" s="2">
         <v>0</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="2" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="L2" s="2">
         <v>0</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
@@ -5764,7 +5362,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75">
       <c r="A3" s="2" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -5772,27 +5370,27 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="2" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="F3" s="2">
         <v>1</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="2" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="2" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="L3" s="2">
         <v>1</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="O3" s="2">
         <v>1</v>
@@ -5800,7 +5398,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75">
       <c r="A4" s="2" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
@@ -5808,27 +5406,27 @@
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="2" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="F4" s="2">
         <v>2</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="2" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="I4" s="2">
         <v>2</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="2" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="L4" s="2">
         <v>2</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="O4" s="2">
         <v>2</v>
@@ -5836,7 +5434,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75">
       <c r="A5" s="2" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="B5" s="2">
         <v>3</v>
@@ -5844,27 +5442,27 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="2" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="F5" s="2">
         <v>3</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="2" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="I5" s="2">
         <v>3</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="2" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="L5" s="2">
         <v>3</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="O5" s="2">
         <v>3</v>
@@ -5872,7 +5470,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75">
       <c r="A6" s="2" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="B6" s="2">
         <v>4</v>
@@ -5880,27 +5478,27 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="2" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="F6" s="2">
         <v>4</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="2" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="I6" s="2">
         <v>4</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="2" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="L6" s="2">
         <v>4</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="O6" s="2">
         <v>4</v>
@@ -5908,7 +5506,7 @@
     </row>
     <row r="7" spans="1:15" ht="15.75">
       <c r="A7" s="2" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="B7" s="2">
         <v>5</v>
@@ -5916,27 +5514,27 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="2" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="F7" s="2">
         <v>5</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="2" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="I7" s="2">
         <v>5</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="2" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="L7" s="2">
         <v>5</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="O7" s="2">
         <v>5</v>
@@ -5944,7 +5542,7 @@
     </row>
     <row r="8" spans="1:15" ht="15.75">
       <c r="A8" s="2" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="B8" s="2">
         <v>6</v>
@@ -5952,27 +5550,27 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="2" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="F8" s="2">
         <v>6</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="2" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="I8" s="2">
         <v>6</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="2" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="L8" s="2">
         <v>6</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="O8" s="2">
         <v>6</v>
@@ -5980,7 +5578,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75">
       <c r="A9" s="2" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="B9" s="2">
         <v>7</v>
@@ -5988,27 +5586,27 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="2" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="F9" s="2">
         <v>7</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="2" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="I9" s="2">
         <v>7</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="2" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="L9" s="2">
         <v>7</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="O9" s="2">
         <v>7</v>
@@ -6016,7 +5614,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75">
       <c r="A10" s="2" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="B10" s="2">
         <v>8</v>
@@ -6027,20 +5625,20 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="2" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="I10" s="2">
         <v>8</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="2" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="L10" s="2">
         <v>8</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="O10" s="2">
         <v>8</v>
@@ -6048,7 +5646,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75">
       <c r="A11" s="2" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="B11" s="2">
         <v>9</v>
@@ -6059,14 +5657,14 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="2" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="I11" s="2">
         <v>9</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="2" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="L11" s="2">
         <v>9</v>
@@ -6074,7 +5672,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.75">
       <c r="A12" s="2" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="B12" s="2">
         <v>10</v>
@@ -6085,14 +5683,14 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="2" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="I12" s="2">
         <v>10</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="2" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="L12" s="2">
         <v>10</v>
@@ -6100,7 +5698,7 @@
     </row>
     <row r="13" spans="1:15" ht="15.75">
       <c r="A13" s="2" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="B13" s="2">
         <v>11</v>
@@ -6111,14 +5709,14 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="2" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="I13" s="2">
         <v>11</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="2" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="L13" s="2">
         <v>11</v>
@@ -6126,7 +5724,7 @@
     </row>
     <row r="14" spans="1:15" ht="15.75">
       <c r="A14" s="2" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="B14" s="2">
         <v>12</v>
@@ -6137,14 +5735,14 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="2" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="I14" s="2">
         <v>12</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="2" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="L14" s="2">
         <v>12</v>
@@ -6152,7 +5750,7 @@
     </row>
     <row r="15" spans="1:15" ht="15.75">
       <c r="A15" s="2" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="B15" s="2">
         <v>13</v>
@@ -6163,14 +5761,14 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="2" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="I15" s="2">
         <v>13</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="2" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="L15" s="2">
         <v>13</v>
@@ -6178,7 +5776,7 @@
     </row>
     <row r="16" spans="1:15" ht="15.75">
       <c r="A16" s="2" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="B16" s="2">
         <v>14</v>
@@ -6189,22 +5787,22 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="2" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="I16" s="2">
         <v>14</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="2" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="L16" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75">
+    <row r="17" spans="1:12" ht="15.75">
       <c r="A17" s="2" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="B17" s="2">
         <v>15</v>
@@ -6215,7 +5813,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="2" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="I17" s="2">
         <v>15</v>
@@ -6224,9 +5822,9 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:15" ht="15.75">
+    <row r="18" spans="1:12" ht="15.75">
       <c r="A18" s="2" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="B18" s="2">
         <v>16</v>
@@ -6242,9 +5840,9 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:15" ht="15.75">
+    <row r="19" spans="1:12" ht="15.75">
       <c r="A19" s="2" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="B19" s="2">
         <v>17</v>
@@ -6260,9 +5858,9 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:15" ht="15.75">
+    <row r="20" spans="1:12" ht="15.75">
       <c r="A20" s="2" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="B20" s="2">
         <v>18</v>
@@ -6278,9 +5876,9 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:15" ht="15.75">
+    <row r="21" spans="1:12" ht="15.75">
       <c r="A21" s="2" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="B21" s="2">
         <v>19</v>

--- a/MyProject2/Content/Excels/Socios.xlsx
+++ b/MyProject2/Content/Excels/Socios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEFB28E2-D20F-4C55-9680-D2CAC9012687}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7F19552-3D5E-4E3F-8BBF-482437853A3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="540">
   <si>
     <t>Nomre y apellidos</t>
   </si>
@@ -1527,16 +1527,19 @@
     <t>Descuento</t>
   </si>
   <si>
+    <t>ivananfruns1</t>
+  </si>
+  <si>
+    <t>user2</t>
+  </si>
+  <si>
+    <t>user3</t>
+  </si>
+  <si>
+    <t>user4</t>
+  </si>
+  <si>
     <t>user1</t>
-  </si>
-  <si>
-    <t>user2</t>
-  </si>
-  <si>
-    <t>user3</t>
-  </si>
-  <si>
-    <t>user4</t>
   </si>
   <si>
     <t>Tipos de empresas</t>
@@ -5214,10 +5217,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C876676D-DD75-4785-895D-73121CF7C510}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5264,6 +5267,14 @@
       </c>
       <c r="B5" s="9">
         <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="B6" s="9">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -5290,43 +5301,43 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75">
       <c r="A1" s="3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>468</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>467</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="6" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75">
       <c r="A2" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -5334,27 +5345,27 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F2" s="2">
         <v>0</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="I2" s="2">
         <v>0</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L2" s="2">
         <v>0</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
@@ -5362,7 +5373,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75">
       <c r="A3" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -5370,27 +5381,27 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F3" s="2">
         <v>1</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L3" s="2">
         <v>1</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="O3" s="2">
         <v>1</v>
@@ -5398,7 +5409,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75">
       <c r="A4" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
@@ -5406,27 +5417,27 @@
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F4" s="2">
         <v>2</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I4" s="2">
         <v>2</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="L4" s="2">
         <v>2</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O4" s="2">
         <v>2</v>
@@ -5434,7 +5445,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75">
       <c r="A5" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B5" s="2">
         <v>3</v>
@@ -5442,27 +5453,27 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F5" s="2">
         <v>3</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="I5" s="2">
         <v>3</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L5" s="2">
         <v>3</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="O5" s="2">
         <v>3</v>
@@ -5470,7 +5481,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75">
       <c r="A6" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B6" s="2">
         <v>4</v>
@@ -5478,27 +5489,27 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F6" s="2">
         <v>4</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="I6" s="2">
         <v>4</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="L6" s="2">
         <v>4</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="O6" s="2">
         <v>4</v>
@@ -5506,7 +5517,7 @@
     </row>
     <row r="7" spans="1:15" ht="15.75">
       <c r="A7" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B7" s="2">
         <v>5</v>
@@ -5514,27 +5525,27 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F7" s="2">
         <v>5</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="I7" s="2">
         <v>5</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="L7" s="2">
         <v>5</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O7" s="2">
         <v>5</v>
@@ -5542,7 +5553,7 @@
     </row>
     <row r="8" spans="1:15" ht="15.75">
       <c r="A8" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B8" s="2">
         <v>6</v>
@@ -5550,27 +5561,27 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F8" s="2">
         <v>6</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I8" s="2">
         <v>6</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="L8" s="2">
         <v>6</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="O8" s="2">
         <v>6</v>
@@ -5578,7 +5589,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75">
       <c r="A9" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B9" s="2">
         <v>7</v>
@@ -5586,27 +5597,27 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F9" s="2">
         <v>7</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="I9" s="2">
         <v>7</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="L9" s="2">
         <v>7</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O9" s="2">
         <v>7</v>
@@ -5614,7 +5625,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75">
       <c r="A10" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B10" s="2">
         <v>8</v>
@@ -5625,20 +5636,20 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I10" s="2">
         <v>8</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L10" s="2">
         <v>8</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="O10" s="2">
         <v>8</v>
@@ -5646,7 +5657,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75">
       <c r="A11" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B11" s="2">
         <v>9</v>
@@ -5657,14 +5668,14 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="I11" s="2">
         <v>9</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="L11" s="2">
         <v>9</v>
@@ -5672,7 +5683,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.75">
       <c r="A12" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B12" s="2">
         <v>10</v>
@@ -5683,14 +5694,14 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="I12" s="2">
         <v>10</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L12" s="2">
         <v>10</v>
@@ -5698,7 +5709,7 @@
     </row>
     <row r="13" spans="1:15" ht="15.75">
       <c r="A13" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B13" s="2">
         <v>11</v>
@@ -5709,14 +5720,14 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="I13" s="2">
         <v>11</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L13" s="2">
         <v>11</v>
@@ -5724,7 +5735,7 @@
     </row>
     <row r="14" spans="1:15" ht="15.75">
       <c r="A14" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B14" s="2">
         <v>12</v>
@@ -5735,14 +5746,14 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="I14" s="2">
         <v>12</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="L14" s="2">
         <v>12</v>
@@ -5750,7 +5761,7 @@
     </row>
     <row r="15" spans="1:15" ht="15.75">
       <c r="A15" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B15" s="2">
         <v>13</v>
@@ -5761,14 +5772,14 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="I15" s="2">
         <v>13</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L15" s="2">
         <v>13</v>
@@ -5776,7 +5787,7 @@
     </row>
     <row r="16" spans="1:15" ht="15.75">
       <c r="A16" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B16" s="2">
         <v>14</v>
@@ -5787,14 +5798,14 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="I16" s="2">
         <v>14</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="L16" s="2">
         <v>14</v>
@@ -5802,7 +5813,7 @@
     </row>
     <row r="17" spans="1:12" ht="15.75">
       <c r="A17" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B17" s="2">
         <v>15</v>
@@ -5813,7 +5824,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="I17" s="2">
         <v>15</v>
@@ -5824,7 +5835,7 @@
     </row>
     <row r="18" spans="1:12" ht="15.75">
       <c r="A18" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B18" s="2">
         <v>16</v>
@@ -5842,7 +5853,7 @@
     </row>
     <row r="19" spans="1:12" ht="15.75">
       <c r="A19" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B19" s="2">
         <v>17</v>
@@ -5860,7 +5871,7 @@
     </row>
     <row r="20" spans="1:12" ht="15.75">
       <c r="A20" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B20" s="2">
         <v>18</v>
@@ -5878,7 +5889,7 @@
     </row>
     <row r="21" spans="1:12" ht="15.75">
       <c r="A21" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B21" s="2">
         <v>19</v>
